--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C248E3-8804-471E-A19C-596E30770AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0867787A-2792-4F64-91E0-88B89663D54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="105" windowWidth="21600" windowHeight="14400" tabRatio="671" activeTab="2" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="671" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data jabar" sheetId="3" r:id="rId1"/>
@@ -42,8 +42,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>wizard</author>
+  </authors>
+  <commentList>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{1DAB81E4-4379-4D0C-A7CE-77A92D0F429C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+yang kuning adalah data 
+RUED
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
   <si>
     <t>Kabupaten/Regency</t>
   </si>
@@ -345,9 +381,6 @@
     <t>PDRB per Kapita * Populasi</t>
   </si>
   <si>
-    <t>gdp[jabar]</t>
-  </si>
-  <si>
     <t>Jumlah Penduduk (Jiwa)</t>
   </si>
   <si>
@@ -372,24 +405,9 @@
     <t>final energy demand province[jabar]</t>
   </si>
   <si>
-    <t>value added[jabar,industry]</t>
-  </si>
-  <si>
-    <t>value added[jabar,commercial]</t>
-  </si>
-  <si>
-    <t>value added[jabar,transportation]</t>
-  </si>
-  <si>
-    <t>value added[jabar,others]</t>
-  </si>
-  <si>
     <t>private vehicle share[jabar]</t>
   </si>
   <si>
-    <t>all vehicle[jabar]</t>
-  </si>
-  <si>
     <t>PDRB Per Kapita (RUED)</t>
   </si>
   <si>
@@ -397,6 +415,24 @@
   </si>
   <si>
     <t>BPS Jabar</t>
+  </si>
+  <si>
+    <t>static gdp[jabar]</t>
+  </si>
+  <si>
+    <t>static gdp growth[jabar]</t>
+  </si>
+  <si>
+    <t>public and business vehicle share[jabar]</t>
+  </si>
+  <si>
+    <t>all vehicles[jabar]</t>
+  </si>
+  <si>
+    <t>static gdp per capita[jabar]</t>
+  </si>
+  <si>
+    <t>static gdp per capita growth[jabar]</t>
   </si>
 </sst>
 </file>
@@ -405,10 +441,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +482,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -579,19 +628,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -606,9 +646,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -627,17 +664,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -650,10 +678,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -667,6 +692,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,9 +709,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2952,12 +3003,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B0A35-D970-4535-B6B0-E5AD36F4652D}">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B0A35-D970-4535-B6B0-E5AD36F4652D}">
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,891 +3018,931 @@
     <col min="3" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="31">
         <v>2000</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="31">
         <v>2001</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="31">
         <v>2002</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="31">
         <v>2003</v>
       </c>
-      <c r="F1" s="43">
+      <c r="F1" s="31">
         <v>2004</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="31">
         <v>2005</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="31">
         <v>2006</v>
       </c>
-      <c r="I1" s="43">
+      <c r="I1" s="31">
         <v>2007</v>
       </c>
-      <c r="J1" s="43">
+      <c r="J1" s="31">
         <v>2008</v>
       </c>
-      <c r="K1" s="43">
+      <c r="K1" s="31">
         <v>2009</v>
       </c>
-      <c r="L1" s="43">
+      <c r="L1" s="31">
         <v>2010</v>
       </c>
-      <c r="M1" s="43">
+      <c r="M1" s="31">
         <v>2011</v>
       </c>
-      <c r="N1" s="43">
+      <c r="N1" s="31">
         <v>2012</v>
       </c>
-      <c r="O1" s="43">
+      <c r="O1" s="31">
         <v>2013</v>
       </c>
-      <c r="P1" s="43">
+      <c r="P1" s="31">
         <v>2014</v>
       </c>
-      <c r="Q1" s="43">
+      <c r="Q1" s="31">
         <v>2015</v>
       </c>
-      <c r="R1" s="43">
+      <c r="R1" s="31">
         <v>2016</v>
       </c>
-      <c r="S1" s="43">
+      <c r="S1" s="31">
         <v>2017</v>
       </c>
-      <c r="T1" s="43">
+      <c r="T1" s="31">
         <v>2018</v>
       </c>
-      <c r="U1" s="43">
+      <c r="U1" s="31">
         <v>2019</v>
       </c>
-      <c r="V1" s="43">
+      <c r="V1" s="31">
         <v>2020</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="43">
+      <c r="A2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="31">
         <v>539660831802368.88</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="31">
         <v>558900841077390.44</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="31">
         <v>583607396033510</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="31">
         <v>611044825246918.13</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="31">
         <v>641304755450308.25</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="31">
         <v>677305457235871.88</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="31">
         <v>714027667526391.63</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="31">
         <v>758762756039639.63</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="31">
         <v>803790956937286.13</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="31">
         <v>840367173780809.75</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="31">
         <v>892001573423794.25</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="31">
         <v>964611393502064.5</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="31">
         <v>1026685972275960.1</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="31">
         <v>1091477006278855.5</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="31">
         <v>1147278039134041</v>
       </c>
-      <c r="Q2" s="43">
-        <v>1205943603355306.8</v>
-      </c>
-      <c r="R2" s="43">
-        <v>1275588987769851.3</v>
-      </c>
-      <c r="S2" s="43">
-        <v>1349063037918243</v>
-      </c>
-      <c r="T2" s="43">
-        <v>1422393230600383.3</v>
-      </c>
-      <c r="U2" s="43">
-        <v>1495876113760946.5</v>
-      </c>
-      <c r="V2" s="43"/>
+      <c r="Q2" s="34">
+        <v>1207000000000000</v>
+      </c>
+      <c r="R2" s="34">
+        <f>1268*1000000000000</f>
+        <v>1268000000000000</v>
+      </c>
+      <c r="S2" s="34">
+        <f>1333*1000000000000</f>
+        <v>1333000000000000</v>
+      </c>
+      <c r="T2" s="34">
+        <f>1400*1000000000000</f>
+        <v>1400000000000000</v>
+      </c>
+      <c r="U2" s="34">
+        <f>1472*1000000000000</f>
+        <v>1472000000000000</v>
+      </c>
+      <c r="V2" s="34">
+        <f>1547*1000000000000</f>
+        <v>1547000000000000</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
+      <c r="A3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31">
+        <f>0.051</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R3" s="31">
+        <f t="shared" ref="R3:V3" si="0">0.051</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="T3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="U3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
+      <c r="A4" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="31">
+        <f>B2/B6</f>
+        <v>12390921.082435016</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="35">
+        <f>25.8*1000000</f>
+        <v>25800000</v>
+      </c>
+      <c r="R4" s="35">
+        <f>26.9*1000000</f>
+        <v>26900000</v>
+      </c>
+      <c r="S4" s="35">
+        <f>27.8*1000000</f>
+        <v>27800000</v>
+      </c>
+      <c r="T4" s="35">
+        <f>28.8*1000000</f>
+        <v>28800000</v>
+      </c>
+      <c r="U4" s="35">
+        <f>29.9*1000000</f>
+        <v>29900000</v>
+      </c>
+      <c r="V4" s="35">
+        <f>31.1*1000000</f>
+        <v>31100000</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
+      <c r="A5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31">
+        <f>3.5/100</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R5" s="31">
+        <f>3.7/100</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="S5" s="31">
+        <f t="shared" ref="S5:T5" si="1">3.7/100</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="U5" s="31">
+        <f>3.8/100</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V5" s="31">
+        <f>3.8/100</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B6" s="9">
         <f>Penduduk!P31</f>
         <v>43552923</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C6" s="31">
         <v>43520231.496352419</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D6" s="31">
         <v>43487564.531457625</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E6" s="31">
         <v>43454922.086896457</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F6" s="31">
         <v>43422304.144263558</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G6" s="31">
         <v>43389710.685167402</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H6" s="31">
         <v>43357141.691230267</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I6" s="31">
         <v>43324597.144088216</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J6" s="31">
         <v>43292077.025391109</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K6" s="31">
         <v>43259581.316802576</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L6" s="31">
         <v>43227110</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M6" s="31">
         <v>43892807.494000003</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N6" s="31">
         <v>44568756.729407609</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O6" s="31">
         <v>45255115.583040491</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P6" s="31">
         <v>45952044.363019317</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q6" s="31">
         <v>46659705.846209817</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R6" s="31">
         <v>47378265.316241451</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S6" s="31">
         <v>48107890.602111571</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T6" s="31">
         <v>48776590.281480923</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U6" s="31">
         <v>49454584.88639351</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V6" s="31">
         <v>50142003.616314381</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31">
         <f>'Energi-Household'!C17</f>
         <v>22142857.142857011</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R7" s="31">
         <f>'Energi-Household'!C18</f>
         <v>24285714.285714138</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S7" s="31">
         <f>'Energi-Household'!C19</f>
         <v>25714285.71428556</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T7" s="31">
         <f>'Energi-Household'!C20</f>
         <v>27857142.857142691</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U7" s="31">
         <f>'Energi-Household'!C21</f>
         <v>29999999.999999821</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V7" s="31">
         <f>'Energi-Household'!C22</f>
         <v>32142857.142856948</v>
       </c>
     </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31">
+        <v>71928571.428571001</v>
+      </c>
+      <c r="R8" s="31">
+        <v>74857142.857142404</v>
+      </c>
+      <c r="S8" s="32">
+        <v>77857142.857142389</v>
+      </c>
+      <c r="T8" s="32">
+        <v>80785714.285713807</v>
+      </c>
+      <c r="U8" s="31">
+        <v>83714285.71428521</v>
+      </c>
+      <c r="V8" s="31">
+        <v>86714285.71428521</v>
+      </c>
+    </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43">
-        <v>71928571.428571001</v>
-      </c>
-      <c r="R9" s="43">
-        <v>74857142.857142404</v>
-      </c>
-      <c r="S9" s="44">
-        <v>77857142.857142389</v>
-      </c>
-      <c r="T9" s="44">
-        <v>80785714.285713807</v>
-      </c>
-      <c r="U9" s="43">
-        <v>83714285.71428521</v>
-      </c>
-      <c r="V9" s="43">
-        <v>86714285.71428521</v>
+      <c r="A9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31">
+        <v>5214285.7142856829</v>
+      </c>
+      <c r="R9" s="31">
+        <v>5428571.4285713956</v>
+      </c>
+      <c r="S9" s="32">
+        <v>5714285.7142856801</v>
+      </c>
+      <c r="T9" s="32">
+        <v>5928571.4285713928</v>
+      </c>
+      <c r="U9" s="31">
+        <v>4999999.9999999693</v>
+      </c>
+      <c r="V9" s="31">
+        <v>6499999.9999999609</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43">
-        <v>5214285.7142856829</v>
-      </c>
-      <c r="R10" s="43">
-        <v>5428571.4285713956</v>
-      </c>
-      <c r="S10" s="44">
-        <v>5714285.7142856801</v>
-      </c>
-      <c r="T10" s="44">
-        <v>5928571.4285713928</v>
-      </c>
-      <c r="U10" s="43">
-        <v>4999999.9999999693</v>
-      </c>
-      <c r="V10" s="43">
-        <v>6499999.9999999609</v>
+      <c r="A10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31">
+        <v>42857142.857142597</v>
+      </c>
+      <c r="R10" s="31">
+        <v>47857142.857142568</v>
+      </c>
+      <c r="S10" s="32">
+        <v>52857142.857142545</v>
+      </c>
+      <c r="T10" s="32">
+        <v>57142857.142856799</v>
+      </c>
+      <c r="U10" s="31">
+        <v>62142857.142856762</v>
+      </c>
+      <c r="V10" s="31">
+        <v>66428571.42857103</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43">
-        <v>42857142.857142597</v>
-      </c>
-      <c r="R11" s="43">
-        <v>47857142.857142568</v>
-      </c>
-      <c r="S11" s="44">
-        <v>52857142.857142545</v>
-      </c>
-      <c r="T11" s="44">
-        <v>57142857.142856799</v>
-      </c>
-      <c r="U11" s="43">
-        <v>62142857.142856762</v>
-      </c>
-      <c r="V11" s="43">
-        <v>66428571.42857103</v>
+      <c r="A11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11">
+        <v>142857.142857142</v>
+      </c>
+      <c r="R11">
+        <v>142857.142857142</v>
+      </c>
+      <c r="S11" s="24">
+        <v>142857.142857142</v>
+      </c>
+      <c r="T11" s="24">
+        <v>142857.142857142</v>
+      </c>
+      <c r="U11">
+        <v>142857.142857142</v>
+      </c>
+      <c r="V11">
+        <v>142857.142857142</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
+      <c r="A12" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
       <c r="Q12">
-        <v>142857.142857142</v>
+        <f>SUM(Q7:Q11)</f>
+        <v>142285714.28571343</v>
       </c>
       <c r="R12">
-        <v>142857.142857142</v>
-      </c>
-      <c r="S12" s="32">
-        <v>142857.142857142</v>
-      </c>
-      <c r="T12" s="32">
-        <v>142857.142857142</v>
+        <f t="shared" ref="R12:U12" si="2">SUM(R7:R11)</f>
+        <v>152571428.57142764</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>162285714.28571332</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>171857142.85714182</v>
       </c>
       <c r="U12">
-        <v>142857.142857142</v>
-      </c>
-      <c r="V12">
-        <v>142857.142857142</v>
+        <f t="shared" si="2"/>
+        <v>180999999.9999989</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="33">
+        <v>11097301</v>
+      </c>
+      <c r="P13" s="33">
+        <v>13478289</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>14483932</v>
+      </c>
+      <c r="R13" s="33">
+        <v>15822611</v>
+      </c>
+      <c r="S13" s="33">
+        <v>17076805</v>
+      </c>
+      <c r="T13" s="33">
+        <v>16507843</v>
+      </c>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="33">
+        <v>217359</v>
+      </c>
+      <c r="P14" s="33">
+        <v>242210</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>252871</v>
+      </c>
+      <c r="R14" s="33">
+        <v>262510</v>
+      </c>
+      <c r="S14" s="33">
+        <v>269760</v>
+      </c>
+      <c r="T14" s="33">
+        <v>258300</v>
+      </c>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32">
+        <f>SUM(O13:O14)</f>
+        <v>11314660</v>
+      </c>
+      <c r="P15" s="32">
+        <f t="shared" ref="P15:T15" si="3">SUM(P13:P14)</f>
+        <v>13720499</v>
+      </c>
+      <c r="Q15" s="32">
+        <f t="shared" si="3"/>
+        <v>14736803</v>
+      </c>
+      <c r="R15" s="32">
+        <f t="shared" si="3"/>
+        <v>16085121</v>
+      </c>
+      <c r="S15" s="32">
+        <f t="shared" si="3"/>
+        <v>17346565</v>
+      </c>
+      <c r="T15" s="32">
+        <f t="shared" si="3"/>
+        <v>16766143</v>
+      </c>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13">
-        <f>SUM(Q8:Q12)</f>
-        <v>142285714.28571343</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13:U13" si="0">SUM(R8:R12)</f>
-        <v>152571428.57142764</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>162285714.28571332</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>171857142.85714182</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>180999999.9999989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="45">
-        <v>11097301</v>
-      </c>
-      <c r="P14" s="45">
-        <v>13478289</v>
-      </c>
-      <c r="Q14" s="45">
-        <v>14483932</v>
-      </c>
-      <c r="R14" s="45">
-        <v>15822611</v>
-      </c>
-      <c r="S14" s="45">
-        <v>17076805</v>
-      </c>
-      <c r="T14" s="45">
-        <v>16507843</v>
-      </c>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="45">
-        <v>217359</v>
-      </c>
-      <c r="P15" s="45">
-        <v>242210</v>
-      </c>
-      <c r="Q15" s="45">
-        <v>252871</v>
-      </c>
-      <c r="R15" s="45">
-        <v>262510</v>
-      </c>
-      <c r="S15" s="45">
-        <v>269760</v>
-      </c>
-      <c r="T15" s="45">
-        <v>258300</v>
-      </c>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32">
+        <f>O13/O$15</f>
+        <v>0.98078961276786047</v>
+      </c>
+      <c r="P16" s="32">
+        <f t="shared" ref="P16:T16" si="4">P13/P$15</f>
+        <v>0.98234685196216265</v>
+      </c>
+      <c r="Q16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98284085089554363</v>
+      </c>
+      <c r="R16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98367994869295672</v>
+      </c>
+      <c r="S16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98444879432902133</v>
+      </c>
+      <c r="T16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98459395222860735</v>
+      </c>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44">
-        <f>SUM(O14:O15)</f>
-        <v>11314660</v>
-      </c>
-      <c r="P16" s="44">
-        <f t="shared" ref="P16:T16" si="1">SUM(P14:P15)</f>
-        <v>13720499</v>
-      </c>
-      <c r="Q16" s="44">
-        <f t="shared" si="1"/>
-        <v>14736803</v>
-      </c>
-      <c r="R16" s="44">
-        <f t="shared" si="1"/>
-        <v>16085121</v>
-      </c>
-      <c r="S16" s="44">
-        <f t="shared" si="1"/>
-        <v>17346565</v>
-      </c>
-      <c r="T16" s="44">
-        <f t="shared" si="1"/>
-        <v>16766143</v>
-      </c>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44">
-        <f>O14/O$16</f>
-        <v>0.98078961276786047</v>
-      </c>
-      <c r="P17" s="44">
-        <f t="shared" ref="P17:T17" si="2">P14/P$16</f>
-        <v>0.98234685196216265</v>
-      </c>
-      <c r="Q17" s="44">
-        <f t="shared" si="2"/>
-        <v>0.98284085089554363</v>
-      </c>
-      <c r="R17" s="44">
-        <f t="shared" si="2"/>
-        <v>0.98367994869295672</v>
-      </c>
-      <c r="S17" s="44">
-        <f t="shared" si="2"/>
-        <v>0.98444879432902133</v>
-      </c>
-      <c r="T17" s="44">
-        <f t="shared" si="2"/>
-        <v>0.98459395222860735</v>
-      </c>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32">
+        <f>O14/O$15</f>
+        <v>1.9210387232139543E-2</v>
+      </c>
+      <c r="P17" s="32">
+        <f t="shared" ref="P17:T17" si="5">P14/P$15</f>
+        <v>1.76531480378374E-2</v>
+      </c>
+      <c r="Q17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.7159149104456373E-2</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.6320051307043323E-2</v>
+      </c>
+      <c r="S17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.5551205670978663E-2</v>
+      </c>
+      <c r="T17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.5406047771392621E-2</v>
+      </c>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="44">
-        <f>O15/O$16</f>
-        <v>1.9210387232139543E-2</v>
-      </c>
-      <c r="P18" s="44">
-        <f t="shared" ref="P18:T18" si="3">P15/P$16</f>
-        <v>1.76531480378374E-2</v>
-      </c>
-      <c r="Q18" s="44">
-        <f t="shared" si="3"/>
-        <v>1.7159149104456373E-2</v>
-      </c>
-      <c r="R18" s="44">
-        <f t="shared" si="3"/>
-        <v>1.6320051307043323E-2</v>
-      </c>
-      <c r="S18" s="44">
-        <f t="shared" si="3"/>
-        <v>1.5551205670978663E-2</v>
-      </c>
-      <c r="T18" s="44">
-        <f t="shared" si="3"/>
-        <v>1.5406047771392621E-2</v>
-      </c>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="A18" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18">
+        <f>Q7/Q$12</f>
+        <v>0.15562248995983938</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:U18" si="6">R7/R$12</f>
+        <v>0.15917602996254682</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>0.1584507042253521</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>0.16209476309226933</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>0.16574585635359118</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="31" t="s">
         <v>103</v>
       </c>
       <c r="Q19">
-        <f>Q8/Q$13</f>
-        <v>0.15562248995983938</v>
+        <f t="shared" ref="Q19:U22" si="7">Q8/Q$12</f>
+        <v>0.50552208835341372</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:U19" si="4">R8/R$13</f>
-        <v>0.15917602996254682</v>
+        <f t="shared" si="7"/>
+        <v>0.49063670411985022</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
-        <v>0.1584507042253521</v>
+        <f t="shared" si="7"/>
+        <v>0.47975352112676056</v>
       </c>
       <c r="T19">
-        <f t="shared" si="4"/>
-        <v>0.16209476309226933</v>
+        <f t="shared" si="7"/>
+        <v>0.47007481296758108</v>
       </c>
       <c r="U19">
-        <f t="shared" si="4"/>
-        <v>0.16574585635359118</v>
+        <f t="shared" si="7"/>
+        <v>0.46250986582478298</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="31" t="s">
         <v>104</v>
       </c>
       <c r="Q20">
-        <f t="shared" ref="Q20:U23" si="5">Q9/Q$13</f>
-        <v>0.50552208835341372</v>
+        <f t="shared" si="7"/>
+        <v>3.6646586345381524E-2</v>
       </c>
       <c r="R20">
-        <f t="shared" si="5"/>
-        <v>0.49063670411985022</v>
+        <f t="shared" si="7"/>
+        <v>3.5580524344569292E-2</v>
       </c>
       <c r="S20">
-        <f t="shared" si="5"/>
-        <v>0.47975352112676056</v>
+        <f t="shared" si="7"/>
+        <v>3.5211267605633804E-2</v>
       </c>
       <c r="T20">
-        <f t="shared" si="5"/>
-        <v>0.47007481296758108</v>
+        <f t="shared" si="7"/>
+        <v>3.4497090606816293E-2</v>
       </c>
       <c r="U20">
-        <f t="shared" si="5"/>
-        <v>0.46250986582478298</v>
+        <f t="shared" si="7"/>
+        <v>2.7624309392265192E-2</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="31" t="s">
         <v>105</v>
       </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
       <c r="Q21">
-        <f t="shared" si="5"/>
-        <v>3.6646586345381524E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.3012048192771084</v>
       </c>
       <c r="R21">
-        <f t="shared" si="5"/>
-        <v>3.5580524344569292E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.31367041198501872</v>
       </c>
       <c r="S21">
-        <f t="shared" si="5"/>
-        <v>3.5211267605633804E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.32570422535211269</v>
       </c>
       <c r="T21">
-        <f t="shared" si="5"/>
-        <v>3.4497090606816293E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.33250207813798838</v>
       </c>
       <c r="U21">
-        <f t="shared" si="5"/>
-        <v>2.7624309392265192E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.34333070244672453</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
       <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>0.3012048192771084</v>
+        <f t="shared" si="7"/>
+        <v>1.004016064257028E-3</v>
       </c>
       <c r="R22">
-        <f t="shared" si="5"/>
-        <v>0.31367041198501872</v>
+        <f t="shared" si="7"/>
+        <v>9.3632958801498128E-4</v>
       </c>
       <c r="S22">
-        <f t="shared" si="5"/>
-        <v>0.32570422535211269</v>
+        <f t="shared" si="7"/>
+        <v>8.8028169014084498E-4</v>
       </c>
       <c r="T22">
-        <f t="shared" si="5"/>
-        <v>0.33250207813798838</v>
+        <f t="shared" si="7"/>
+        <v>8.3125519534497092E-4</v>
       </c>
       <c r="U22">
-        <f t="shared" si="5"/>
-        <v>0.34333070244672453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>1.004016064257028E-3</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="5"/>
-        <v>9.3632958801498128E-4</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="5"/>
-        <v>8.8028169014084498E-4</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="5"/>
-        <v>8.3125519534497092E-4</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8926598263614849E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3871,189 +3962,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2000</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2001</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>2002</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2003</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2004</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>2005</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>2006</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>2007</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>2008</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>2009</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2010</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>6</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <f>B18*7142857.1428571</f>
         <v>42857142.857142597</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>6.7</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:C23" si="0">B19*7142857.1428571</f>
         <v>47857142.857142568</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>7.4</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <f t="shared" si="0"/>
         <v>52857142.857142545</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2018</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>8</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <f t="shared" si="0"/>
         <v>57142857.142856799</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>2019</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <f t="shared" si="0"/>
         <v>62142857.142856762</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>2020</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <f t="shared" si="0"/>
         <v>66428571.42857103</v>
       </c>
@@ -4081,313 +4172,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="47"/>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2000</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2001</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>2002</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2003</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2004</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>2005</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>2006</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>2007</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>2008</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>2009</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2010</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C18" s="22">
-        <f>B18*$C$24</f>
+      <c r="C18" s="18">
+        <f t="shared" ref="C18:C23" si="0">B18*$C$24</f>
         <v>66428571.42857103</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>0.77</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <f>D18*$C$24</f>
         <v>5499999.9999999674</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <f>E18+C18</f>
         <v>71928571.428571001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C19" s="22">
-        <f>B19*$C$24</f>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
         <v>69285714.285713866</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <v>0.78</v>
       </c>
-      <c r="E19" s="22">
-        <f t="shared" ref="E19:E23" si="0">D19*$C$24</f>
+      <c r="E19" s="18">
+        <f t="shared" ref="E19:E23" si="1">D19*$C$24</f>
         <v>5571428.5714285383</v>
       </c>
-      <c r="F19" s="17">
-        <f t="shared" ref="F19:F23" si="1">E19+C19</f>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19:F23" si="2">E19+C19</f>
         <v>74857142.857142404</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>10.1</v>
       </c>
-      <c r="C20" s="22">
-        <f>B20*$C$24</f>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
         <v>72142857.142856702</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <v>0.8</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
+        <f t="shared" si="1"/>
+        <v>5714285.7142856801</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
+        <v>77857142.857142389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="C21" s="18">
         <f t="shared" si="0"/>
-        <v>5714285.7142856801</v>
-      </c>
-      <c r="F20" s="17">
+        <v>74999999.999999553</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="E21" s="18">
         <f t="shared" si="1"/>
+        <v>5785714.285714251</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>80785714.285713807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
         <v>77857142.857142389</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="18">
-        <v>10.5</v>
-      </c>
-      <c r="C21" s="22">
-        <f>B21*$C$24</f>
-        <v>74999999.999999553</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D22" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="1"/>
+        <v>5857142.8571428219</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="2"/>
+        <v>83714285.71428521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="14">
+        <v>11.3</v>
+      </c>
+      <c r="C23" s="18">
         <f t="shared" si="0"/>
-        <v>5785714.285714251</v>
-      </c>
-      <c r="F21" s="17">
+        <v>80714285.71428524</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="E23" s="18">
         <f t="shared" si="1"/>
-        <v>80785714.285713807</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="C22" s="22">
-        <f>B22*$C$24</f>
-        <v>77857142.857142389</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0.82</v>
-      </c>
-      <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>5857142.8571428219</v>
-      </c>
-      <c r="F22" s="17">
-        <f t="shared" si="1"/>
-        <v>83714285.71428521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="18">
-        <v>11.3</v>
-      </c>
-      <c r="C23" s="22">
-        <f>B23*$C$24</f>
-        <v>80714285.71428524</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0.84</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" si="0"/>
         <v>5999999.9999999637</v>
       </c>
-      <c r="F23" s="17">
-        <f t="shared" si="1"/>
+      <c r="F23" s="13">
+        <f t="shared" si="2"/>
         <v>86714285.71428521</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>7142857.1428570999</v>
       </c>
     </row>
@@ -4415,189 +4506,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2000</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2001</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>2002</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2003</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2004</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>2005</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>2006</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>2007</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>2008</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>2009</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2010</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>0.73</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <f>B18*7142857.1428571</f>
         <v>5214285.7142856829</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>0.76</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:C23" si="0">B19*7142857.1428571</f>
         <v>5428571.4285713956</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>0.8</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <f t="shared" si="0"/>
         <v>5714285.7142856801</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2018</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>0.83</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <f t="shared" si="0"/>
         <v>5928571.4285713928</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>2019</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>0.7</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <f t="shared" si="0"/>
         <v>4999999.9999999693</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>2020</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>0.91</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <f t="shared" si="0"/>
         <v>6499999.9999999609</v>
       </c>
@@ -4618,189 +4709,189 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2000</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2001</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>2002</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2003</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2004</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>2005</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>2006</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>2007</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>2008</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>2009</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2010</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>0.02</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <f>B18*7142857.1428571</f>
         <v>142857.142857142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>0.02</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:C23" si="0">B19*7142857.1428571</f>
         <v>142857.142857142</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>0.02</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <f t="shared" si="0"/>
         <v>142857.142857142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2018</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>0.02</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <f t="shared" si="0"/>
         <v>142857.142857142</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>2019</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>0.02</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <f t="shared" si="0"/>
         <v>142857.142857142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>2020</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>0.02</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <f t="shared" si="0"/>
         <v>142857.142857142</v>
       </c>
@@ -4816,33 +4907,33 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47" style="7" customWidth="1"/>
+    <col min="4" max="4" width="47" style="4" customWidth="1"/>
     <col min="5" max="6" width="47" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>115</v>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>32</v>
@@ -4852,428 +4943,428 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="16">
         <v>2000</v>
       </c>
-      <c r="B2" s="20">
-        <f>B3/(1+H3)</f>
+      <c r="B2" s="16">
+        <f t="shared" ref="B2:B12" si="0">B3/(1+H3)</f>
         <v>12390921.082435016</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <f>B2*Penduduk!B3</f>
         <v>539660831802368.88</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="30">
         <v>2000</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="36" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="16">
         <v>2001</v>
       </c>
-      <c r="B3" s="20">
-        <f>B4/(1+H4)</f>
+      <c r="B3" s="16">
+        <f t="shared" si="0"/>
         <v>12842322.337468123</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <f>B3*Penduduk!B4</f>
         <v>558900841077390.44</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="30">
         <v>2001</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>3.6429999999999997E-2</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>2002</v>
       </c>
-      <c r="B4" s="20">
-        <f>B5/(1+H5)</f>
+      <c r="B4" s="16">
+        <f t="shared" si="0"/>
         <v>13420098.419430815</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <f>B4*Penduduk!B5</f>
         <v>583607396033510</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="30">
         <v>2002</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>4.4990000000000002E-2</v>
       </c>
-      <c r="I4" s="39"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="16">
         <v>2003</v>
       </c>
-      <c r="B5" s="20">
-        <f>B6/(1+H6)</f>
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
         <v>14061579.123879608</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <f>B5*Penduduk!B6</f>
         <v>611044825246918.13</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="30">
         <v>2003</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>2004</v>
       </c>
-      <c r="B6" s="20">
-        <f>B7/(1+H7)</f>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
         <v>14769017.169601992</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <f>B6*Penduduk!B7</f>
         <v>641304755450308.25</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="30">
         <v>2004</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>5.0310000000000001E-2</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>2005</v>
       </c>
-      <c r="B7" s="20">
-        <f>B8/(1+H8)</f>
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
         <v>15609817.317067431</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <f>B7*Penduduk!B8</f>
         <v>677305457235871.88</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="30">
         <v>2005</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <v>5.6930000000000001E-2</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="16">
         <v>2006</v>
       </c>
-      <c r="B8" s="20">
-        <f>B9/(1+H9)</f>
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
         <v>16468513.367679311</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f>B8*Penduduk!B9</f>
         <v>714027667526391.63</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="30">
         <v>2006</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <v>5.5010000000000003E-2</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="16">
         <v>2007</v>
       </c>
-      <c r="B9" s="20">
-        <f>B10/(1+H10)</f>
+      <c r="B9" s="16">
+        <f t="shared" si="0"/>
         <v>17513440.540858563</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <f>B9*Penduduk!B10</f>
         <v>758762756039639.63</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="30">
         <v>2007</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>6.3450000000000006E-2</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>2008</v>
       </c>
-      <c r="B10" s="20">
-        <f>B11/(1+H11)</f>
+      <c r="B10" s="16">
+        <f t="shared" si="0"/>
         <v>18566698.8549858</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <f>B10*Penduduk!B11</f>
         <v>803790956937286.13</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="30">
         <v>2008</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>6.0139999999999999E-2</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>2009</v>
       </c>
-      <c r="B11" s="20">
-        <f>B12/(1+H12)</f>
+      <c r="B11" s="16">
+        <f t="shared" si="0"/>
         <v>19426151.34498309</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <f>B11*Penduduk!B12</f>
         <v>840367173780809.75</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="30">
         <v>2009</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>4.6289999999999998E-2</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="16">
         <v>2010</v>
       </c>
-      <c r="B12" s="20">
-        <f>B13/(1+H13)</f>
+      <c r="B12" s="16">
+        <f t="shared" si="0"/>
         <v>20635235.004694838</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <f>B12*Penduduk!B13</f>
         <v>892001573423794.25</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="30">
         <v>2010</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>6.2239999999999997E-2</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2011</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>21976525.280000001</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <f>B13*Penduduk!B14</f>
         <v>964611393502064.5</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="30">
         <v>2011</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="20">
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>117</v>
+      <c r="I13" s="37" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2012</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="14">
         <v>23036002.07</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <f>B14*Penduduk!B15</f>
         <v>1026685972275960.1</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="30">
         <v>2012</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="20">
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2013</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="14">
         <v>24118312.199999999</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <f>B15*Penduduk!B16</f>
         <v>1091477006278855.5</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="30">
         <v>2013</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="20">
         <f>6.33/100</f>
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="I15" s="41"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2014</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>24966855.23</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <f>B16*Penduduk!B17</f>
         <v>1147278039134041</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="30">
         <v>2014</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="20">
         <f>5.09/100</f>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2015</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>25845503.77</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <f>B17*Penduduk!B18</f>
         <v>1205943603355306.8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>1207000000000000</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="30">
         <v>2015</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="20">
         <f>5.05/100</f>
         <v>5.0499999999999996E-2</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2016</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>26923505.52</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <f>B18*Penduduk!B19</f>
         <v>1275588987769851.3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <f>1268*1000000000000</f>
         <v>1268000000000000</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="30">
         <v>2016</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="20">
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="I18" s="41"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="16">
         <v>2017</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <f>(B20+B18)/2</f>
         <v>28042448.359999999</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <f>B19*Penduduk!B20</f>
         <v>1349063037918243</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <f>1333*1000000000000</f>
         <v>1333000000000000</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="30">
         <v>2017</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="20">
         <f>5.33/100</f>
         <v>5.33E-2</v>
       </c>
-      <c r="I19" s="41"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2018</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>29161391.199999999</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <f>B20*Penduduk!B21</f>
         <v>1422393230600383.3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <f>1400*1000000000000</f>
         <v>1400000000000000</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="30">
         <v>2018</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="20">
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="I20" s="41"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2019</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>30247470.829999998</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <f>B21*Penduduk!B22</f>
         <v>1495876113760946.5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <f>1472*1000000000000</f>
         <v>1472000000000000</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="30">
         <v>2019</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="20">
         <f>5.07/100</f>
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="I21" s="42"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5288,8 +5379,9 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="D23" s="7">
-        <v>1547</v>
+      <c r="D23" s="4">
+        <f>1547*1000000000000</f>
+        <v>1547000000000000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5316,7 +5408,7 @@
       <c r="A28">
         <v>2025</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>1987</v>
       </c>
     </row>
@@ -5394,7 +5486,7 @@
       <c r="A43">
         <v>2040</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>4262</v>
       </c>
     </row>
@@ -5447,7 +5539,7 @@
       <c r="A53">
         <v>2050</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="4">
         <v>7164</v>
       </c>
     </row>
@@ -5464,7 +5556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726E26DA-E475-4901-97D5-99886A82E7A7}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
@@ -5487,110 +5579,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>101</v>
+      <c r="B1" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="23" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="G2" s="3" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="G2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="15">
+      <c r="H2" s="40"/>
+      <c r="I2" s="11">
         <v>2000</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>2010</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>2016</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>2017</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="13">
+      <c r="P2" s="9">
         <v>2000</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="9">
         <v>2010</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="9">
         <v>2011</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="9">
         <v>2012</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="9">
         <v>2013</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="9">
         <v>2014</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="9">
         <v>2015</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="9">
         <v>2016</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="10">
         <v>2017</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="21">
         <v>2018</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="21">
         <v>2019</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AA2" s="21">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2000</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <f>P31</f>
         <v>43552923</v>
       </c>
@@ -5601,50 +5693,50 @@
         <v>2</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>4813.88</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>5459.67</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>5715.01</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>2.2799999999999998</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="12">
-        <f>J3*1000</f>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q20" si="0">J3*1000</f>
         <v>4813880</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12">
-        <f t="shared" ref="W3:X3" si="0">K3*1000</f>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8">
+        <f t="shared" ref="W3:X3" si="1">K3*1000</f>
         <v>5459670</v>
       </c>
-      <c r="X3" s="12">
-        <f t="shared" si="0"/>
+      <c r="X3" s="8">
+        <f t="shared" si="1"/>
         <v>5715010</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>2001</v>
       </c>
-      <c r="B4" s="37">
-        <f>B3*(1+$B$24)</f>
+      <c r="B4" s="29">
+        <f t="shared" ref="B4:B12" si="2">B3*(1+$B$24)</f>
         <v>43520231.496352419</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="45" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1">
@@ -5654,50 +5746,50 @@
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>2358.42</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>2434.2199999999998</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>2453.5</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>0.6</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>0.36</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="8">
-        <f>J4*1000</f>
+      <c r="Q4" s="5">
+        <f t="shared" si="0"/>
         <v>2358420</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8">
-        <f>K4*1000</f>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5">
+        <f t="shared" ref="W4:W20" si="3">K4*1000</f>
         <v>2434220</v>
       </c>
-      <c r="X4" s="8">
-        <f>L4*1000</f>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:X20" si="4">L4*1000</f>
         <v>2453500</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="16">
         <v>2002</v>
       </c>
-      <c r="B5" s="37">
-        <f>B4*(1+$B$24)</f>
+      <c r="B5" s="29">
+        <f t="shared" si="2"/>
         <v>43487564.531457625</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="45"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -5705,50 +5797,50 @@
         <v>4</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>2186.79</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>2243.9</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>2256.59</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>0.48</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>0.25</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="8">
-        <f>J5*1000</f>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
         <v>2186790</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8">
-        <f>K5*1000</f>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5">
+        <f t="shared" si="3"/>
         <v>2243900</v>
       </c>
-      <c r="X5" s="8">
-        <f>L5*1000</f>
+      <c r="X5" s="5">
+        <f t="shared" si="4"/>
         <v>2256590</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>2003</v>
       </c>
-      <c r="B6" s="37">
-        <f>B5*(1+$B$24)</f>
+      <c r="B6" s="29">
+        <f t="shared" si="2"/>
         <v>43454922.086896457</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="45"/>
       <c r="G6" s="1">
         <v>4</v>
       </c>
@@ -5756,50 +5848,50 @@
         <v>5</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>3205.12</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>3534.11</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>3657.6</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>1.94</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>1.7</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="8">
-        <f>J6*1000</f>
+      <c r="Q6" s="5">
+        <f t="shared" si="0"/>
         <v>3205120</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8">
-        <f>K6*1000</f>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5">
+        <f t="shared" si="3"/>
         <v>3534110</v>
       </c>
-      <c r="X6" s="8">
-        <f>L6*1000</f>
+      <c r="X6" s="5">
+        <f t="shared" si="4"/>
         <v>3657600</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>2004</v>
       </c>
-      <c r="B7" s="37">
-        <f>B6*(1+$B$24)</f>
+      <c r="B7" s="29">
+        <f t="shared" si="2"/>
         <v>43422304.144263558</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="45"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -5807,50 +5899,50 @@
         <v>6</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>2422.33</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>2548.7199999999998</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>2588.84</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>0.99</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <v>0.75</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="8">
-        <f>J7*1000</f>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
         <v>2422330</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8">
-        <f>K7*1000</f>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5">
+        <f t="shared" si="3"/>
         <v>2548720</v>
       </c>
-      <c r="X7" s="8">
-        <f>L7*1000</f>
+      <c r="X7" s="5">
+        <f t="shared" si="4"/>
         <v>2588840</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="16">
         <v>2005</v>
       </c>
-      <c r="B8" s="37">
-        <f>B7*(1+$B$24)</f>
+      <c r="B8" s="29">
+        <f t="shared" si="2"/>
         <v>43389710.685167402</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="45"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -5858,50 +5950,50 @@
         <v>7</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>1687.78</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>1736</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>1747.32</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>0.53</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="8">
-        <f>J8*1000</f>
+      <c r="Q8" s="5">
+        <f t="shared" si="0"/>
         <v>1687780</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8">
-        <f>K8*1000</f>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
+        <f t="shared" si="3"/>
         <v>1736000</v>
       </c>
-      <c r="X8" s="8">
-        <f>L8*1000</f>
+      <c r="X8" s="5">
+        <f t="shared" si="4"/>
         <v>1747320</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="16">
         <v>2006</v>
       </c>
-      <c r="B9" s="37">
-        <f>B8*(1+$B$24)</f>
+      <c r="B9" s="29">
+        <f t="shared" si="2"/>
         <v>43357141.691230267</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="45"/>
       <c r="G9" s="1">
         <v>7</v>
       </c>
@@ -5909,50 +6001,50 @@
         <v>8</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>1135.72</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>1168.68</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>1181.98</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <v>0.56000000000000005</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="8">
-        <f>J9*1000</f>
+      <c r="Q9" s="5">
+        <f t="shared" si="0"/>
         <v>1135720</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8">
-        <f>K9*1000</f>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5">
+        <f t="shared" si="3"/>
         <v>1168680</v>
       </c>
-      <c r="X9" s="8">
-        <f>L9*1000</f>
+      <c r="X9" s="5">
+        <f t="shared" si="4"/>
         <v>1181980</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>2007</v>
       </c>
-      <c r="B10" s="37">
-        <f>B9*(1+$B$24)</f>
+      <c r="B10" s="29">
+        <f t="shared" si="2"/>
         <v>43324597.144088216</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="45"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -5960,50 +6052,50 @@
         <v>9</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>1023.91</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>1055.42</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>1068.2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>0.61</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>0.59</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="8">
-        <f>J10*1000</f>
+      <c r="Q10" s="5">
+        <f t="shared" si="0"/>
         <v>1023910</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8">
-        <f>K10*1000</f>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5">
+        <f t="shared" si="3"/>
         <v>1055420</v>
       </c>
-      <c r="X10" s="8">
-        <f>L10*1000</f>
+      <c r="X10" s="5">
+        <f t="shared" si="4"/>
         <v>1068200</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>2008</v>
       </c>
-      <c r="B11" s="37">
-        <f>B10*(1+$B$24)</f>
+      <c r="B11" s="29">
+        <f t="shared" si="2"/>
         <v>43292077.025391109</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="45"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -6011,50 +6103,50 @@
         <v>10</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>2044.18</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>2126.1799999999998</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>2159.58</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>0.79</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <v>0.77</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="8">
-        <f>J11*1000</f>
+      <c r="Q11" s="5">
+        <f t="shared" si="0"/>
         <v>2044180</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8">
-        <f>K11*1000</f>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5">
+        <f t="shared" si="3"/>
         <v>2126180</v>
       </c>
-      <c r="X11" s="8">
-        <f>L11*1000</f>
+      <c r="X11" s="5">
+        <f t="shared" si="4"/>
         <v>2159580</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="16">
         <v>2009</v>
       </c>
-      <c r="B12" s="37">
-        <f>B11*(1+$B$24)</f>
+      <c r="B12" s="29">
+        <f t="shared" si="2"/>
         <v>43259581.316802576</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="45"/>
       <c r="G12" s="1">
         <v>10</v>
       </c>
@@ -6062,50 +6154,50 @@
         <v>11</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>1153.23</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>1182.1099999999999</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>1193.73</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>0.5</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>0.48</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="8">
-        <f>J12*1000</f>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
         <v>1153230</v>
       </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8">
-        <f>K12*1000</f>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5">
+        <f t="shared" si="3"/>
         <v>1182110</v>
       </c>
-      <c r="X12" s="8">
-        <f>L12*1000</f>
+      <c r="X12" s="5">
+        <f t="shared" si="4"/>
         <v>1193730</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="16">
         <v>2010</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="29">
         <f>Q31</f>
         <v>43227110</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="45"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -6113,51 +6205,51 @@
         <v>12</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>1101.58</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>1137.27</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>1146.44</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>0.6</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>0.38</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="8">
-        <f>J13*1000</f>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
         <v>1101580</v>
       </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8">
-        <f>K13*1000</f>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5">
+        <f t="shared" si="3"/>
         <v>1137270</v>
       </c>
-      <c r="X13" s="8">
-        <f>L13*1000</f>
+      <c r="X13" s="5">
+        <f t="shared" si="4"/>
         <v>1146440</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B14" s="22">
-        <f>B13*(1+$M$31/100)</f>
+      <c r="B14" s="18">
+        <f t="shared" ref="B14:B20" si="5">B13*(1+$M$31/100)</f>
         <v>43892807.494000003</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>117</v>
+      <c r="C14" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="G14" s="1">
         <v>12</v>
@@ -6166,50 +6258,50 @@
         <v>13</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>1645.02</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>1691.39</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>1709.99</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>0.54</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="8">
-        <f>J14*1000</f>
+      <c r="Q14" s="5">
+        <f t="shared" si="0"/>
         <v>1645020</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8">
-        <f>K14*1000</f>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5">
+        <f t="shared" si="3"/>
         <v>1691390</v>
       </c>
-      <c r="X14" s="8">
-        <f>L14*1000</f>
+      <c r="X14" s="5">
+        <f t="shared" si="4"/>
         <v>1709990</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="22">
-        <f>B14*(1+$M$31/100)</f>
+      <c r="B15" s="18">
+        <f t="shared" si="5"/>
         <v>44568756.729407609</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="45"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -6217,50 +6309,50 @@
         <v>14</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>1449.21</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>1529.39</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>1562.51</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>1.08</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>1.07</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="8">
-        <f>J15*1000</f>
+      <c r="Q15" s="5">
+        <f t="shared" si="0"/>
         <v>1449210</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8">
-        <f>K15*1000</f>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5">
+        <f t="shared" si="3"/>
         <v>1529390</v>
       </c>
-      <c r="X15" s="8">
-        <f>L15*1000</f>
+      <c r="X15" s="5">
+        <f t="shared" si="4"/>
         <v>1562510</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B16" s="22">
-        <f>B15*(1+$M$31/100)</f>
+      <c r="B16" s="18">
+        <f t="shared" si="5"/>
         <v>45255115.583040491</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="45"/>
       <c r="G16" s="1">
         <v>14</v>
       </c>
@@ -6268,50 +6360,50 @@
         <v>15</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>859.19</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>921.6</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="3">
         <v>943.34</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>1.38</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>1.1399999999999999</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="8">
-        <f>J16*1000</f>
+      <c r="Q16" s="5">
+        <f t="shared" si="0"/>
         <v>859190</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8">
-        <f>K16*1000</f>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5">
+        <f t="shared" si="3"/>
         <v>921600</v>
       </c>
-      <c r="X16" s="8">
-        <f>L16*1000</f>
+      <c r="X16" s="5">
+        <f t="shared" si="4"/>
         <v>943340</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B17" s="22">
-        <f>B16*(1+$M$31/100)</f>
+      <c r="B17" s="18">
+        <f t="shared" si="5"/>
         <v>45952044.363019317</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="45"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -6319,50 +6411,50 @@
         <v>16</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <v>2144.19</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <v>2273.58</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="3">
         <v>2316.4899999999998</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>0.9</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="8">
-        <f>J17*1000</f>
+      <c r="Q17" s="5">
+        <f t="shared" si="0"/>
         <v>2144190</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8">
-        <f>K17*1000</f>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5">
+        <f t="shared" si="3"/>
         <v>2273580</v>
       </c>
-      <c r="X17" s="8">
-        <f>L17*1000</f>
+      <c r="X17" s="5">
+        <f t="shared" si="4"/>
         <v>2316490</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B18" s="22">
-        <f>B17*(1+$M$31/100)</f>
+      <c r="B18" s="18">
+        <f t="shared" si="5"/>
         <v>46659705.846209817</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="45"/>
       <c r="G18" s="1">
         <v>16</v>
       </c>
@@ -6370,50 +6462,50 @@
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>2656.88</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>3246.01</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="3">
         <v>3500.02</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>4.05</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="3">
         <v>3.81</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="8">
-        <f>J18*1000</f>
+      <c r="Q18" s="5">
+        <f t="shared" si="0"/>
         <v>2656880</v>
       </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8">
-        <f>K18*1000</f>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5">
+        <f t="shared" si="3"/>
         <v>3246010</v>
       </c>
-      <c r="X18" s="8">
-        <f>L18*1000</f>
+      <c r="X18" s="5">
+        <f t="shared" si="4"/>
         <v>3500020</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B19" s="22">
-        <f>B18*(1+$M$31/100)</f>
+      <c r="B19" s="18">
+        <f t="shared" si="5"/>
         <v>47378265.316241451</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="45"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -6421,50 +6513,50 @@
         <v>22</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>1522.08</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>1629.42</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="3">
         <v>1666.51</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>1.34</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="8">
-        <f>J19*1000</f>
+      <c r="Q19" s="5">
+        <f t="shared" si="0"/>
         <v>1522080</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8">
-        <f>K19*1000</f>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5">
+        <f t="shared" si="3"/>
         <v>1629420</v>
       </c>
-      <c r="X19" s="8">
-        <f>L19*1000</f>
+      <c r="X19" s="5">
+        <f t="shared" si="4"/>
         <v>1666510</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B20" s="22">
-        <f>B19*(1+$M$31/100)</f>
+      <c r="B20" s="18">
+        <f t="shared" si="5"/>
         <v>48107890.602111571</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="45"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -6472,82 +6564,82 @@
         <v>18</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>379.52</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>390.48</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="3">
         <v>395.1</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>0.57999999999999996</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="8">
-        <f>J20*1000</f>
+      <c r="Q20" s="5">
+        <f t="shared" si="0"/>
         <v>379520</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8">
-        <f>K20*1000</f>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5">
+        <f t="shared" si="3"/>
         <v>390480</v>
       </c>
-      <c r="X20" s="8">
-        <f>L20*1000</f>
+      <c r="X20" s="5">
+        <f t="shared" si="4"/>
         <v>395100</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2018</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <f>B20*(1+$N$31/100)</f>
         <v>48776590.281480923</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="G21" s="2" t="s">
+      <c r="C21" s="45"/>
+      <c r="G21" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>2019</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="18">
         <f>B21*(1+$N$31/100)</f>
         <v>49454584.88639351</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="45"/>
       <c r="G22" s="1">
         <v>19</v>
       </c>
@@ -6555,50 +6647,50 @@
         <v>2</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>958.08</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>1047.92</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="3">
         <v>1081.01</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>1.77</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>1.53</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="8">
-        <f>J22*1000</f>
+      <c r="Q22" s="5">
+        <f t="shared" ref="Q22:Q31" si="6">J22*1000</f>
         <v>958080</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8">
-        <f>K22*1000</f>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5">
+        <f t="shared" ref="W22:W31" si="7">K22*1000</f>
         <v>1047920.0000000001</v>
       </c>
-      <c r="X22" s="8">
-        <f>L22*1000</f>
+      <c r="X22" s="5">
+        <f t="shared" ref="X22:X31" si="8">L22*1000</f>
         <v>1081010</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>2020</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="18">
         <f>B22*(1+$N$31/100)</f>
         <v>50142003.616314381</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="45"/>
       <c r="G23" s="1">
         <v>20</v>
       </c>
@@ -6606,46 +6698,46 @@
         <v>3</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>301.01</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>318.12</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="3">
         <v>323.79000000000002</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="3">
         <v>1.08</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="3">
         <v>0.84</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="8">
-        <f>J23*1000</f>
+      <c r="Q23" s="5">
+        <f t="shared" si="6"/>
         <v>301010</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8">
-        <f>K23*1000</f>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5">
+        <f t="shared" si="7"/>
         <v>318120</v>
       </c>
-      <c r="X23" s="8">
-        <f>L23*1000</f>
+      <c r="X23" s="5">
+        <f t="shared" si="8"/>
         <v>323790</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="14">
         <f>(B13/B3)^(1/(A13-A3))-1</f>
         <v>-7.5061560500955249E-4</v>
       </c>
@@ -6656,36 +6748,36 @@
         <v>5</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>22412.09</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>22481.47</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="3">
         <v>22497.94</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="3">
         <v>0.54</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q24" s="8">
-        <f>J24*1000</f>
+      <c r="Q24" s="5">
+        <f t="shared" si="6"/>
         <v>22412090</v>
       </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8">
-        <f>K24*1000</f>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5">
+        <f t="shared" si="7"/>
         <v>22481470</v>
       </c>
-      <c r="X24" s="8">
-        <f>L24*1000</f>
+      <c r="X24" s="5">
+        <f t="shared" si="8"/>
         <v>22497940</v>
       </c>
     </row>
@@ -6697,38 +6789,38 @@
         <v>10</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>293.20999999999998</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <v>307.49</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="3">
         <v>313.33</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="3">
         <v>0.96</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="3">
         <v>0.91</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="8">
-        <f>J25*1000</f>
+      <c r="Q25" s="5">
+        <f t="shared" si="6"/>
         <v>293210</v>
       </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8">
-        <f>K25*1000</f>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5">
+        <f t="shared" si="7"/>
         <v>307490</v>
       </c>
-      <c r="X25" s="8">
-        <f>L25*1000</f>
+      <c r="X25" s="5">
+        <f t="shared" si="8"/>
         <v>313330</v>
       </c>
     </row>
@@ -6740,36 +6832,36 @@
         <v>17</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>2356.1</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>2714.83</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="3">
         <v>2859.63</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="3">
         <v>2.84</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="3">
         <v>2.6</v>
       </c>
-      <c r="Q26" s="8">
-        <f>J26*1000</f>
+      <c r="Q26" s="5">
+        <f t="shared" si="6"/>
         <v>2356100</v>
       </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8">
-        <f>K26*1000</f>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5">
+        <f t="shared" si="7"/>
         <v>2714830</v>
       </c>
-      <c r="X26" s="8">
-        <f>L26*1000</f>
+      <c r="X26" s="5">
+        <f t="shared" si="8"/>
         <v>2859630</v>
       </c>
     </row>
@@ -6781,36 +6873,36 @@
         <v>19</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>1755.61</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>2106.1</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="3">
         <v>2254.5100000000002</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="3">
         <v>3.67</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="3">
         <v>3.43</v>
       </c>
-      <c r="Q27" s="8">
-        <f>J27*1000</f>
+      <c r="Q27" s="5">
+        <f t="shared" si="6"/>
         <v>1755610</v>
       </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8">
-        <f>K27*1000</f>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5">
+        <f t="shared" si="7"/>
         <v>2106100</v>
       </c>
-      <c r="X27" s="8">
-        <f>L27*1000</f>
+      <c r="X27" s="5">
+        <f t="shared" si="8"/>
         <v>2254510</v>
       </c>
     </row>
@@ -6822,38 +6914,38 @@
         <v>20</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>545.51</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>586.58000000000004</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="3">
         <v>601.1</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="3">
         <v>1.43</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="3">
         <v>1.19</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="8">
-        <f>J28*1000</f>
+      <c r="Q28" s="5">
+        <f t="shared" si="6"/>
         <v>545510</v>
       </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8">
-        <f>K28*1000</f>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5">
+        <f t="shared" si="7"/>
         <v>586580</v>
       </c>
-      <c r="X28" s="8">
-        <f>L28*1000</f>
+      <c r="X28" s="5">
+        <f t="shared" si="8"/>
         <v>601100</v>
       </c>
     </row>
@@ -6865,38 +6957,38 @@
         <v>7</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>639.99</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>657.48</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="3">
         <v>661.4</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="3">
         <v>0.5</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="3">
         <v>0.27</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="8">
-        <f>J29*1000</f>
+      <c r="Q29" s="5">
+        <f t="shared" si="6"/>
         <v>639990</v>
       </c>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8">
-        <f>K29*1000</f>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5">
+        <f t="shared" si="7"/>
         <v>657480</v>
       </c>
-      <c r="X29" s="8">
-        <f>L29*1000</f>
+      <c r="X29" s="5">
+        <f t="shared" si="8"/>
         <v>661400</v>
       </c>
     </row>
@@ -6908,105 +7000,105 @@
         <v>21</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>176.51</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>181.43</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="3">
         <v>182.39</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="3">
         <v>0.5</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="3">
         <v>0.27</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="8">
-        <f>J30*1000</f>
+      <c r="Q30" s="5">
+        <f t="shared" si="6"/>
         <v>176510</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8">
-        <f>K30*1000</f>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5">
+        <f t="shared" si="7"/>
         <v>181430</v>
       </c>
-      <c r="X30" s="8">
-        <f>L30*1000</f>
+      <c r="X30" s="5">
+        <f t="shared" si="8"/>
         <v>182390</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="27">
+      <c r="H31" s="40"/>
+      <c r="I31" s="20">
         <v>43552.923000000003</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="19">
         <v>43227.11</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>46709.57</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="3">
         <v>48037.83</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="3">
         <v>1.54</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="3">
         <v>1.39</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="5">
         <f>I31*1000</f>
         <v>43552923</v>
       </c>
-      <c r="Q31" s="8">
-        <f>J31*1000</f>
+      <c r="Q31" s="5">
+        <f t="shared" si="6"/>
         <v>43227110</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="14">
         <v>43938796</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="14">
         <v>44643586</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="14">
         <v>45340799</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="14">
         <v>46029668</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31" s="5">
         <f>46709569</f>
         <v>46709569</v>
       </c>
-      <c r="W31" s="8">
-        <f>K31*1000</f>
+      <c r="W31" s="5">
+        <f t="shared" si="7"/>
         <v>46709570</v>
       </c>
-      <c r="X31" s="8">
-        <f>L31*1000</f>
+      <c r="X31" s="5">
+        <f t="shared" si="8"/>
         <v>48037830</v>
       </c>
-      <c r="Y31" s="29">
+      <c r="Y31" s="22">
         <f>48.6*1000000</f>
         <v>48600000</v>
       </c>
-      <c r="Z31" s="29">
+      <c r="Z31" s="22">
         <f>49.2*1000000</f>
         <v>49200000</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="6">
         <f>49.8*1000000</f>
         <v>49800000</v>
       </c>
@@ -7015,7 +7107,7 @@
       <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="14">
         <v>11519.26</v>
       </c>
     </row>
@@ -7023,24 +7115,24 @@
       <c r="G33" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="14">
         <f>I31/I32</f>
         <v>3.7808785460177132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="C4:C13"/>
     <mergeCell ref="C14:C23"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7062,246 +7154,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2000</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <f>Penduduk!P31</f>
         <v>43552923</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2001</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>2002</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2003</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2004</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>2005</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>2006</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>2007</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>2008</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>2009</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2010</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="18">
         <f>Penduduk!V31</f>
         <v>46709569</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>929.8</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <f>C18/1000</f>
         <v>0.92979999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <f>Penduduk!W31</f>
         <v>46709570</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>992.6</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <f t="shared" ref="D19:D23" si="0">C19/1000</f>
         <v>0.99260000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="18">
         <f>Penduduk!X31</f>
         <v>48037830</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <v>1058.4000000000001</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <f t="shared" si="0"/>
         <v>1.0584</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2018</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <f>Penduduk!Y31</f>
         <v>48600000</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>1127.2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <f t="shared" si="0"/>
         <v>1.1272</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>2019</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="18">
         <f>Penduduk!Z31</f>
         <v>49200000</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>1199.0999999999999</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <f t="shared" si="0"/>
         <v>1.1990999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>2020</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="18">
         <f>Penduduk!AA31</f>
         <v>49800000</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>1274</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <f t="shared" si="0"/>
         <v>1.274</v>
       </c>
@@ -7334,558 +7426,558 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>2000</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <f t="shared" ref="C3:C14" si="0">C4/(1+$C$24)</f>
         <v>84618.727047682696</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D14" si="1">D4/(1+$D$24)</f>
         <v>3951733.6002211557</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="16">
         <f t="shared" ref="E3:E14" si="2">E4/(1+$E$24)</f>
         <v>54207.28665242446</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F15" si="3">SUM(C3:E3)</f>
         <v>4090559.6139212628</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <f t="shared" ref="H3:H15" si="4">C3+E3</f>
         <v>138826.01370010717</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="20">
+      <c r="A4" s="45"/>
+      <c r="B4" s="16">
         <v>2001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <f t="shared" si="0"/>
         <v>87709.104927983237</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <f t="shared" si="1"/>
         <v>4278408.5396023542</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <f t="shared" si="2"/>
         <v>55985.452373297194</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <f t="shared" si="3"/>
         <v>4422103.0969036343</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
         <f t="shared" si="4"/>
         <v>143694.55730128044</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="20">
+      <c r="A5" s="45"/>
+      <c r="B5" s="16">
         <v>2002</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
         <v>90912.347132485549</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <f t="shared" si="1"/>
         <v>4632088.4663677579</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <f t="shared" si="2"/>
         <v>57821.947398699791</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <f t="shared" si="3"/>
         <v>4780822.7608989431</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
         <f t="shared" si="4"/>
         <v>148734.29453118535</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="20">
+      <c r="A6" s="45"/>
+      <c r="B6" s="16">
         <v>2003</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>94232.57560231493</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <f t="shared" si="1"/>
         <v>5015005.7811569814</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <f t="shared" si="2"/>
         <v>59718.685109217084</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <f t="shared" si="3"/>
         <v>5168957.0418685135</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
         <f t="shared" si="4"/>
         <v>153951.26071153203</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="20">
+      <c r="A7" s="45"/>
+      <c r="B7" s="16">
         <v>2004</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>97674.062816853664</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <f t="shared" si="1"/>
         <v>5429577.4287660541</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <f t="shared" si="2"/>
         <v>61677.64165020184</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <f t="shared" si="3"/>
         <v>5588929.1332331095</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <f t="shared" si="4"/>
         <v>159351.7044670555</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="20">
+      <c r="A8" s="45"/>
+      <c r="B8" s="16">
         <v>2005</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>101241.23729157954</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <f t="shared" si="1"/>
         <v>5878420.1537180627</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <f t="shared" si="2"/>
         <v>63700.857990652192</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <f t="shared" si="3"/>
         <v>6043362.2490002941</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <f t="shared" si="4"/>
         <v>164942.09528223175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="20">
+      <c r="A9" s="45"/>
+      <c r="B9" s="16">
         <v>2006</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>104938.68927669215</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <f t="shared" si="1"/>
         <v>6364367.0169543885</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <f t="shared" si="2"/>
         <v>65790.442049626552</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="14">
         <f t="shared" si="3"/>
         <v>6535096.1482807072</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <f t="shared" si="4"/>
         <v>170729.13132631872</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="20">
+      <c r="A10" s="45"/>
+      <c r="B10" s="16">
         <v>2007</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>108771.17666385975</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <f t="shared" si="1"/>
         <v>6890485.2778986283</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <f t="shared" si="2"/>
         <v>67948.570892411517</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <f t="shared" si="3"/>
         <v>7067205.0254548993</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <f t="shared" si="4"/>
         <v>176719.74755627126</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="20">
+      <c r="A11" s="45"/>
+      <c r="B11" s="16">
         <v>2008</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>112743.63110868775</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <f t="shared" si="1"/>
         <v>7460095.754763416</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <f t="shared" si="2"/>
         <v>70177.492998730828</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="14">
         <f t="shared" si="3"/>
         <v>7643016.8788708346</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <f t="shared" si="4"/>
         <v>182921.12410741858</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="20">
+      <c r="A12" s="45"/>
+      <c r="B12" s="16">
         <v>2009</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>116861.16437678711</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <f t="shared" si="1"/>
         <v>8076793.7853009226</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <f t="shared" si="2"/>
         <v>72479.530605358537</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <f t="shared" si="3"/>
         <v>8266134.4802830685</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <f t="shared" si="4"/>
         <v>189340.69498214565</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="20">
+      <c r="A13" s="45"/>
+      <c r="B13" s="16">
         <v>2010</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>121129.07492160874</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <f t="shared" si="1"/>
         <v>8744471.9202996884</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <f t="shared" si="2"/>
         <v>74857.082125577086</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <f t="shared" si="3"/>
         <v>8940458.0773468725</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
         <f t="shared" si="4"/>
         <v>195986.15704718581</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="20">
+      <c r="A14" s="45"/>
+      <c r="B14" s="16">
         <v>2011</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>125552.85470250841</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <f t="shared" si="1"/>
         <v>9467344.4930674043</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <f t="shared" si="2"/>
         <v>77312.624648001103</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <f t="shared" si="3"/>
         <v>9670209.9724179134</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
         <f t="shared" si="4"/>
         <v>202865.47935050953</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="20">
+      <c r="A15" s="45"/>
+      <c r="B15" s="16">
         <v>2012</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <f>C16/(1+$C$24)</f>
         <v>130138.19625181556</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <f>D16/(1+$D$24)</f>
         <v>10249974.219980331</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <f>E16/(1+$E$24)</f>
         <v>79848.716517370238</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <f t="shared" si="3"/>
         <v>10459961.132749517</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
         <f t="shared" si="4"/>
         <v>209986.91276918579</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>2013</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>134891</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>11097301</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>82468</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <f>SUM(C16:E16)</f>
         <v>11314660</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="23">
         <f>D16/Penduduk!T31</f>
         <v>0.24475309753584185</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <f>C16+E16</f>
         <v>217359</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>2014</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>152064</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>13478289</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>90146</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="14">
         <f t="shared" ref="F17:F21" si="5">SUM(C17:E17)</f>
         <v>13720499</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <f>D17/Penduduk!U31</f>
         <v>0.29281742809876449</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="14">
         <f t="shared" ref="H17:H21" si="6">C17+E17</f>
         <v>242210</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>2015</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>158085</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>14483932</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <v>94786</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="14">
         <f t="shared" si="5"/>
         <v>14736803</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="23">
         <f>D18/Penduduk!V31</f>
         <v>0.31008489930617855</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <f t="shared" si="6"/>
         <v>252871</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>2016</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>161087</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <v>15822611</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <v>101423</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <f t="shared" si="5"/>
         <v>16085121</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="23">
         <f>D19/Penduduk!W31</f>
         <v>0.33874452280335698</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="14">
         <f t="shared" si="6"/>
         <v>262510</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>2017</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <v>164017</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <v>17076805</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="14">
         <v>105743</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <f t="shared" si="5"/>
         <v>17346565</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <f>D20/Penduduk!X31</f>
         <v>0.35548660295437989</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="14">
         <f t="shared" si="6"/>
         <v>269760</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>2018</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>161389</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>16507843</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <v>96911</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <f t="shared" si="5"/>
         <v>16766143</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="23">
         <f>D21/Penduduk!Y31</f>
         <v>0.33966755144032923</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="14">
         <f t="shared" si="6"/>
         <v>258300</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>2019</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>2020</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -7929,48 +8021,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="25">
         <v>0.69934357612644982</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="25">
         <v>0.48908143746933158</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="25">
         <v>0.31877524995910878</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="25">
         <v>2.0895747313757249E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="26">
         <v>5</v>
       </c>
     </row>
@@ -7980,156 +8072,156 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="25">
         <v>1</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="25">
         <v>1.2539105856005071E-3</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="25">
         <v>1.2539105856005071E-3</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="25">
         <v>2.8717772655205147</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="25">
         <v>0.18871754284885303</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <v>3</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="25">
         <v>1.3098967674011798E-3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="25">
         <v>4.3663225580039324E-4</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="26">
         <v>4</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="26">
         <v>2.5638073530016869E-3</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="25">
         <v>6.6029854101270491E-3</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="25">
         <v>0.18950894304324475</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="25">
         <v>3.4842605863831394E-2</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="25">
         <v>0.97439392679888015</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="25">
         <v>-0.59649905019606808</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="25">
         <v>0.60970502101632218</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="25">
         <v>-0.59649905019606808</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="25">
         <v>0.60970502101632218</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="26">
         <v>6.33</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="26">
         <v>5.9865101812331983E-2</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="26">
         <v>3.5326315954955362E-2</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="26">
         <v>1.6946318967612153</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="26">
         <v>0.18871754284885311</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="26">
         <v>-5.2559001877800646E-2</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="26">
         <v>0.17228920550246463</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="26">
         <v>-5.2559001877800646E-2</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="26">
         <v>0.17228920550246463</v>
       </c>
     </row>
@@ -8140,68 +8232,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="25">
         <v>1</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="25">
         <v>0.31131635363489685</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="25">
         <v>-1.849892553613236E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="25">
         <v>2</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="25">
         <v>0.30892174956240354</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="25">
         <v>1.163149743775016E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="25">
         <v>3</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="25">
         <v>0.34543946166792611</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="25">
         <v>-6.6949388645691221E-3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="25">
         <v>4</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="25">
         <v>0.32568397806985655</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="25">
         <v>2.9802624884523343E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34">
+      <c r="A29" s="26">
         <v>5</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="26">
         <v>0.34543946166792611</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="26">
         <v>-5.771910227596877E-3</v>
       </c>
     </row>
@@ -8227,48 +8319,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="25">
         <v>0.85587422583647987</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="25">
         <v>0.73252069045119372</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="25">
         <v>0.64336092060159167</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="25">
         <v>1.5119142618956537E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="26">
         <v>5</v>
       </c>
     </row>
@@ -8278,156 +8370,156 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="25">
         <v>1</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="25">
         <v>1.8780419324046431E-3</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="25">
         <v>1.8780419324046431E-3</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="25">
         <v>8.2158207865143211</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="25">
         <v>6.4243220482477006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <v>3</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="25">
         <v>6.8576542059704381E-4</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="25">
         <v>2.2858847353234794E-4</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="26">
         <v>4</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="26">
         <v>2.5638073530016869E-3</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="25">
         <v>-2.1645897965924921E-2</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="25">
         <v>0.12194840372036252</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="25">
         <v>-0.1775004617162575</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="25">
         <v>0.87042349585592027</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="25">
         <v>-0.40974014482103871</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="25">
         <v>0.36644834888918887</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="25">
         <v>-0.40974014482103871</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="25">
         <v>0.36644834888918887</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="26">
         <v>24118312.199999999</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="26">
         <v>1.2931927680811276E-8</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="26">
         <v>4.5116748028317915E-9</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="26">
         <v>2.8663253106572397</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="26">
         <v>6.4243220482477006E-2</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="26">
         <v>-1.4262351261023653E-9</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="26">
         <v>2.7290090487724917E-8</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="26">
         <v>-1.4262351261023653E-9</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="26">
         <v>2.7290090487724917E-8</v>
       </c>
     </row>
@@ -8438,68 +8530,68 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="25">
         <v>1</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="25">
         <v>0.30122366828571984</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="25">
         <v>-8.4062401869553494E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="25">
         <v>2</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="25">
         <v>0.31258628766185026</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="25">
         <v>-2.5013883556717076E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="25">
         <v>3</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="25">
         <v>0.32652692833263824</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="25">
         <v>1.221759447071874E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="25">
         <v>4</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="25">
         <v>0.34099701621847983</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="25">
         <v>1.4489586735900062E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34">
+      <c r="A29" s="26">
         <v>5</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="26">
         <v>0.35546710410432142</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="26">
         <v>-1.5799552663992189E-2</v>
       </c>
     </row>
@@ -8549,7 +8641,7 @@
         <f>Kendaraan!G16</f>
         <v>0.24475309753584185</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>6.33</v>
       </c>
       <c r="D3">
@@ -8569,7 +8661,7 @@
         <f>Kendaraan!G17</f>
         <v>0.29281742809876449</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>5.09</v>
       </c>
       <c r="D4">
@@ -8589,7 +8681,7 @@
         <f>Kendaraan!G18</f>
         <v>0.31008489930617855</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>5.05</v>
       </c>
       <c r="D5">
@@ -8609,7 +8701,7 @@
         <f>Kendaraan!G19</f>
         <v>0.33874452280335698</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>5.66</v>
       </c>
       <c r="D6">
@@ -8629,7 +8721,7 @@
         <f>Kendaraan!G20</f>
         <v>0.35548660295437989</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>5.33</v>
       </c>
       <c r="D7">
@@ -8649,7 +8741,7 @@
         <f>Kendaraan!G21</f>
         <v>0.33966755144032923</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>5.66</v>
       </c>
       <c r="D8">
@@ -8682,198 +8774,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>2000</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2001</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2002</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>2003</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2004</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>2005</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>2006</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>2007</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>2008</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>2009</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>2010</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>2011</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>2012</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2013</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>2014</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>2015</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>3.1</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <f>B17*$C$23</f>
         <v>22142857.142857011</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>2016</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>3.4</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <f t="shared" ref="C18:C22" si="0">B18*$C$23</f>
         <v>24285714.285714138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>2017</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>3.6</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="18">
         <f t="shared" si="0"/>
         <v>25714285.71428556</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>2018</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>3.9</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <f t="shared" si="0"/>
         <v>27857142.857142691</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>2019</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>4.2</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <f t="shared" si="0"/>
         <v>29999999.999999821</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>2020</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>4.5</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="18">
         <f t="shared" si="0"/>
         <v>32142857.142856948</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <v>7142857.1428570999</v>
       </c>
     </row>

--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0867787A-2792-4F64-91E0-88B89663D54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E6B85-86C8-49A2-A65B-0C588B5AD176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="671" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView xWindow="5100" yWindow="1695" windowWidth="21600" windowHeight="11505" tabRatio="671" firstSheet="12" activeTab="14" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data jabar" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Energi-Industri" sheetId="6" r:id="rId11"/>
     <sheet name="Energi-Komersial" sheetId="7" r:id="rId12"/>
     <sheet name="Energi-Lainnya" sheetId="8" r:id="rId13"/>
+    <sheet name="Industri, 2015" sheetId="15" r:id="rId14"/>
+    <sheet name="Jabar dalam Angka" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -78,8 +80,189 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>wizard</author>
+  </authors>
+  <commentList>
+    <comment ref="Z10" authorId="0" shapeId="0" xr:uid="{30A92EBF-F60B-40EE-8C6E-E0BDAB9B1AF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y11" authorId="0" shapeId="0" xr:uid="{1CEDF3FA-2F35-4F64-B09E-DA3D3A323F35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z11" authorId="0" shapeId="0" xr:uid="{13C1DC58-7035-4D85-A36C-7565D1522490}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y12" authorId="0" shapeId="0" xr:uid="{35F2E029-49D2-438D-9064-F718DF15271D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="0" shapeId="0" xr:uid="{B628F096-004F-4A82-8CDB-B4C2420ED066}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{B397A8EA-AF5F-47E9-86DD-DBF34E660E72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="0" shapeId="0" xr:uid="{6304CA0D-A000-457E-AEE7-F25075542A70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wizard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+data asli dalam milyar rupiah</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="178">
   <si>
     <t>Kabupaten/Regency</t>
   </si>
@@ -433,6 +616,186 @@
   </si>
   <si>
     <t>static gdp per capita growth[jabar]</t>
+  </si>
+  <si>
+    <t>Golongan Industri</t>
+  </si>
+  <si>
+    <t>Perusahaan</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Industri Makanan</t>
+  </si>
+  <si>
+    <t>Industri Minuman</t>
+  </si>
+  <si>
+    <t>Industri Pengolahan Tembakau</t>
+  </si>
+  <si>
+    <t>Industri Pakaian Jadi</t>
+  </si>
+  <si>
+    <t>Industri Kulit, Barang dari Kulit, dan Alas Kaki</t>
+  </si>
+  <si>
+    <t>Industri Tekstil</t>
+  </si>
+  <si>
+    <t>Industri Kayu, Barang dari Kayu (non Furnitur), dan Barang Anyaman dari Rotan, Bambu, dsj.</t>
+  </si>
+  <si>
+    <t>Industri Kertas, Barang dari Kertas, dsj.</t>
+  </si>
+  <si>
+    <t>Industri Percetakan</t>
+  </si>
+  <si>
+    <t>Industri Produk dari batubara, Pengilangan Minyak Bumi</t>
+  </si>
+  <si>
+    <t>Industri Kimia dan Barang dari Bahan Kimia</t>
+  </si>
+  <si>
+    <t>Industri Karet, Barang dari Karet dan Plastik</t>
+  </si>
+  <si>
+    <t>Industri Farmasi, Produk Obat Kimia, dan Obat Traditional</t>
+  </si>
+  <si>
+    <t>Industri Barang Galian non Logam</t>
+  </si>
+  <si>
+    <t>Industri Logam Dasar</t>
+  </si>
+  <si>
+    <t>Industri Barang Logam Bukan Mesin</t>
+  </si>
+  <si>
+    <t>Industri Komputer, Barang Elektronik dan Optik</t>
+  </si>
+  <si>
+    <t>Industri Peralatan Listrik</t>
+  </si>
+  <si>
+    <t>Industri Mesin dan Peralatan</t>
+  </si>
+  <si>
+    <t>Industri Alat Angkutan Lainnya</t>
+  </si>
+  <si>
+    <t>Industri Furnitur</t>
+  </si>
+  <si>
+    <t>Industri Pengolahan Lainnya</t>
+  </si>
+  <si>
+    <t>Jasa Reparasi dan Pemasangan Mesin dan Peralatan</t>
+  </si>
+  <si>
+    <t>Industri Kendaraan Bermotor, Trailer, dan Semi Trailer</t>
+  </si>
+  <si>
+    <t>Biaya Input/Input Cost</t>
+  </si>
+  <si>
+    <t>Nilai Output Kotor / Value of Gross Output</t>
+  </si>
+  <si>
+    <t>Nilai Tambah (Harga Pasar)/Value Added at Market Prices</t>
+  </si>
+  <si>
+    <t>Bahan Baku / Raw Materials</t>
+  </si>
+  <si>
+    <t>Bahan Bakar dan Pelumas / Fuel and Lubricants</t>
+  </si>
+  <si>
+    <t>Listrik / Electricity</t>
+  </si>
+  <si>
+    <t>Sewa Gedung, Mesin, Alat-Alat</t>
+  </si>
+  <si>
+    <t>Jasa Lainnya</t>
+  </si>
+  <si>
+    <t>Populasi</t>
+  </si>
+  <si>
+    <t>Daya Terpasang (KW)</t>
+  </si>
+  <si>
+    <t>Produksi Listrik (KWh)</t>
+  </si>
+  <si>
+    <t>Listrik Terjual (KWh)</t>
+  </si>
+  <si>
+    <t>Dipakai Sendiri (KWh)</t>
+  </si>
+  <si>
+    <t>Susut/Hilang (KWh)</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Pribadi</t>
+  </si>
+  <si>
+    <t>Umum</t>
+  </si>
+  <si>
+    <t>Sedan, Jeep, Minibus</t>
+  </si>
+  <si>
+    <t>Bus dan sejenisnya</t>
+  </si>
+  <si>
+    <t>Truk/ Pickup</t>
+  </si>
+  <si>
+    <t>Alat Berat</t>
+  </si>
+  <si>
+    <t>Sepeda Motor</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Minibus dan sejenisnya</t>
+  </si>
+  <si>
+    <t>Industri</t>
+  </si>
+  <si>
+    <t>Sektor</t>
+  </si>
+  <si>
+    <t>Nilai Investasi</t>
+  </si>
+  <si>
+    <t>Dalam Negeri</t>
+  </si>
+  <si>
+    <t>Luar Negeri</t>
+  </si>
+  <si>
+    <t>PDRB(Harga Berlaku, Juta Rupiah)</t>
+  </si>
+  <si>
+    <t>PDRB(Harga 2010, Juta Rupiah)</t>
+  </si>
+  <si>
+    <t>Tenaga Kerja 15 th Ke Atas (Orang)</t>
+  </si>
+  <si>
+    <t>Laju PDRB (Harga 2010, % Per Tahun)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +807,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +858,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -628,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -709,6 +1085,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -721,17 +1103,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3006,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B0A35-D970-4535-B6B0-E5AD36F4652D}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -4172,10 +4575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="43"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="46" t="s">
         <v>41</v>
       </c>
@@ -4898,6 +5301,2056 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0E5AFA-6774-49D4-9F86-9C5D12637256}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="51"/>
+    <col min="2" max="2" width="24.85546875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="25" style="51" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="50">
+        <v>10</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="50">
+        <v>1055</v>
+      </c>
+      <c r="D2" s="50">
+        <v>106055</v>
+      </c>
+      <c r="E2" s="50">
+        <v>72246122.290000007</v>
+      </c>
+      <c r="F2" s="50">
+        <v>49475992.210000001</v>
+      </c>
+      <c r="G2" s="50">
+        <v>22770130.079999998</v>
+      </c>
+      <c r="H2" s="53">
+        <v>40739853.259999998</v>
+      </c>
+      <c r="I2" s="53">
+        <v>2832305.8849999998</v>
+      </c>
+      <c r="J2" s="53">
+        <v>2523273.4589999998</v>
+      </c>
+      <c r="K2" s="53">
+        <v>316101.196</v>
+      </c>
+      <c r="L2" s="53">
+        <v>3064458.406</v>
+      </c>
+      <c r="M2" s="53">
+        <v>3380559.602</v>
+      </c>
+      <c r="N2" s="55"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>11</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="50">
+        <v>96</v>
+      </c>
+      <c r="D3" s="50">
+        <v>17158</v>
+      </c>
+      <c r="E3" s="50">
+        <v>8273813.6100000003</v>
+      </c>
+      <c r="F3" s="50">
+        <v>3519664.4249999998</v>
+      </c>
+      <c r="G3" s="50">
+        <v>4754149.1869999999</v>
+      </c>
+      <c r="H3" s="53">
+        <v>2546384.361</v>
+      </c>
+      <c r="I3" s="53">
+        <v>136708.09299999999</v>
+      </c>
+      <c r="J3" s="53">
+        <v>169296.01199999999</v>
+      </c>
+      <c r="K3" s="53">
+        <v>38821.398999999998</v>
+      </c>
+      <c r="L3" s="53">
+        <v>628454.56000000006</v>
+      </c>
+      <c r="M3" s="53">
+        <v>667275.95900000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="50">
+        <v>12</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="50">
+        <v>9</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1478</v>
+      </c>
+      <c r="E4" s="50">
+        <v>165278.64000000001</v>
+      </c>
+      <c r="F4" s="50">
+        <v>53845.83</v>
+      </c>
+      <c r="G4" s="50">
+        <v>111432.81</v>
+      </c>
+      <c r="H4" s="53">
+        <v>48259.381999999998</v>
+      </c>
+      <c r="I4" s="53">
+        <v>507.137</v>
+      </c>
+      <c r="J4" s="53">
+        <v>315.36</v>
+      </c>
+      <c r="K4" s="53">
+        <v>447.23700000000002</v>
+      </c>
+      <c r="L4" s="53">
+        <v>4316.7139999999999</v>
+      </c>
+      <c r="M4" s="53">
+        <v>4763.951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>13</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1088</v>
+      </c>
+      <c r="D5" s="50">
+        <v>261913</v>
+      </c>
+      <c r="E5" s="50">
+        <v>191901569.88</v>
+      </c>
+      <c r="F5" s="50">
+        <v>136688262.80000001</v>
+      </c>
+      <c r="G5" s="50">
+        <v>55213307.049999997</v>
+      </c>
+      <c r="H5" s="53">
+        <v>106226924</v>
+      </c>
+      <c r="I5" s="53">
+        <v>4844760.0939999996</v>
+      </c>
+      <c r="J5" s="53">
+        <v>16845928.920000002</v>
+      </c>
+      <c r="K5" s="53">
+        <v>505929.80300000001</v>
+      </c>
+      <c r="L5" s="53">
+        <v>8264720.0060000001</v>
+      </c>
+      <c r="M5" s="53">
+        <v>8770649.8090000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>14</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="50">
+        <v>792</v>
+      </c>
+      <c r="D6" s="50">
+        <v>308237</v>
+      </c>
+      <c r="E6" s="50">
+        <v>67966121.480000004</v>
+      </c>
+      <c r="F6" s="50">
+        <v>36977500.460000001</v>
+      </c>
+      <c r="G6" s="50">
+        <v>30988621.02</v>
+      </c>
+      <c r="H6" s="53">
+        <v>25770954.780000001</v>
+      </c>
+      <c r="I6" s="53">
+        <v>1737878.037</v>
+      </c>
+      <c r="J6" s="53">
+        <v>2875932.1690000002</v>
+      </c>
+      <c r="K6" s="53">
+        <v>1255541.7990000001</v>
+      </c>
+      <c r="L6" s="53">
+        <v>5337193.6840000004</v>
+      </c>
+      <c r="M6" s="53">
+        <v>6592735.483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>15</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="50">
+        <v>217</v>
+      </c>
+      <c r="D7" s="50">
+        <v>114133</v>
+      </c>
+      <c r="E7" s="50">
+        <v>28944889.18</v>
+      </c>
+      <c r="F7" s="50">
+        <v>6813613.8729999997</v>
+      </c>
+      <c r="G7" s="50">
+        <v>22131275.300000001</v>
+      </c>
+      <c r="H7" s="53">
+        <v>5278807.9670000002</v>
+      </c>
+      <c r="I7" s="53">
+        <v>268820.59499999997</v>
+      </c>
+      <c r="J7" s="53">
+        <v>650807.397</v>
+      </c>
+      <c r="K7" s="53">
+        <v>55551.146000000001</v>
+      </c>
+      <c r="L7" s="53">
+        <v>559626.76800000004</v>
+      </c>
+      <c r="M7" s="53">
+        <v>615177.91399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>16</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="50">
+        <v>134</v>
+      </c>
+      <c r="D8" s="50">
+        <v>24838</v>
+      </c>
+      <c r="E8" s="50">
+        <v>4182718</v>
+      </c>
+      <c r="F8" s="50">
+        <v>2409949</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1772770</v>
+      </c>
+      <c r="H8" s="54">
+        <v>2032028.399</v>
+      </c>
+      <c r="I8" s="54">
+        <v>93780.304000000004</v>
+      </c>
+      <c r="J8" s="54">
+        <v>123766.724</v>
+      </c>
+      <c r="K8" s="54">
+        <v>14209.503000000001</v>
+      </c>
+      <c r="L8" s="54">
+        <v>146163.842</v>
+      </c>
+      <c r="M8" s="54">
+        <v>160373.345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>17</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="50">
+        <v>105</v>
+      </c>
+      <c r="D9" s="50">
+        <v>26805</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="54">
+        <v>19204551.41</v>
+      </c>
+      <c r="I9" s="54">
+        <v>3867666.8909999998</v>
+      </c>
+      <c r="J9" s="54">
+        <v>2283822.8939999999</v>
+      </c>
+      <c r="K9" s="54">
+        <v>78771.990999999995</v>
+      </c>
+      <c r="L9" s="54">
+        <v>1158831.9339999999</v>
+      </c>
+      <c r="M9" s="54">
+        <v>1237603.925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>18</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="50">
+        <v>95</v>
+      </c>
+      <c r="D10" s="50">
+        <v>12900</v>
+      </c>
+      <c r="E10" s="50">
+        <v>49787693</v>
+      </c>
+      <c r="F10" s="50">
+        <v>26593645</v>
+      </c>
+      <c r="G10" s="50">
+        <v>23194048</v>
+      </c>
+      <c r="H10" s="54">
+        <v>2588472.952</v>
+      </c>
+      <c r="I10" s="54">
+        <v>196359.07500000001</v>
+      </c>
+      <c r="J10" s="54">
+        <v>828347.61100000003</v>
+      </c>
+      <c r="K10" s="54">
+        <v>57096.451000000001</v>
+      </c>
+      <c r="L10" s="54">
+        <v>314004.59299999999</v>
+      </c>
+      <c r="M10" s="54">
+        <v>371101.04399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>19</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="50">
+        <v>15</v>
+      </c>
+      <c r="D11" s="50">
+        <v>1121</v>
+      </c>
+      <c r="E11" s="50">
+        <v>9138129</v>
+      </c>
+      <c r="F11" s="50">
+        <v>3984281</v>
+      </c>
+      <c r="G11" s="50">
+        <v>5153848</v>
+      </c>
+      <c r="H11" s="54">
+        <v>228367.027</v>
+      </c>
+      <c r="I11" s="54">
+        <v>16751.103999999999</v>
+      </c>
+      <c r="J11" s="54">
+        <v>5644.5540000000001</v>
+      </c>
+      <c r="K11" s="54">
+        <v>6403.7529999999997</v>
+      </c>
+      <c r="L11" s="54">
+        <v>10740.710999999999</v>
+      </c>
+      <c r="M11" s="54">
+        <v>17144.464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>20</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="50">
+        <v>305</v>
+      </c>
+      <c r="D12" s="50">
+        <v>56816</v>
+      </c>
+      <c r="E12" s="50">
+        <v>163974828</v>
+      </c>
+      <c r="F12" s="50">
+        <v>110171293</v>
+      </c>
+      <c r="G12" s="50">
+        <v>53803535</v>
+      </c>
+      <c r="H12" s="54">
+        <v>77876445.849999994</v>
+      </c>
+      <c r="I12" s="54">
+        <v>3366995.986</v>
+      </c>
+      <c r="J12" s="54">
+        <v>12704461.59</v>
+      </c>
+      <c r="K12" s="54">
+        <v>1098247.0120000001</v>
+      </c>
+      <c r="L12" s="54">
+        <v>15125142.279999999</v>
+      </c>
+      <c r="M12" s="54">
+        <v>16223389.300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>21</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="50">
+        <v>76</v>
+      </c>
+      <c r="D13" s="50">
+        <v>17793</v>
+      </c>
+      <c r="E13" s="50">
+        <v>13347012</v>
+      </c>
+      <c r="F13" s="50">
+        <v>6653139</v>
+      </c>
+      <c r="G13" s="50">
+        <v>6693873</v>
+      </c>
+      <c r="H13" s="54">
+        <v>3557162.963</v>
+      </c>
+      <c r="I13" s="54">
+        <v>796940.30599999998</v>
+      </c>
+      <c r="J13" s="54">
+        <v>301258.38099999999</v>
+      </c>
+      <c r="K13" s="54">
+        <v>46683.519999999997</v>
+      </c>
+      <c r="L13" s="54">
+        <v>1951094.24</v>
+      </c>
+      <c r="M13" s="54">
+        <v>1997777.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>22</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="50">
+        <v>482</v>
+      </c>
+      <c r="D14" s="50">
+        <v>168930</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
+        <v>55610127.700000003</v>
+      </c>
+      <c r="I14" s="54">
+        <v>4586907.1500000004</v>
+      </c>
+      <c r="J14" s="54">
+        <v>4135991.5019999999</v>
+      </c>
+      <c r="K14" s="54">
+        <v>467095.97200000001</v>
+      </c>
+      <c r="L14" s="54">
+        <v>5317320.8930000002</v>
+      </c>
+      <c r="M14" s="54">
+        <v>5784416.8650000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="50">
+        <v>23</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="50">
+        <v>746</v>
+      </c>
+      <c r="D15" s="50">
+        <v>73212</v>
+      </c>
+      <c r="E15" s="50">
+        <v>119705692</v>
+      </c>
+      <c r="F15" s="50">
+        <v>70117443</v>
+      </c>
+      <c r="G15" s="50">
+        <v>49588249</v>
+      </c>
+      <c r="H15" s="54">
+        <v>8500021.9609999992</v>
+      </c>
+      <c r="I15" s="54">
+        <v>2556858.4079999998</v>
+      </c>
+      <c r="J15" s="54">
+        <v>1177682.956</v>
+      </c>
+      <c r="K15" s="54">
+        <v>50720.622000000003</v>
+      </c>
+      <c r="L15" s="54">
+        <v>818403.66599999997</v>
+      </c>
+      <c r="M15" s="54">
+        <v>869124.28799999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="50">
+        <v>24</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="50">
+        <v>86</v>
+      </c>
+      <c r="D16" s="50">
+        <v>13366</v>
+      </c>
+      <c r="E16" s="50">
+        <v>28795098</v>
+      </c>
+      <c r="F16" s="50">
+        <v>16564823</v>
+      </c>
+      <c r="G16" s="50">
+        <v>12230275</v>
+      </c>
+      <c r="H16" s="54">
+        <v>22190069.120000001</v>
+      </c>
+      <c r="I16" s="54">
+        <v>440065.90600000002</v>
+      </c>
+      <c r="J16" s="54">
+        <v>766064.65399999998</v>
+      </c>
+      <c r="K16" s="54">
+        <v>80086.557000000001</v>
+      </c>
+      <c r="L16" s="54">
+        <v>754530.20200000005</v>
+      </c>
+      <c r="M16" s="54">
+        <v>834616.75899999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="50">
+        <v>25</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="50">
+        <v>293</v>
+      </c>
+      <c r="D17" s="50">
+        <v>45322</v>
+      </c>
+      <c r="E17" s="50">
+        <v>110719139</v>
+      </c>
+      <c r="F17" s="50">
+        <v>65588105</v>
+      </c>
+      <c r="G17" s="50">
+        <v>45131034</v>
+      </c>
+      <c r="H17" s="54">
+        <v>12450684.369999999</v>
+      </c>
+      <c r="I17" s="54">
+        <v>669150.76699999999</v>
+      </c>
+      <c r="J17" s="54">
+        <v>968209.82799999998</v>
+      </c>
+      <c r="K17" s="54">
+        <v>966258.54099999997</v>
+      </c>
+      <c r="L17" s="54">
+        <v>1510519.166</v>
+      </c>
+      <c r="M17" s="54">
+        <v>16564822.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="50">
+        <v>26</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="50">
+        <v>191</v>
+      </c>
+      <c r="D18" s="50">
+        <v>77590</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
+        <v>56732802.280000001</v>
+      </c>
+      <c r="I18" s="54">
+        <v>739942.25899999996</v>
+      </c>
+      <c r="J18" s="54">
+        <v>3722548.1310000001</v>
+      </c>
+      <c r="K18" s="54">
+        <v>669401.68200000003</v>
+      </c>
+      <c r="L18" s="54">
+        <v>3723410.5839999998</v>
+      </c>
+      <c r="M18" s="54">
+        <v>65588104.939999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>27</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="50">
+        <v>139</v>
+      </c>
+      <c r="D19" s="50">
+        <v>43485</v>
+      </c>
+      <c r="E19" s="50">
+        <v>60125184</v>
+      </c>
+      <c r="F19" s="50">
+        <v>28148439</v>
+      </c>
+      <c r="G19" s="50">
+        <v>31976745</v>
+      </c>
+      <c r="H19" s="54">
+        <v>22752740</v>
+      </c>
+      <c r="I19" s="54">
+        <v>936541.446</v>
+      </c>
+      <c r="J19" s="54">
+        <v>2406596.3790000002</v>
+      </c>
+      <c r="K19" s="54">
+        <v>799239.57499999995</v>
+      </c>
+      <c r="L19" s="54">
+        <v>1253321.1129999999</v>
+      </c>
+      <c r="M19" s="54">
+        <v>28148438.510000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>28</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="50">
+        <v>172</v>
+      </c>
+      <c r="D20" s="50">
+        <v>32630</v>
+      </c>
+      <c r="E20" s="50">
+        <v>38530958</v>
+      </c>
+      <c r="F20" s="50">
+        <v>15183535</v>
+      </c>
+      <c r="G20" s="50">
+        <v>23347423</v>
+      </c>
+      <c r="H20" s="54">
+        <v>10367254.18</v>
+      </c>
+      <c r="I20" s="54">
+        <v>227815.905</v>
+      </c>
+      <c r="J20" s="54">
+        <v>530874.05000000005</v>
+      </c>
+      <c r="K20" s="54">
+        <v>66269.418999999994</v>
+      </c>
+      <c r="L20" s="54">
+        <v>3991321.196</v>
+      </c>
+      <c r="M20" s="54">
+        <v>15183534.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>29</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="50">
+        <v>10</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50">
+        <v>199790543</v>
+      </c>
+      <c r="F21" s="50">
+        <v>92991681</v>
+      </c>
+      <c r="G21" s="50">
+        <v>106798862</v>
+      </c>
+      <c r="H21" s="54">
+        <v>65350406.479999997</v>
+      </c>
+      <c r="I21" s="54">
+        <v>2327436.7969999998</v>
+      </c>
+      <c r="J21" s="54">
+        <v>5039601.415</v>
+      </c>
+      <c r="K21" s="54">
+        <v>565426.52899999998</v>
+      </c>
+      <c r="L21" s="54">
+        <v>19708809.350000001</v>
+      </c>
+      <c r="M21" s="54">
+        <v>92991680.569999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="50">
+        <v>30</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="50">
+        <v>233</v>
+      </c>
+      <c r="D22" s="50">
+        <v>74059</v>
+      </c>
+      <c r="E22" s="50">
+        <v>21099427</v>
+      </c>
+      <c r="F22" s="50">
+        <v>10464566</v>
+      </c>
+      <c r="G22" s="50">
+        <v>10634861</v>
+      </c>
+      <c r="H22" s="54">
+        <v>7829314.6909999996</v>
+      </c>
+      <c r="I22" s="54">
+        <v>411032.09100000001</v>
+      </c>
+      <c r="J22" s="54">
+        <v>807386.43099999998</v>
+      </c>
+      <c r="K22" s="54">
+        <v>628950.14</v>
+      </c>
+      <c r="L22" s="54">
+        <v>787882.87100000004</v>
+      </c>
+      <c r="M22" s="54">
+        <v>10464566.220000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="50">
+        <v>31</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="50">
+        <v>129</v>
+      </c>
+      <c r="D23" s="50">
+        <v>29350</v>
+      </c>
+      <c r="E23" s="50">
+        <v>10011628</v>
+      </c>
+      <c r="F23" s="50">
+        <v>5280536</v>
+      </c>
+      <c r="G23" s="50">
+        <v>4731092</v>
+      </c>
+      <c r="H23" s="54">
+        <v>3738679.6290000002</v>
+      </c>
+      <c r="I23" s="54">
+        <v>196400.247</v>
+      </c>
+      <c r="J23" s="54">
+        <v>407711.35499999998</v>
+      </c>
+      <c r="K23" s="54">
+        <v>342018.21799999999</v>
+      </c>
+      <c r="L23" s="54">
+        <v>595726.53700000001</v>
+      </c>
+      <c r="M23" s="54">
+        <v>5280535.9859999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="50">
+        <v>32</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="50">
+        <v>251</v>
+      </c>
+      <c r="D24" s="50">
+        <v>31858</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50">
+        <v>0</v>
+      </c>
+      <c r="H24" s="54">
+        <v>4259563.3760000002</v>
+      </c>
+      <c r="I24" s="54">
+        <v>175390.073</v>
+      </c>
+      <c r="J24" s="54">
+        <v>250364.48</v>
+      </c>
+      <c r="K24" s="54">
+        <v>186701.245</v>
+      </c>
+      <c r="L24" s="54">
+        <v>339721.91200000001</v>
+      </c>
+      <c r="M24" s="54">
+        <v>5211741.0860000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="50">
+        <v>33</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="50">
+        <v>155</v>
+      </c>
+      <c r="D25" s="50">
+        <v>51383</v>
+      </c>
+      <c r="E25" s="50">
+        <v>16398625</v>
+      </c>
+      <c r="F25" s="50">
+        <v>5211741</v>
+      </c>
+      <c r="G25" s="50">
+        <v>11186884</v>
+      </c>
+      <c r="H25" s="54">
+        <v>21035.981</v>
+      </c>
+      <c r="I25" s="54">
+        <v>12383.26</v>
+      </c>
+      <c r="J25" s="54">
+        <v>5396.2420000000002</v>
+      </c>
+      <c r="K25" s="54">
+        <v>1845.67</v>
+      </c>
+      <c r="L25" s="54">
+        <v>11347.286</v>
+      </c>
+      <c r="M25" s="54">
+        <v>52008.438999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="50">
+        <v>6874</v>
+      </c>
+      <c r="D26" s="50">
+        <v>1588155</v>
+      </c>
+      <c r="E26" s="50">
+        <v>1215104469.0799999</v>
+      </c>
+      <c r="F26" s="50">
+        <v>692892005.74000001</v>
+      </c>
+      <c r="G26" s="50">
+        <v>522212414.44999999</v>
+      </c>
+      <c r="H26" s="53">
+        <v>555900912</v>
+      </c>
+      <c r="I26" s="53">
+        <v>31439398</v>
+      </c>
+      <c r="J26" s="53">
+        <v>59531283</v>
+      </c>
+      <c r="K26" s="53">
+        <v>8297819</v>
+      </c>
+      <c r="L26" s="53">
+        <v>75377063</v>
+      </c>
+      <c r="M26" s="53">
+        <v>730546474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="50">
+        <f>SUM(C2:C25)</f>
+        <v>6874</v>
+      </c>
+      <c r="D27" s="50">
+        <f>SUM(D2:D25)</f>
+        <v>1590432</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" ref="E27:M27" si="0">SUM(E2:E25)</f>
+        <v>1215104469.0799999</v>
+      </c>
+      <c r="F27" s="50">
+        <f t="shared" si="0"/>
+        <v>692892055.59800005</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="0"/>
+        <v>522212414.44700003</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" si="0"/>
+        <v>555900912.11899996</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" si="0"/>
+        <v>31439397.815999996</v>
+      </c>
+      <c r="J27" s="53">
+        <f t="shared" si="0"/>
+        <v>59531282.493999988</v>
+      </c>
+      <c r="K27" s="53">
+        <f t="shared" si="0"/>
+        <v>8297818.9800000004</v>
+      </c>
+      <c r="L27" s="53">
+        <f t="shared" si="0"/>
+        <v>75377062.513999999</v>
+      </c>
+      <c r="M27" s="53">
+        <f>SUM(M2:M25)</f>
+        <v>287012143.63900006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D20A539-ECC7-4EF4-8565-B3E0F3F6B1AB}">
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="49" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="56"/>
+      <c r="T1" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H3" s="49">
+        <v>156482</v>
+      </c>
+      <c r="I3" s="49">
+        <v>13594</v>
+      </c>
+      <c r="J3" s="49">
+        <v>68344</v>
+      </c>
+      <c r="L3" s="49">
+        <v>496857</v>
+      </c>
+      <c r="M3" s="49">
+        <v>88847</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="0">H3+J3+L3</f>
+        <v>721683</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="1">I3+K3+M3</f>
+        <v>102441</v>
+      </c>
+      <c r="P3" s="49">
+        <v>10452</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>16448</v>
+      </c>
+      <c r="R3" s="49">
+        <v>284287</v>
+      </c>
+      <c r="S3" s="49">
+        <v>13179</v>
+      </c>
+      <c r="T3" s="2">
+        <v>118</v>
+      </c>
+      <c r="U3" s="2">
+        <v>34</v>
+      </c>
+      <c r="V3" s="2">
+        <v>5818657</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H4" s="49">
+        <v>162423</v>
+      </c>
+      <c r="I4" s="49">
+        <v>14311</v>
+      </c>
+      <c r="J4" s="49">
+        <v>70852</v>
+      </c>
+      <c r="L4" s="49">
+        <v>540380</v>
+      </c>
+      <c r="M4" s="49">
+        <v>89602</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>773655</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>103913</v>
+      </c>
+      <c r="P4" s="49">
+        <v>10622</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>17493</v>
+      </c>
+      <c r="R4" s="49">
+        <v>293429</v>
+      </c>
+      <c r="S4" s="49">
+        <v>19401</v>
+      </c>
+      <c r="T4" s="2">
+        <v>125</v>
+      </c>
+      <c r="U4" s="2">
+        <v>36</v>
+      </c>
+      <c r="V4" s="2">
+        <v>6775893</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>43227107</v>
+      </c>
+      <c r="H5">
+        <v>168292</v>
+      </c>
+      <c r="I5">
+        <v>13842</v>
+      </c>
+      <c r="J5">
+        <v>74968</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>627276</v>
+      </c>
+      <c r="M5">
+        <v>71513</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>870536</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>85359</v>
+      </c>
+      <c r="P5">
+        <v>7209</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>16375</v>
+      </c>
+      <c r="R5">
+        <v>300790</v>
+      </c>
+      <c r="S5">
+        <v>19401</v>
+      </c>
+      <c r="T5" s="14">
+        <v>68</v>
+      </c>
+      <c r="U5" s="14">
+        <v>10</v>
+      </c>
+      <c r="V5" s="14">
+        <v>7636482</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>3389287</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>291688080</v>
+      </c>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>43938796</v>
+      </c>
+      <c r="H6">
+        <v>163185</v>
+      </c>
+      <c r="I6">
+        <v>14870</v>
+      </c>
+      <c r="J6">
+        <v>78212</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>689990</v>
+      </c>
+      <c r="M6">
+        <v>68896</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>931387</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>83769</v>
+      </c>
+      <c r="P6">
+        <v>7467</v>
+      </c>
+      <c r="Q6">
+        <v>16995</v>
+      </c>
+      <c r="R6">
+        <v>312050</v>
+      </c>
+      <c r="S6">
+        <v>22161</v>
+      </c>
+      <c r="T6" s="14">
+        <v>79</v>
+      </c>
+      <c r="U6" s="14">
+        <v>15</v>
+      </c>
+      <c r="V6" s="14">
+        <v>8426228</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14">
+        <v>319983632</v>
+      </c>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>44643586</v>
+      </c>
+      <c r="H7">
+        <v>1070433</v>
+      </c>
+      <c r="I7">
+        <v>86373</v>
+      </c>
+      <c r="N7">
+        <f>H7+J7+L7</f>
+        <v>1070433</v>
+      </c>
+      <c r="O7">
+        <f>I7+K7+M7</f>
+        <v>86373</v>
+      </c>
+      <c r="P7">
+        <v>7123</v>
+      </c>
+      <c r="Q7">
+        <v>17837</v>
+      </c>
+      <c r="R7">
+        <v>346859</v>
+      </c>
+      <c r="S7">
+        <v>29896</v>
+      </c>
+      <c r="T7" s="14">
+        <v>66</v>
+      </c>
+      <c r="U7" s="14">
+        <v>17</v>
+      </c>
+      <c r="V7" s="14">
+        <v>9626748</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14">
+        <v>338881030</v>
+      </c>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>45340799</v>
+      </c>
+      <c r="H8">
+        <v>175654</v>
+      </c>
+      <c r="I8">
+        <v>15916</v>
+      </c>
+      <c r="J8">
+        <v>99350</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>948634</v>
+      </c>
+      <c r="M8">
+        <v>70334</v>
+      </c>
+      <c r="N8">
+        <f>H8+J8+L8</f>
+        <v>1223638</v>
+      </c>
+      <c r="O8">
+        <f>I8+K8+M8</f>
+        <v>86250</v>
+      </c>
+      <c r="P8">
+        <v>7369</v>
+      </c>
+      <c r="Q8">
+        <v>18059</v>
+      </c>
+      <c r="R8">
+        <v>381965</v>
+      </c>
+      <c r="S8">
+        <v>38530</v>
+      </c>
+      <c r="T8" s="14">
+        <v>31</v>
+      </c>
+      <c r="U8" s="14">
+        <v>2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>10668631</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14">
+        <v>369830981</v>
+      </c>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>45680180</v>
+      </c>
+      <c r="H9">
+        <v>179465</v>
+      </c>
+      <c r="I9">
+        <v>17248</v>
+      </c>
+      <c r="J9">
+        <v>108886</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1103908</v>
+      </c>
+      <c r="M9">
+        <v>70601</v>
+      </c>
+      <c r="N9">
+        <f>H9+J9+L9</f>
+        <v>1392259</v>
+      </c>
+      <c r="O9">
+        <f>I9+K9+M9</f>
+        <v>87849</v>
+      </c>
+      <c r="P9">
+        <v>8088</v>
+      </c>
+      <c r="Q9">
+        <v>18572</v>
+      </c>
+      <c r="R9">
+        <v>417531</v>
+      </c>
+      <c r="S9">
+        <v>45635</v>
+      </c>
+      <c r="T9" s="14">
+        <v>43</v>
+      </c>
+      <c r="U9" s="14">
+        <v>8</v>
+      </c>
+      <c r="V9" s="14">
+        <v>11750515</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14">
+        <v>604374036</v>
+      </c>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>46709569</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14">
+        <v>604374036</v>
+      </c>
+      <c r="Z10" s="14">
+        <f>524466.68*1000</f>
+        <v>524466680.00000006</v>
+      </c>
+      <c r="AA10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>47379389</v>
+      </c>
+      <c r="N11">
+        <v>1708905</v>
+      </c>
+      <c r="O11">
+        <v>85844</v>
+      </c>
+      <c r="P11">
+        <v>9326</v>
+      </c>
+      <c r="Q11">
+        <v>19890</v>
+      </c>
+      <c r="R11">
+        <v>480166</v>
+      </c>
+      <c r="S11">
+        <v>55342</v>
+      </c>
+      <c r="T11" s="14">
+        <v>47</v>
+      </c>
+      <c r="U11" s="14">
+        <v>10</v>
+      </c>
+      <c r="V11" s="14">
+        <v>13725590</v>
+      </c>
+      <c r="W11" s="14">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14">
+        <f>703516.39*1000</f>
+        <v>703516390</v>
+      </c>
+      <c r="Z11" s="14">
+        <f>549471.38*1000</f>
+        <v>549471380</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>48037827</v>
+      </c>
+      <c r="C12" s="4">
+        <v>23467004</v>
+      </c>
+      <c r="D12" s="4">
+        <v>50655175450</v>
+      </c>
+      <c r="E12" s="4">
+        <v>47425445657</v>
+      </c>
+      <c r="F12" s="4">
+        <v>126858647</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2698427195</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12">
+        <v>1861360</v>
+      </c>
+      <c r="O12">
+        <v>83745</v>
+      </c>
+      <c r="P12">
+        <v>9977</v>
+      </c>
+      <c r="Q12">
+        <v>20764</v>
+      </c>
+      <c r="R12">
+        <v>503795</v>
+      </c>
+      <c r="S12">
+        <v>59361</v>
+      </c>
+      <c r="T12" s="14">
+        <v>53</v>
+      </c>
+      <c r="U12" s="14">
+        <v>10</v>
+      </c>
+      <c r="V12" s="14">
+        <v>14807363</v>
+      </c>
+      <c r="W12" s="14">
+        <v>137</v>
+      </c>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14">
+        <f>1000*755387.26</f>
+        <v>755387260</v>
+      </c>
+      <c r="Z12" s="14">
+        <f>578858.48*1000</f>
+        <v>578858480</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B13">
+        <v>48683861</v>
+      </c>
+      <c r="N13">
+        <v>1969168</v>
+      </c>
+      <c r="O13">
+        <v>78434</v>
+      </c>
+      <c r="P13">
+        <v>9851</v>
+      </c>
+      <c r="Q13">
+        <v>20027</v>
+      </c>
+      <c r="R13">
+        <v>499594</v>
+      </c>
+      <c r="S13">
+        <v>62714</v>
+      </c>
+      <c r="T13" s="14">
+        <v>46</v>
+      </c>
+      <c r="U13" s="14">
+        <v>9</v>
+      </c>
+      <c r="V13" s="14">
+        <v>14126095</v>
+      </c>
+      <c r="W13" s="14">
+        <v>205</v>
+      </c>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14">
+        <f>827301.68*1000</f>
+        <v>827301680</v>
+      </c>
+      <c r="Z13" s="14">
+        <f>1000*616441.68</f>
+        <v>616441680</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B14">
+        <v>49316712</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B15">
+        <v>49935858</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5579,49 +8032,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="44"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="43" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="G2" s="40" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="G2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="11">
         <v>2000</v>
       </c>
@@ -5736,7 +8189,7 @@
         <f t="shared" ref="B4:B12" si="2">B3*(1+$B$24)</f>
         <v>43520231.496352419</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="40" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1">
@@ -5789,7 +8242,7 @@
         <f t="shared" si="2"/>
         <v>43487564.531457625</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="40"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -5840,7 +8293,7 @@
         <f t="shared" si="2"/>
         <v>43454922.086896457</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="40"/>
       <c r="G6" s="1">
         <v>4</v>
       </c>
@@ -5891,7 +8344,7 @@
         <f t="shared" si="2"/>
         <v>43422304.144263558</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="40"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -5942,7 +8395,7 @@
         <f t="shared" si="2"/>
         <v>43389710.685167402</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="40"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -5993,7 +8446,7 @@
         <f t="shared" si="2"/>
         <v>43357141.691230267</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="40"/>
       <c r="G9" s="1">
         <v>7</v>
       </c>
@@ -6044,7 +8497,7 @@
         <f t="shared" si="2"/>
         <v>43324597.144088216</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="40"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -6095,7 +8548,7 @@
         <f t="shared" si="2"/>
         <v>43292077.025391109</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="40"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -6146,7 +8599,7 @@
         <f t="shared" si="2"/>
         <v>43259581.316802576</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="40"/>
       <c r="G12" s="1">
         <v>10</v>
       </c>
@@ -6197,7 +8650,7 @@
         <f>Q31</f>
         <v>43227110</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="40"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -6248,7 +8701,7 @@
         <f t="shared" ref="B14:B20" si="5">B13*(1+$M$31/100)</f>
         <v>43892807.494000003</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="40" t="s">
         <v>111</v>
       </c>
       <c r="G14" s="1">
@@ -6301,7 +8754,7 @@
         <f t="shared" si="5"/>
         <v>44568756.729407609</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="40"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -6352,7 +8805,7 @@
         <f t="shared" si="5"/>
         <v>45255115.583040491</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="40"/>
       <c r="G16" s="1">
         <v>14</v>
       </c>
@@ -6403,7 +8856,7 @@
         <f t="shared" si="5"/>
         <v>45952044.363019317</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="40"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -6454,7 +8907,7 @@
         <f t="shared" si="5"/>
         <v>46659705.846209817</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="40"/>
       <c r="G18" s="1">
         <v>16</v>
       </c>
@@ -6505,7 +8958,7 @@
         <f t="shared" si="5"/>
         <v>47378265.316241451</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="40"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -6556,7 +9009,7 @@
         <f t="shared" si="5"/>
         <v>48107890.602111571</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="40"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -6607,11 +9060,11 @@
         <f>B20*(1+$N$31/100)</f>
         <v>48776590.281480923</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="G21" s="41" t="s">
+      <c r="C21" s="40"/>
+      <c r="G21" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="7"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -6639,7 +9092,7 @@
         <f>B21*(1+$N$31/100)</f>
         <v>49454584.88639351</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="40"/>
       <c r="G22" s="1">
         <v>19</v>
       </c>
@@ -6690,7 +9143,7 @@
         <f>B22*(1+$N$31/100)</f>
         <v>50142003.616314381</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="40"/>
       <c r="G23" s="1">
         <v>20</v>
       </c>
@@ -7036,10 +9489,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="20">
         <v>43552.923000000003</v>
       </c>
@@ -7122,17 +9575,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7154,7 +9607,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -7168,7 +9621,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="14" t="s">
         <v>45</v>
       </c>
@@ -7449,7 +9902,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="16">
@@ -7478,7 +9931,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="16">
         <v>2001</v>
       </c>
@@ -7505,7 +9958,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="16">
         <v>2002</v>
       </c>
@@ -7532,7 +9985,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="16">
         <v>2003</v>
       </c>
@@ -7559,7 +10012,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="16">
         <v>2004</v>
       </c>
@@ -7586,7 +10039,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="16">
         <v>2005</v>
       </c>
@@ -7613,7 +10066,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="16">
         <v>2006</v>
       </c>
@@ -7640,7 +10093,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="16">
         <v>2007</v>
       </c>
@@ -7667,7 +10120,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="16">
         <v>2008</v>
       </c>
@@ -7694,7 +10147,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="16">
         <v>2009</v>
       </c>
@@ -7721,7 +10174,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="16">
         <v>2010</v>
       </c>
@@ -7748,7 +10201,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="16">
         <v>2011</v>
       </c>
@@ -7775,7 +10228,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="16">
         <v>2012</v>
       </c>

--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E6B85-86C8-49A2-A65B-0C588B5AD176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F41438C-7CE9-4BB9-9943-79632D4F3D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1695" windowWidth="21600" windowHeight="11505" tabRatio="671" firstSheet="12" activeTab="14" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView xWindow="5790" yWindow="2385" windowWidth="21600" windowHeight="11505" tabRatio="671" firstSheet="12" activeTab="15" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data jabar" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="Energi-Komersial" sheetId="7" r:id="rId12"/>
     <sheet name="Energi-Lainnya" sheetId="8" r:id="rId13"/>
     <sheet name="Industri, 2015" sheetId="15" r:id="rId14"/>
-    <sheet name="Jabar dalam Angka" sheetId="16" r:id="rId15"/>
+    <sheet name="Industri, 2014" sheetId="17" r:id="rId15"/>
+    <sheet name="INdustri" sheetId="18" r:id="rId16"/>
+    <sheet name="Jabar dalam Angka" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -262,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="188">
   <si>
     <t>Kabupaten/Regency</t>
   </si>
@@ -796,6 +798,36 @@
   </si>
   <si>
     <t>Laju PDRB (Harga 2010, % Per Tahun)</t>
+  </si>
+  <si>
+    <t>Nilai Output Kotor</t>
+  </si>
+  <si>
+    <t>Biaya Input</t>
+  </si>
+  <si>
+    <t>Nilai Tambah  (Harga Pasar)</t>
+  </si>
+  <si>
+    <t>Bahan Baku</t>
+  </si>
+  <si>
+    <t>Bahan Bakar, Pelumas</t>
+  </si>
+  <si>
+    <t>Listrik</t>
+  </si>
+  <si>
+    <t>Industri Makanan (Juta Rupiah)</t>
+  </si>
+  <si>
+    <t>Sewa Gedung, Mesin, dll</t>
+  </si>
+  <si>
+    <t>Industri Tembakau</t>
+  </si>
+  <si>
+    <t>Industri Pakaian</t>
   </si>
 </sst>
 </file>
@@ -1073,6 +1105,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,12 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1103,6 +1150,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,28 +1163,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4575,14 +4607,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="54"/>
       <c r="F1" t="s">
         <v>101</v>
       </c>
@@ -5308,1130 +5340,1130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0E5AFA-6774-49D4-9F86-9C5D12637256}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="51"/>
-    <col min="2" max="2" width="24.85546875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="25" style="51" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="24.85546875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="25" style="39" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:14" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="38">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="38">
         <v>1055</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="38">
         <v>106055</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="38">
         <v>72246122.290000007</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="38">
         <v>49475992.210000001</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="38">
         <v>22770130.079999998</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="40">
         <v>40739853.259999998</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="40">
         <v>2832305.8849999998</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="40">
         <v>2523273.4589999998</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="40">
         <v>316101.196</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="40">
         <v>3064458.406</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="40">
         <v>3380559.602</v>
       </c>
-      <c r="N2" s="55"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="38">
         <v>11</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="38">
         <v>96</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="38">
         <v>17158</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="38">
         <v>8273813.6100000003</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="38">
         <v>3519664.4249999998</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="38">
         <v>4754149.1869999999</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="40">
         <v>2546384.361</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="40">
         <v>136708.09299999999</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="40">
         <v>169296.01199999999</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="40">
         <v>38821.398999999998</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="40">
         <v>628454.56000000006</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="40">
         <v>667275.95900000003</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="38">
         <v>12</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="38">
         <v>9</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="38">
         <v>1478</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="38">
         <v>165278.64000000001</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="38">
         <v>53845.83</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="38">
         <v>111432.81</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="40">
         <v>48259.381999999998</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="40">
         <v>507.137</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="40">
         <v>315.36</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="40">
         <v>447.23700000000002</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="40">
         <v>4316.7139999999999</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="40">
         <v>4763.951</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="38">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="38">
         <v>1088</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="38">
         <v>261913</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="38">
         <v>191901569.88</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="38">
         <v>136688262.80000001</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="38">
         <v>55213307.049999997</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="40">
         <v>106226924</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="40">
         <v>4844760.0939999996</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="40">
         <v>16845928.920000002</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="40">
         <v>505929.80300000001</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="40">
         <v>8264720.0060000001</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="40">
         <v>8770649.8090000004</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="38">
         <v>14</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="38">
         <v>792</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="38">
         <v>308237</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="38">
         <v>67966121.480000004</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="38">
         <v>36977500.460000001</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="38">
         <v>30988621.02</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="40">
         <v>25770954.780000001</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="40">
         <v>1737878.037</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="40">
         <v>2875932.1690000002</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="40">
         <v>1255541.7990000001</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="40">
         <v>5337193.6840000004</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="40">
         <v>6592735.483</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="38">
         <v>15</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="38">
         <v>217</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="38">
         <v>114133</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="38">
         <v>28944889.18</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="38">
         <v>6813613.8729999997</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="38">
         <v>22131275.300000001</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="40">
         <v>5278807.9670000002</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="40">
         <v>268820.59499999997</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="40">
         <v>650807.397</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="40">
         <v>55551.146000000001</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="40">
         <v>559626.76800000004</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="40">
         <v>615177.91399999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="38">
         <v>16</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="38">
         <v>134</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="38">
         <v>24838</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="38">
         <v>4182718</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="38">
         <v>2409949</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="38">
         <v>1772770</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="41">
         <v>2032028.399</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="41">
         <v>93780.304000000004</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="41">
         <v>123766.724</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="41">
         <v>14209.503000000001</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="41">
         <v>146163.842</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="41">
         <v>160373.345</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="38">
         <v>17</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="38">
         <v>105</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="38">
         <v>26805</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="54">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="41">
         <v>19204551.41</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="41">
         <v>3867666.8909999998</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="41">
         <v>2283822.8939999999</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="41">
         <v>78771.990999999995</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="41">
         <v>1158831.9339999999</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="41">
         <v>1237603.925</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+      <c r="A10" s="38">
         <v>18</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="38">
         <v>95</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="38">
         <v>12900</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="38">
         <v>49787693</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="38">
         <v>26593645</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="38">
         <v>23194048</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="41">
         <v>2588472.952</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="41">
         <v>196359.07500000001</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="41">
         <v>828347.61100000003</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="41">
         <v>57096.451000000001</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="41">
         <v>314004.59299999999</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="41">
         <v>371101.04399999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="38">
         <v>19</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="38">
         <v>15</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="38">
         <v>1121</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="38">
         <v>9138129</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="38">
         <v>3984281</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="38">
         <v>5153848</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="41">
         <v>228367.027</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="41">
         <v>16751.103999999999</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="41">
         <v>5644.5540000000001</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="41">
         <v>6403.7529999999997</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="41">
         <v>10740.710999999999</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="41">
         <v>17144.464</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="38">
         <v>20</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="38">
         <v>305</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="38">
         <v>56816</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="38">
         <v>163974828</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="38">
         <v>110171293</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="38">
         <v>53803535</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="41">
         <v>77876445.849999994</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="41">
         <v>3366995.986</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="41">
         <v>12704461.59</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="41">
         <v>1098247.0120000001</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="41">
         <v>15125142.279999999</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="41">
         <v>16223389.300000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="38">
         <v>21</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="38">
         <v>76</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="38">
         <v>17793</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="38">
         <v>13347012</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="38">
         <v>6653139</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="38">
         <v>6693873</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="41">
         <v>3557162.963</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="41">
         <v>796940.30599999998</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="41">
         <v>301258.38099999999</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="41">
         <v>46683.519999999997</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="41">
         <v>1951094.24</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13" s="41">
         <v>1997777.76</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="38">
         <v>22</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="38">
         <v>482</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="38">
         <v>168930</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="38">
         <v>0</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="38">
         <v>0</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="38">
         <v>0</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="41">
         <v>55610127.700000003</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="41">
         <v>4586907.1500000004</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="41">
         <v>4135991.5019999999</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="41">
         <v>467095.97200000001</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="41">
         <v>5317320.8930000002</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="41">
         <v>5784416.8650000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+      <c r="A15" s="38">
         <v>23</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="38">
         <v>746</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="38">
         <v>73212</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="38">
         <v>119705692</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="38">
         <v>70117443</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="38">
         <v>49588249</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="41">
         <v>8500021.9609999992</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="41">
         <v>2556858.4079999998</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="41">
         <v>1177682.956</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="41">
         <v>50720.622000000003</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="41">
         <v>818403.66599999997</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="41">
         <v>869124.28799999994</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="A16" s="38">
         <v>24</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="38">
         <v>86</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="38">
         <v>13366</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="38">
         <v>28795098</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="38">
         <v>16564823</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="38">
         <v>12230275</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="41">
         <v>22190069.120000001</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="41">
         <v>440065.90600000002</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="41">
         <v>766064.65399999998</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="41">
         <v>80086.557000000001</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="41">
         <v>754530.20200000005</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16" s="41">
         <v>834616.75899999996</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="38">
         <v>25</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="38">
         <v>293</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="38">
         <v>45322</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="38">
         <v>110719139</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="38">
         <v>65588105</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="38">
         <v>45131034</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="41">
         <v>12450684.369999999</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="41">
         <v>669150.76699999999</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="41">
         <v>968209.82799999998</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="41">
         <v>966258.54099999997</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="41">
         <v>1510519.166</v>
       </c>
-      <c r="M17" s="54">
+      <c r="M17" s="41">
         <v>16564822.67</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="38">
         <v>26</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="38">
         <v>191</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="38">
         <v>77590</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="38">
         <v>0</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="38">
         <v>0</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="38">
         <v>0</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="41">
         <v>56732802.280000001</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="41">
         <v>739942.25899999996</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="41">
         <v>3722548.1310000001</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="41">
         <v>669401.68200000003</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="41">
         <v>3723410.5839999998</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="41">
         <v>65588104.939999998</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="38">
         <v>27</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="38">
         <v>139</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="38">
         <v>43485</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="38">
         <v>60125184</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="38">
         <v>28148439</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="38">
         <v>31976745</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="41">
         <v>22752740</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="41">
         <v>936541.446</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="41">
         <v>2406596.3790000002</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="41">
         <v>799239.57499999995</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="41">
         <v>1253321.1129999999</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="41">
         <v>28148438.510000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="38">
         <v>28</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="38">
         <v>172</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="38">
         <v>32630</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="38">
         <v>38530958</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="38">
         <v>15183535</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="38">
         <v>23347423</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="41">
         <v>10367254.18</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="41">
         <v>227815.905</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="41">
         <v>530874.05000000005</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="41">
         <v>66269.418999999994</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="41">
         <v>3991321.196</v>
       </c>
-      <c r="M20" s="54">
+      <c r="M20" s="41">
         <v>15183534.75</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="38">
         <v>29</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="38">
         <v>10</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="38">
         <v>0</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="38">
         <v>199790543</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="38">
         <v>92991681</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="38">
         <v>106798862</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="41">
         <v>65350406.479999997</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="41">
         <v>2327436.7969999998</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="41">
         <v>5039601.415</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="41">
         <v>565426.52899999998</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="41">
         <v>19708809.350000001</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="41">
         <v>92991680.569999993</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+      <c r="A22" s="38">
         <v>30</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="38">
         <v>233</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="38">
         <v>74059</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="38">
         <v>21099427</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="38">
         <v>10464566</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="38">
         <v>10634861</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="41">
         <v>7829314.6909999996</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="41">
         <v>411032.09100000001</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="41">
         <v>807386.43099999998</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="41">
         <v>628950.14</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="41">
         <v>787882.87100000004</v>
       </c>
-      <c r="M22" s="54">
+      <c r="M22" s="41">
         <v>10464566.220000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="38">
         <v>31</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="38">
         <v>129</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="38">
         <v>29350</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="38">
         <v>10011628</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="38">
         <v>5280536</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="38">
         <v>4731092</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="41">
         <v>3738679.6290000002</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="41">
         <v>196400.247</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="41">
         <v>407711.35499999998</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="41">
         <v>342018.21799999999</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="41">
         <v>595726.53700000001</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M23" s="41">
         <v>5280535.9859999996</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="38">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="38">
         <v>251</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="38">
         <v>31858</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="38">
         <v>0</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="38">
         <v>0</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="38">
         <v>0</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="41">
         <v>4259563.3760000002</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="41">
         <v>175390.073</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="41">
         <v>250364.48</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="41">
         <v>186701.245</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="41">
         <v>339721.91200000001</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="41">
         <v>5211741.0860000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="38">
         <v>33</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="38">
         <v>155</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="38">
         <v>51383</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="38">
         <v>16398625</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="38">
         <v>5211741</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="38">
         <v>11186884</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="41">
         <v>21035.981</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="41">
         <v>12383.26</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="41">
         <v>5396.2420000000002</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="41">
         <v>1845.67</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="41">
         <v>11347.286</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M25" s="41">
         <v>52008.438999999998</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="50">
+      <c r="B26" s="55"/>
+      <c r="C26" s="38">
         <v>6874</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="38">
         <v>1588155</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="38">
         <v>1215104469.0799999</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="38">
         <v>692892005.74000001</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="38">
         <v>522212414.44999999</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="40">
         <v>555900912</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="40">
         <v>31439398</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="40">
         <v>59531283</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="40">
         <v>8297819</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="40">
         <v>75377063</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="40">
         <v>730546474</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="50">
+      <c r="A27" s="38"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38">
         <f>SUM(C2:C25)</f>
         <v>6874</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="38">
         <f>SUM(D2:D25)</f>
         <v>1590432</v>
       </c>
-      <c r="E27" s="50">
-        <f t="shared" ref="E27:M27" si="0">SUM(E2:E25)</f>
+      <c r="E27" s="38">
+        <f t="shared" ref="E27:L27" si="0">SUM(E2:E25)</f>
         <v>1215104469.0799999</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="38">
         <f t="shared" si="0"/>
         <v>692892055.59800005</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="38">
         <f t="shared" si="0"/>
         <v>522212414.44700003</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="40">
         <f t="shared" si="0"/>
         <v>555900912.11899996</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="40">
         <f t="shared" si="0"/>
         <v>31439397.815999996</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="40">
         <f t="shared" si="0"/>
         <v>59531282.493999988</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="40">
         <f t="shared" si="0"/>
         <v>8297818.9800000004</v>
       </c>
-      <c r="L27" s="53">
+      <c r="L27" s="40">
         <f t="shared" si="0"/>
         <v>75377062.513999999</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="40">
         <f>SUM(M2:M25)</f>
         <v>287012143.63900006</v>
       </c>
@@ -6446,10 +6478,589 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ECA20E-4F80-4309-A9F0-05C900CD525C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365703D1-3E01-4C92-9EF8-322CFCFB3DEB}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="36">
+        <v>45807734</v>
+      </c>
+      <c r="C3" s="36">
+        <v>33172693</v>
+      </c>
+      <c r="D3">
+        <v>12635041</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="36">
+        <v>46660612</v>
+      </c>
+      <c r="C4" s="36">
+        <v>31108707</v>
+      </c>
+      <c r="D4" s="36">
+        <v>15551905</v>
+      </c>
+      <c r="E4" s="36">
+        <v>27355648</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1477774</v>
+      </c>
+      <c r="G4" s="36">
+        <v>808060</v>
+      </c>
+      <c r="H4" s="36">
+        <v>51411</v>
+      </c>
+      <c r="I4" s="36">
+        <v>1415814</v>
+      </c>
+      <c r="J4" s="36">
+        <v>31108707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="31">
+        <v>53137622</v>
+      </c>
+      <c r="C5" s="31">
+        <v>34804985</v>
+      </c>
+      <c r="D5" s="31">
+        <v>18332636</v>
+      </c>
+      <c r="E5" s="31">
+        <v>30280591</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1903005</v>
+      </c>
+      <c r="G5" s="31">
+        <v>810214</v>
+      </c>
+      <c r="H5" s="31">
+        <v>84006</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1727169</v>
+      </c>
+      <c r="J5" s="31">
+        <v>34804985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="31">
+        <v>59362628</v>
+      </c>
+      <c r="C6" s="31">
+        <v>40213915</v>
+      </c>
+      <c r="D6" s="31">
+        <v>19148713</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="31">
+        <v>72246122.290000007</v>
+      </c>
+      <c r="C7" s="31">
+        <v>49475992.210000001</v>
+      </c>
+      <c r="D7" s="31">
+        <v>22770130.079999998</v>
+      </c>
+      <c r="E7" s="31">
+        <v>40739853.259999998</v>
+      </c>
+      <c r="F7" s="31">
+        <v>2832305.8849999998</v>
+      </c>
+      <c r="G7" s="31">
+        <v>2523273.4589999998</v>
+      </c>
+      <c r="H7" s="31">
+        <v>316101.196</v>
+      </c>
+      <c r="I7" s="31">
+        <v>3064458.406</v>
+      </c>
+      <c r="J7" s="31">
+        <v>3380559.602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B11">
+        <v>2939183</v>
+      </c>
+      <c r="C11">
+        <v>1263620</v>
+      </c>
+      <c r="D11">
+        <v>1675563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B19">
+        <v>116489</v>
+      </c>
+      <c r="C19">
+        <v>73860</v>
+      </c>
+      <c r="D19">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B27">
+        <v>94208140</v>
+      </c>
+      <c r="C27">
+        <v>66856370</v>
+      </c>
+      <c r="D27">
+        <v>27351770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B35">
+        <v>34619786</v>
+      </c>
+      <c r="C35">
+        <v>16676216</v>
+      </c>
+      <c r="D35">
+        <v>17943571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B43">
+        <v>14493841</v>
+      </c>
+      <c r="C43">
+        <v>9270895</v>
+      </c>
+      <c r="D43">
+        <v>5222946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D20A539-ECC7-4EF4-8565-B3E0F3F6B1AB}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
@@ -6474,7 +7085,7 @@
     <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="49" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="56" t="s">
         <v>159</v>
       </c>
@@ -6499,14 +7110,14 @@
         <v>164</v>
       </c>
       <c r="S1" s="56"/>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="36"/>
+      <c r="W1" s="43"/>
       <c r="X1" s="2" t="s">
         <v>176</v>
       </c>
@@ -6520,62 +7131,62 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="37" t="s">
         <v>161</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -6599,23 +7210,23 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2008</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="37">
         <v>156482</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="37">
         <v>13594</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="37">
         <v>68344</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="37">
         <v>496857</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="37">
         <v>88847</v>
       </c>
       <c r="N3">
@@ -6626,16 +7237,16 @@
         <f t="shared" ref="O3:O6" si="1">I3+K3+M3</f>
         <v>102441</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="37">
         <v>10452</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="37">
         <v>16448</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="37">
         <v>284287</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="37">
         <v>13179</v>
       </c>
       <c r="T3" s="2">
@@ -6655,23 +7266,23 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2009</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="37">
         <v>162423</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="37">
         <v>14311</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="37">
         <v>70852</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="37">
         <v>540380</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="37">
         <v>89602</v>
       </c>
       <c r="N4">
@@ -6682,16 +7293,16 @@
         <f t="shared" si="1"/>
         <v>103913</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="37">
         <v>10622</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="37">
         <v>17493</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="37">
         <v>293429</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="37">
         <v>19401</v>
       </c>
       <c r="T4" s="2">
@@ -6855,11 +7466,11 @@
         <v>86373</v>
       </c>
       <c r="N7">
-        <f>H7+J7+L7</f>
+        <f t="shared" ref="N7:O9" si="2">H7+J7+L7</f>
         <v>1070433</v>
       </c>
       <c r="O7">
-        <f>I7+K7+M7</f>
+        <f t="shared" si="2"/>
         <v>86373</v>
       </c>
       <c r="P7">
@@ -6919,11 +7530,11 @@
         <v>70334</v>
       </c>
       <c r="N8">
-        <f>H8+J8+L8</f>
+        <f t="shared" si="2"/>
         <v>1223638</v>
       </c>
       <c r="O8">
-        <f>I8+K8+M8</f>
+        <f t="shared" si="2"/>
         <v>86250</v>
       </c>
       <c r="P8">
@@ -6983,11 +7594,11 @@
         <v>70601</v>
       </c>
       <c r="N9">
-        <f>H9+J9+L9</f>
+        <f t="shared" si="2"/>
         <v>1392259</v>
       </c>
       <c r="O9">
-        <f>I9+K9+M9</f>
+        <f t="shared" si="2"/>
         <v>87849</v>
       </c>
       <c r="P9">
@@ -7262,7 +7873,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
@@ -7273,12 +7884,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="37">
         <v>2008</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="37">
         <v>2009</v>
       </c>
     </row>
@@ -7339,14 +7950,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7413,7 +8024,7 @@
       <c r="H2" s="14">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7435,7 +8046,7 @@
       <c r="H3" s="14">
         <v>3.6429999999999997E-2</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -7455,7 +8066,7 @@
       <c r="H4" s="14">
         <v>4.4990000000000002E-2</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -7475,7 +8086,7 @@
       <c r="H5" s="14">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -7495,7 +8106,7 @@
       <c r="H6" s="14">
         <v>5.0310000000000001E-2</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -7515,7 +8126,7 @@
       <c r="H7" s="14">
         <v>5.6930000000000001E-2</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -7535,7 +8146,7 @@
       <c r="H8" s="14">
         <v>5.5010000000000003E-2</v>
       </c>
-      <c r="I8" s="36"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -7555,7 +8166,7 @@
       <c r="H9" s="14">
         <v>6.3450000000000006E-2</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -7575,7 +8186,7 @@
       <c r="H10" s="14">
         <v>6.0139999999999999E-2</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -7595,7 +8206,7 @@
       <c r="H11" s="14">
         <v>4.6289999999999998E-2</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -7615,7 +8226,7 @@
       <c r="H12" s="14">
         <v>6.2239999999999997E-2</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -7635,7 +8246,7 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7657,7 +8268,7 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -7677,7 +8288,7 @@
         <f>6.33/100</f>
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -7697,7 +8308,7 @@
         <f>5.09/100</f>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -7720,7 +8331,7 @@
         <f>5.05/100</f>
         <v>5.0499999999999996E-2</v>
       </c>
-      <c r="I17" s="38"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -7744,7 +8355,7 @@
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -7769,7 +8380,7 @@
         <f>5.33/100</f>
         <v>5.33E-2</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -7793,7 +8404,7 @@
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -7817,7 +8428,7 @@
         <f>5.07/100</f>
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -8032,49 +8643,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="52" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="41"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="45" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="G2" s="42" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="G2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="11">
         <v>2000</v>
       </c>
@@ -8189,7 +8800,7 @@
         <f t="shared" ref="B4:B12" si="2">B3*(1+$B$24)</f>
         <v>43520231.496352419</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="52" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1">
@@ -8242,7 +8853,7 @@
         <f t="shared" si="2"/>
         <v>43487564.531457625</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="52"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -8293,7 +8904,7 @@
         <f t="shared" si="2"/>
         <v>43454922.086896457</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="52"/>
       <c r="G6" s="1">
         <v>4</v>
       </c>
@@ -8344,7 +8955,7 @@
         <f t="shared" si="2"/>
         <v>43422304.144263558</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="52"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -8395,7 +9006,7 @@
         <f t="shared" si="2"/>
         <v>43389710.685167402</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="52"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -8446,7 +9057,7 @@
         <f t="shared" si="2"/>
         <v>43357141.691230267</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="52"/>
       <c r="G9" s="1">
         <v>7</v>
       </c>
@@ -8497,7 +9108,7 @@
         <f t="shared" si="2"/>
         <v>43324597.144088216</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="52"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -8548,7 +9159,7 @@
         <f t="shared" si="2"/>
         <v>43292077.025391109</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="52"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -8599,7 +9210,7 @@
         <f t="shared" si="2"/>
         <v>43259581.316802576</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="52"/>
       <c r="G12" s="1">
         <v>10</v>
       </c>
@@ -8650,7 +9261,7 @@
         <f>Q31</f>
         <v>43227110</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="52"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -8701,7 +9312,7 @@
         <f t="shared" ref="B14:B20" si="5">B13*(1+$M$31/100)</f>
         <v>43892807.494000003</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="52" t="s">
         <v>111</v>
       </c>
       <c r="G14" s="1">
@@ -8754,7 +9365,7 @@
         <f t="shared" si="5"/>
         <v>44568756.729407609</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="52"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -8805,7 +9416,7 @@
         <f t="shared" si="5"/>
         <v>45255115.583040491</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="52"/>
       <c r="G16" s="1">
         <v>14</v>
       </c>
@@ -8856,7 +9467,7 @@
         <f t="shared" si="5"/>
         <v>45952044.363019317</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="52"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -8907,7 +9518,7 @@
         <f t="shared" si="5"/>
         <v>46659705.846209817</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="52"/>
       <c r="G18" s="1">
         <v>16</v>
       </c>
@@ -8958,7 +9569,7 @@
         <f t="shared" si="5"/>
         <v>47378265.316241451</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="52"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -9009,7 +9620,7 @@
         <f t="shared" si="5"/>
         <v>48107890.602111571</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="52"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -9060,11 +9671,11 @@
         <f>B20*(1+$N$31/100)</f>
         <v>48776590.281480923</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="G21" s="43" t="s">
+      <c r="C21" s="52"/>
+      <c r="G21" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="43"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="7"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -9092,7 +9703,7 @@
         <f>B21*(1+$N$31/100)</f>
         <v>49454584.88639351</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="52"/>
       <c r="G22" s="1">
         <v>19</v>
       </c>
@@ -9143,7 +9754,7 @@
         <f>B22*(1+$N$31/100)</f>
         <v>50142003.616314381</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="52"/>
       <c r="G23" s="1">
         <v>20</v>
       </c>
@@ -9489,10 +10100,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="42"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="20">
         <v>43552.923000000003</v>
       </c>
@@ -9575,17 +10186,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9607,7 +10218,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -9621,7 +10232,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="14" t="s">
         <v>45</v>
       </c>
@@ -9902,7 +10513,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="16">
@@ -9931,7 +10542,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="16">
         <v>2001</v>
       </c>
@@ -9958,7 +10569,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="16">
         <v>2002</v>
       </c>
@@ -9985,7 +10596,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="16">
         <v>2003</v>
       </c>
@@ -10012,7 +10623,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="16">
         <v>2004</v>
       </c>
@@ -10039,7 +10650,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="16">
         <v>2005</v>
       </c>
@@ -10066,7 +10677,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="16">
         <v>2006</v>
       </c>
@@ -10093,7 +10704,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="16">
         <v>2007</v>
       </c>
@@ -10120,7 +10731,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="16">
         <v>2008</v>
       </c>
@@ -10147,7 +10758,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="16">
         <v>2009</v>
       </c>
@@ -10174,7 +10785,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="16">
         <v>2010</v>
       </c>
@@ -10201,7 +10812,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="16">
         <v>2011</v>
       </c>
@@ -10228,7 +10839,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="16">
         <v>2012</v>
       </c>

--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F41438C-7CE9-4BB9-9943-79632D4F3D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEEC710-611E-453B-A435-F429462957F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2385" windowWidth="21600" windowHeight="11505" tabRatio="671" firstSheet="12" activeTab="15" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView xWindow="4830" yWindow="2940" windowWidth="21600" windowHeight="11505" tabRatio="671" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="data jabar" sheetId="3" r:id="rId1"/>
-    <sheet name="PDRB" sheetId="13" r:id="rId2"/>
-    <sheet name="Penduduk" sheetId="1" r:id="rId3"/>
-    <sheet name="Listrik Per Capita" sheetId="9" r:id="rId4"/>
-    <sheet name="Kendaraan" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId7"/>
-    <sheet name="Regression" sheetId="10" r:id="rId8"/>
-    <sheet name="Energi-Household" sheetId="4" r:id="rId9"/>
-    <sheet name="Energi-Transportasi" sheetId="5" r:id="rId10"/>
-    <sheet name="Energi-Industri" sheetId="6" r:id="rId11"/>
-    <sheet name="Energi-Komersial" sheetId="7" r:id="rId12"/>
-    <sheet name="Energi-Lainnya" sheetId="8" r:id="rId13"/>
-    <sheet name="Industri, 2015" sheetId="15" r:id="rId14"/>
-    <sheet name="Industri, 2014" sheetId="17" r:id="rId15"/>
-    <sheet name="INdustri" sheetId="18" r:id="rId16"/>
-    <sheet name="Jabar dalam Angka" sheetId="16" r:id="rId17"/>
+    <sheet name="data jabar" sheetId="20" r:id="rId1"/>
+    <sheet name="Tenaga Listrik" sheetId="19" r:id="rId2"/>
+    <sheet name="data jabar old" sheetId="3" r:id="rId3"/>
+    <sheet name="PDRB" sheetId="13" r:id="rId4"/>
+    <sheet name="Penduduk" sheetId="1" r:id="rId5"/>
+    <sheet name="Listrik Per Capita" sheetId="9" r:id="rId6"/>
+    <sheet name="Kendaraan" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId9"/>
+    <sheet name="Regression" sheetId="10" r:id="rId10"/>
+    <sheet name="Energi-Household" sheetId="4" r:id="rId11"/>
+    <sheet name="Energi-Transportasi" sheetId="5" r:id="rId12"/>
+    <sheet name="Energi-Industri" sheetId="6" r:id="rId13"/>
+    <sheet name="Energi-Komersial" sheetId="7" r:id="rId14"/>
+    <sheet name="Energi-Lainnya" sheetId="8" r:id="rId15"/>
+    <sheet name="Industri, 2015" sheetId="15" r:id="rId16"/>
+    <sheet name="Industri, 2014" sheetId="17" r:id="rId17"/>
+    <sheet name="Industri" sheetId="18" r:id="rId18"/>
+    <sheet name="Jabar dalam Angka" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -264,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="203">
   <si>
     <t>Kabupaten/Regency</t>
   </si>
@@ -828,6 +830,51 @@
   </si>
   <si>
     <t>Industri Pakaian</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>kapasitas (KW)</t>
+  </si>
+  <si>
+    <t>workhour</t>
+  </si>
+  <si>
+    <t>average workhour</t>
+  </si>
+  <si>
+    <t>listrik siap jual (KWh)</t>
+  </si>
+  <si>
+    <t>own use</t>
+  </si>
+  <si>
+    <t>losses (susut)</t>
+  </si>
+  <si>
+    <t>persentase losses (susut)</t>
+  </si>
+  <si>
+    <t>listrik terjual (KWh)</t>
+  </si>
+  <si>
+    <t>listrik impor (KWh)</t>
+  </si>
+  <si>
+    <t>tren penjualan listrik</t>
+  </si>
+  <si>
+    <t>prov installed generation capacity</t>
+  </si>
+  <si>
+    <t>prov electricity demand stock</t>
+  </si>
+  <si>
+    <t>prov electricity generation demand demand</t>
+  </si>
+  <si>
+    <t>prov electricity generation</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1138,6 +1185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,12 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,6 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1187,6 +1235,325 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tenaga Listrik'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tren penjualan listrik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tenaga Listrik'!$B$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12551827432541476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7587525001406739E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9536422584374306E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0410419602340114E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3352631821027414E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7885333698709948E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4091440655612462E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2398623457347047E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9435412195813663E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6551370206178331E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9151938967848751E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6906532225411726E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8857480816547018E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.397835487636828E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.569266624504146E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9329464689512952E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7787485574295976E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9773315208089917E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E079-44DD-A988-832B4D85DE04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="802276639"/>
+        <c:axId val="879412159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="802276639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879412159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879412159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802276639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1556,7 +1923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2033,8 +2400,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2061,8 +2468,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2142,6 +2549,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2152,6 +2564,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2163,7 +2580,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2183,6 +2600,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2195,10 +2615,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2238,23 +2658,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2359,8 +2778,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2492,20 +2911,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2519,17 +2937,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3065,7 +3472,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514356</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285756</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD503E8-D020-4E9E-A3A7-A42E075EE3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3438,955 +4402,794 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B0A35-D970-4535-B6B0-E5AD36F4652D}">
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6F9148-E882-4C46-A558-22A049E238AA}">
+  <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1">
         <v>2000</v>
       </c>
-      <c r="C1" s="31">
+      <c r="C1">
         <v>2001</v>
       </c>
-      <c r="D1" s="31">
+      <c r="D1">
         <v>2002</v>
       </c>
-      <c r="E1" s="31">
+      <c r="E1">
         <v>2003</v>
       </c>
-      <c r="F1" s="31">
+      <c r="F1">
         <v>2004</v>
       </c>
-      <c r="G1" s="31">
+      <c r="G1">
         <v>2005</v>
       </c>
-      <c r="H1" s="31">
+      <c r="H1">
         <v>2006</v>
       </c>
-      <c r="I1" s="31">
+      <c r="I1">
         <v>2007</v>
       </c>
-      <c r="J1" s="31">
+      <c r="J1">
         <v>2008</v>
       </c>
-      <c r="K1" s="31">
+      <c r="K1">
         <v>2009</v>
       </c>
-      <c r="L1" s="31">
+      <c r="L1">
         <v>2010</v>
       </c>
-      <c r="M1" s="31">
+      <c r="M1">
         <v>2011</v>
       </c>
-      <c r="N1" s="31">
+      <c r="N1">
         <v>2012</v>
       </c>
-      <c r="O1" s="31">
+      <c r="O1">
         <v>2013</v>
       </c>
-      <c r="P1" s="31">
+      <c r="P1">
         <v>2014</v>
       </c>
-      <c r="Q1" s="31">
+      <c r="Q1">
         <v>2015</v>
       </c>
-      <c r="R1" s="31">
+      <c r="R1">
         <v>2016</v>
       </c>
-      <c r="S1" s="31">
+      <c r="S1">
         <v>2017</v>
       </c>
-      <c r="T1" s="31">
+      <c r="T1">
         <v>2018</v>
       </c>
-      <c r="U1" s="31">
+      <c r="U1">
         <v>2019</v>
       </c>
-      <c r="V1" s="31">
+      <c r="V1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>112</v>
+      <c r="W1">
+        <v>2021</v>
+      </c>
+      <c r="X1">
+        <v>2022</v>
+      </c>
+      <c r="Y1">
+        <v>2023</v>
+      </c>
+      <c r="Z1">
+        <v>2024</v>
+      </c>
+      <c r="AA1">
+        <v>2025</v>
+      </c>
+      <c r="AB1">
+        <v>2026</v>
+      </c>
+      <c r="AC1">
+        <v>2027</v>
+      </c>
+      <c r="AD1">
+        <v>2028</v>
+      </c>
+      <c r="AE1">
+        <v>2029</v>
+      </c>
+      <c r="AF1">
+        <v>2030</v>
+      </c>
+      <c r="AG1">
+        <v>2031</v>
+      </c>
+      <c r="AH1">
+        <v>2032</v>
+      </c>
+      <c r="AI1">
+        <v>2033</v>
+      </c>
+      <c r="AJ1">
+        <v>2034</v>
+      </c>
+      <c r="AK1">
+        <v>2035</v>
+      </c>
+      <c r="AL1">
+        <v>2036</v>
+      </c>
+      <c r="AM1">
+        <v>2037</v>
+      </c>
+      <c r="AN1">
+        <v>2038</v>
+      </c>
+      <c r="AO1">
+        <v>2039</v>
+      </c>
+      <c r="AP1">
+        <v>2040</v>
+      </c>
+      <c r="AQ1">
+        <v>2041</v>
+      </c>
+      <c r="AR1">
+        <v>2042</v>
+      </c>
+      <c r="AS1">
+        <v>2043</v>
+      </c>
+      <c r="AT1">
+        <v>2044</v>
+      </c>
+      <c r="AU1">
+        <v>2045</v>
+      </c>
+      <c r="AV1">
+        <v>2046</v>
+      </c>
+      <c r="AW1">
+        <v>2047</v>
+      </c>
+      <c r="AX1">
+        <v>2048</v>
+      </c>
+      <c r="AY1">
+        <v>2049</v>
+      </c>
+      <c r="AZ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
       </c>
       <c r="B2" s="31">
-        <v>539660831802368.88</v>
+        <f>'Tenaga Listrik'!B3</f>
+        <v>22070117000</v>
       </c>
       <c r="C2" s="31">
-        <v>558900841077390.44</v>
+        <f>'Tenaga Listrik'!C3</f>
+        <v>19299914000</v>
       </c>
       <c r="D2" s="31">
-        <v>583607396033510</v>
+        <f>'Tenaga Listrik'!D3</f>
+        <v>20025350000</v>
       </c>
       <c r="E2" s="31">
-        <v>611044825246918.13</v>
+        <f>'Tenaga Listrik'!E3</f>
+        <v>19966202280</v>
       </c>
       <c r="F2" s="31">
-        <v>641304755450308.25</v>
+        <f>'Tenaga Listrik'!F3</f>
+        <v>21771355006</v>
       </c>
       <c r="G2" s="31">
-        <v>677305457235871.88</v>
+        <f>'Tenaga Listrik'!G3</f>
+        <v>23368341194</v>
       </c>
       <c r="H2" s="31">
-        <v>714027667526391.63</v>
+        <f>'Tenaga Listrik'!H3</f>
+        <v>24721025422</v>
       </c>
       <c r="I2" s="31">
-        <v>758762756039639.63</v>
+        <f>'Tenaga Listrik'!I3</f>
+        <v>26552641810</v>
       </c>
       <c r="J2" s="31">
-        <v>803790956937286.13</v>
+        <f>'Tenaga Listrik'!J3</f>
+        <v>27943963690</v>
       </c>
       <c r="K2" s="31">
-        <v>840367173780809.75</v>
+        <f>'Tenaga Listrik'!K3</f>
+        <v>30443143601</v>
       </c>
       <c r="L2" s="31">
-        <v>892001573423794.25</v>
+        <f>'Tenaga Listrik'!L3</f>
+        <v>31555882213</v>
       </c>
       <c r="M2" s="31">
-        <v>964611393502064.5</v>
+        <f>'Tenaga Listrik'!M3</f>
+        <v>34053591476</v>
       </c>
       <c r="N2" s="31">
-        <v>1026685972275960.1</v>
+        <f>'Tenaga Listrik'!N3</f>
+        <v>37013071021</v>
       </c>
       <c r="O2" s="31">
-        <v>1091477006278855.5</v>
+        <f>'Tenaga Listrik'!O3</f>
+        <v>39931828559</v>
       </c>
       <c r="P2" s="31">
-        <v>1147278039134041</v>
-      </c>
-      <c r="Q2" s="34">
-        <v>1207000000000000</v>
-      </c>
-      <c r="R2" s="34">
-        <f>1268*1000000000000</f>
-        <v>1268000000000000</v>
-      </c>
-      <c r="S2" s="34">
-        <f>1333*1000000000000</f>
-        <v>1333000000000000</v>
-      </c>
-      <c r="T2" s="34">
-        <f>1400*1000000000000</f>
-        <v>1400000000000000</v>
-      </c>
-      <c r="U2" s="34">
-        <f>1472*1000000000000</f>
-        <v>1472000000000000</v>
-      </c>
-      <c r="V2" s="34">
-        <f>1547*1000000000000</f>
-        <v>1547000000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31">
-        <f>0.051</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="R3" s="31">
-        <f t="shared" ref="R3:V3" si="0">0.051</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="S3" s="31">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="T3" s="31">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="U3" s="31">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="V3" s="31">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>116</v>
+        <f>'Tenaga Listrik'!P3</f>
+        <v>42885919543</v>
+      </c>
+      <c r="Q2" s="31">
+        <f>'Tenaga Listrik'!Q3</f>
+        <v>43558913965</v>
+      </c>
+      <c r="R2" s="31">
+        <f>'Tenaga Listrik'!R3</f>
+        <v>46143241013</v>
+      </c>
+      <c r="S2" s="31">
+        <f>'Tenaga Listrik'!S3</f>
+        <v>47425445657</v>
+      </c>
+      <c r="T2" s="31">
+        <f>'Tenaga Listrik'!T3</f>
+        <v>49311712856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
       </c>
       <c r="B4" s="31">
-        <f>B2/B6</f>
-        <v>12390921.082435016</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="35">
-        <f>25.8*1000000</f>
-        <v>25800000</v>
-      </c>
-      <c r="R4" s="35">
-        <f>26.9*1000000</f>
-        <v>26900000</v>
-      </c>
-      <c r="S4" s="35">
-        <f>27.8*1000000</f>
-        <v>27800000</v>
-      </c>
-      <c r="T4" s="35">
-        <f>28.8*1000000</f>
-        <v>28800000</v>
-      </c>
-      <c r="U4" s="35">
-        <f>29.9*1000000</f>
-        <v>29900000</v>
-      </c>
-      <c r="V4" s="35">
-        <f>31.1*1000000</f>
-        <v>31100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>117</v>
+        <f>'Tenaga Listrik'!B2</f>
+        <v>8438286</v>
+      </c>
+      <c r="C4" s="31">
+        <f>'Tenaga Listrik'!C2</f>
+        <v>7951680</v>
+      </c>
+      <c r="D4" s="31">
+        <f>'Tenaga Listrik'!D2</f>
+        <v>8709487</v>
+      </c>
+      <c r="E4" s="31">
+        <f>'Tenaga Listrik'!E2</f>
+        <v>8716527.1180000007</v>
+      </c>
+      <c r="F4" s="31">
+        <f>'Tenaga Listrik'!F2</f>
+        <v>9070313.5830000006</v>
+      </c>
+      <c r="G4" s="31">
+        <f>'Tenaga Listrik'!G2</f>
+        <v>9706816.966</v>
+      </c>
+      <c r="H4" s="31">
+        <f>'Tenaga Listrik'!H2</f>
+        <v>9706816.966</v>
+      </c>
+      <c r="I4" s="31">
+        <f>'Tenaga Listrik'!I2</f>
+        <v>10907518.685000001</v>
+      </c>
+      <c r="J4" s="31">
+        <f>'Tenaga Listrik'!J2</f>
+        <v>11536602.516000001</v>
+      </c>
+      <c r="K4" s="31">
+        <f>'Tenaga Listrik'!K2</f>
+        <v>12628890.290999999</v>
+      </c>
+      <c r="L4" s="31">
+        <f>'Tenaga Listrik'!L2</f>
+        <v>12985322.311000001</v>
+      </c>
+      <c r="M4" s="31">
+        <f>'Tenaga Listrik'!M2</f>
+        <v>14398233.092</v>
+      </c>
+      <c r="N4" s="31">
+        <f>'Tenaga Listrik'!N2</f>
+        <v>16102578.913000001</v>
+      </c>
+      <c r="O4" s="31">
+        <f>'Tenaga Listrik'!O2</f>
+        <v>17998810.967999998</v>
+      </c>
+      <c r="P4" s="31">
+        <f>'Tenaga Listrik'!P2</f>
+        <v>19411289.638</v>
+      </c>
+      <c r="Q4" s="31">
+        <f>'Tenaga Listrik'!Q2</f>
+        <v>20657458.344999999</v>
+      </c>
+      <c r="R4" s="31">
+        <f>'Tenaga Listrik'!R2</f>
+        <v>22178498</v>
+      </c>
+      <c r="S4" s="31">
+        <f>'Tenaga Listrik'!S2</f>
+        <v>23467004</v>
+      </c>
+      <c r="T4" s="31">
+        <f>'Tenaga Listrik'!T2</f>
+        <v>24854595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="D5" s="31">
+        <f>'Tenaga Listrik'!D4</f>
+        <v>22951800530</v>
+      </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="31">
+        <f>'Tenaga Listrik'!F4</f>
+        <v>24156196900</v>
+      </c>
+      <c r="G5" s="31">
+        <f>'Tenaga Listrik'!G4</f>
+        <v>28405990641</v>
+      </c>
+      <c r="H5" s="31">
+        <f>'Tenaga Listrik'!H4</f>
+        <v>27271643895</v>
+      </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="L5" s="31">
+        <f>'Tenaga Listrik'!L4</f>
+        <v>34690926900</v>
+      </c>
+      <c r="M5" s="31">
+        <f>'Tenaga Listrik'!M4</f>
+        <v>37328871763</v>
+      </c>
+      <c r="N5" s="31">
+        <f>'Tenaga Listrik'!N4</f>
+        <v>40477158604</v>
+      </c>
+      <c r="O5" s="31">
+        <f>'Tenaga Listrik'!O4</f>
+        <v>43817826564</v>
+      </c>
+      <c r="P5" s="31">
+        <f>'Tenaga Listrik'!P4</f>
+        <v>46462450822</v>
+      </c>
       <c r="Q5" s="31">
-        <f>3.5/100</f>
-        <v>3.5000000000000003E-2</v>
+        <f>'Tenaga Listrik'!Q4</f>
+        <v>47105730839</v>
       </c>
       <c r="R5" s="31">
-        <f>3.7/100</f>
-        <v>3.7000000000000005E-2</v>
+        <f>'Tenaga Listrik'!R4</f>
+        <v>47105730839</v>
       </c>
       <c r="S5" s="31">
-        <f t="shared" ref="S5:T5" si="1">3.7/100</f>
-        <v>3.7000000000000005E-2</v>
+        <f>'Tenaga Listrik'!S4</f>
+        <v>50655175450</v>
       </c>
       <c r="T5" s="31">
-        <f t="shared" si="1"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="U5" s="31">
-        <f>3.8/100</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="V5" s="31">
-        <f>3.8/100</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9">
-        <f>Penduduk!P31</f>
-        <v>43552923</v>
-      </c>
-      <c r="C6" s="31">
-        <v>43520231.496352419</v>
-      </c>
-      <c r="D6" s="31">
-        <v>43487564.531457625</v>
-      </c>
-      <c r="E6" s="31">
-        <v>43454922.086896457</v>
-      </c>
-      <c r="F6" s="31">
-        <v>43422304.144263558</v>
-      </c>
-      <c r="G6" s="31">
-        <v>43389710.685167402</v>
-      </c>
-      <c r="H6" s="31">
-        <v>43357141.691230267</v>
-      </c>
-      <c r="I6" s="31">
-        <v>43324597.144088216</v>
-      </c>
-      <c r="J6" s="31">
-        <v>43292077.025391109</v>
-      </c>
-      <c r="K6" s="31">
-        <v>43259581.316802576</v>
-      </c>
-      <c r="L6" s="31">
-        <v>43227110</v>
-      </c>
-      <c r="M6" s="31">
-        <v>43892807.494000003</v>
-      </c>
-      <c r="N6" s="31">
-        <v>44568756.729407609</v>
-      </c>
-      <c r="O6" s="31">
-        <v>45255115.583040491</v>
-      </c>
-      <c r="P6" s="31">
-        <v>45952044.363019317</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>46659705.846209817</v>
-      </c>
-      <c r="R6" s="31">
-        <v>47378265.316241451</v>
-      </c>
-      <c r="S6" s="31">
-        <v>48107890.602111571</v>
-      </c>
-      <c r="T6" s="31">
-        <v>48776590.281480923</v>
-      </c>
-      <c r="U6" s="31">
-        <v>49454584.88639351</v>
-      </c>
-      <c r="V6" s="31">
-        <v>50142003.616314381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31">
-        <f>'Energi-Household'!C17</f>
-        <v>22142857.142857011</v>
-      </c>
-      <c r="R7" s="31">
-        <f>'Energi-Household'!C18</f>
-        <v>24285714.285714138</v>
-      </c>
-      <c r="S7" s="31">
-        <f>'Energi-Household'!C19</f>
-        <v>25714285.71428556</v>
-      </c>
-      <c r="T7" s="31">
-        <f>'Energi-Household'!C20</f>
-        <v>27857142.857142691</v>
-      </c>
-      <c r="U7" s="31">
-        <f>'Energi-Household'!C21</f>
-        <v>29999999.999999821</v>
-      </c>
-      <c r="V7" s="31">
-        <f>'Energi-Household'!C22</f>
-        <v>32142857.142856948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31">
-        <v>71928571.428571001</v>
-      </c>
-      <c r="R8" s="31">
-        <v>74857142.857142404</v>
-      </c>
-      <c r="S8" s="32">
-        <v>77857142.857142389</v>
-      </c>
-      <c r="T8" s="32">
-        <v>80785714.285713807</v>
-      </c>
-      <c r="U8" s="31">
-        <v>83714285.71428521</v>
-      </c>
-      <c r="V8" s="31">
-        <v>86714285.71428521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31">
-        <v>5214285.7142856829</v>
-      </c>
-      <c r="R9" s="31">
-        <v>5428571.4285713956</v>
-      </c>
-      <c r="S9" s="32">
-        <v>5714285.7142856801</v>
-      </c>
-      <c r="T9" s="32">
-        <v>5928571.4285713928</v>
-      </c>
-      <c r="U9" s="31">
-        <v>4999999.9999999693</v>
-      </c>
-      <c r="V9" s="31">
-        <v>6499999.9999999609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31">
-        <v>42857142.857142597</v>
-      </c>
-      <c r="R10" s="31">
-        <v>47857142.857142568</v>
-      </c>
-      <c r="S10" s="32">
-        <v>52857142.857142545</v>
-      </c>
-      <c r="T10" s="32">
-        <v>57142857.142856799</v>
-      </c>
-      <c r="U10" s="31">
-        <v>62142857.142856762</v>
-      </c>
-      <c r="V10" s="31">
-        <v>66428571.42857103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11">
-        <v>142857.142857142</v>
-      </c>
-      <c r="R11">
-        <v>142857.142857142</v>
-      </c>
-      <c r="S11" s="24">
-        <v>142857.142857142</v>
-      </c>
-      <c r="T11" s="24">
-        <v>142857.142857142</v>
-      </c>
-      <c r="U11">
-        <v>142857.142857142</v>
-      </c>
-      <c r="V11">
-        <v>142857.142857142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12">
-        <f>SUM(Q7:Q11)</f>
-        <v>142285714.28571343</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:U12" si="2">SUM(R7:R11)</f>
-        <v>152571428.57142764</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>162285714.28571332</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="2"/>
-        <v>171857142.85714182</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>180999999.9999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="33">
-        <v>11097301</v>
-      </c>
-      <c r="P13" s="33">
-        <v>13478289</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>14483932</v>
-      </c>
-      <c r="R13" s="33">
-        <v>15822611</v>
-      </c>
-      <c r="S13" s="33">
-        <v>17076805</v>
-      </c>
-      <c r="T13" s="33">
-        <v>16507843</v>
-      </c>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="33">
-        <v>217359</v>
-      </c>
-      <c r="P14" s="33">
-        <v>242210</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>252871</v>
-      </c>
-      <c r="R14" s="33">
-        <v>262510</v>
-      </c>
-      <c r="S14" s="33">
-        <v>269760</v>
-      </c>
-      <c r="T14" s="33">
-        <v>258300</v>
-      </c>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32">
-        <f>SUM(O13:O14)</f>
-        <v>11314660</v>
-      </c>
-      <c r="P15" s="32">
-        <f t="shared" ref="P15:T15" si="3">SUM(P13:P14)</f>
-        <v>13720499</v>
-      </c>
-      <c r="Q15" s="32">
-        <f t="shared" si="3"/>
-        <v>14736803</v>
-      </c>
-      <c r="R15" s="32">
-        <f t="shared" si="3"/>
-        <v>16085121</v>
-      </c>
-      <c r="S15" s="32">
-        <f t="shared" si="3"/>
-        <v>17346565</v>
-      </c>
-      <c r="T15" s="32">
-        <f t="shared" si="3"/>
-        <v>16766143</v>
-      </c>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32">
-        <f>O13/O$15</f>
-        <v>0.98078961276786047</v>
-      </c>
-      <c r="P16" s="32">
-        <f t="shared" ref="P16:T16" si="4">P13/P$15</f>
-        <v>0.98234685196216265</v>
-      </c>
-      <c r="Q16" s="32">
-        <f t="shared" si="4"/>
-        <v>0.98284085089554363</v>
-      </c>
-      <c r="R16" s="32">
-        <f t="shared" si="4"/>
-        <v>0.98367994869295672</v>
-      </c>
-      <c r="S16" s="32">
-        <f t="shared" si="4"/>
-        <v>0.98444879432902133</v>
-      </c>
-      <c r="T16" s="32">
-        <f t="shared" si="4"/>
-        <v>0.98459395222860735</v>
-      </c>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32">
-        <f>O14/O$15</f>
-        <v>1.9210387232139543E-2</v>
-      </c>
-      <c r="P17" s="32">
-        <f t="shared" ref="P17:T17" si="5">P14/P$15</f>
-        <v>1.76531480378374E-2</v>
-      </c>
-      <c r="Q17" s="32">
-        <f t="shared" si="5"/>
-        <v>1.7159149104456373E-2</v>
-      </c>
-      <c r="R17" s="32">
-        <f t="shared" si="5"/>
-        <v>1.6320051307043323E-2</v>
-      </c>
-      <c r="S17" s="32">
-        <f t="shared" si="5"/>
-        <v>1.5551205670978663E-2</v>
-      </c>
-      <c r="T17" s="32">
-        <f t="shared" si="5"/>
-        <v>1.5406047771392621E-2</v>
-      </c>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18">
-        <f>Q7/Q$12</f>
-        <v>0.15562248995983938</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ref="R18:U18" si="6">R7/R$12</f>
-        <v>0.15917602996254682</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
-        <v>0.1584507042253521</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="6"/>
-        <v>0.16209476309226933</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="6"/>
-        <v>0.16574585635359118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ref="Q19:U22" si="7">Q8/Q$12</f>
-        <v>0.50552208835341372</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="7"/>
-        <v>0.49063670411985022</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="7"/>
-        <v>0.47975352112676056</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="7"/>
-        <v>0.47007481296758108</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="7"/>
-        <v>0.46250986582478298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="7"/>
-        <v>3.6646586345381524E-2</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="7"/>
-        <v>3.5580524344569292E-2</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="7"/>
-        <v>3.5211267605633804E-2</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="7"/>
-        <v>3.4497090606816293E-2</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="7"/>
-        <v>2.7624309392265192E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21">
-        <f t="shared" si="7"/>
-        <v>0.3012048192771084</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="7"/>
-        <v>0.31367041198501872</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="7"/>
-        <v>0.32570422535211269</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="7"/>
-        <v>0.33250207813798838</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="7"/>
-        <v>0.34333070244672453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22">
-        <f t="shared" si="7"/>
-        <v>1.004016064257028E-3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="7"/>
-        <v>9.3632958801498128E-4</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="7"/>
-        <v>8.8028169014084498E-4</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="7"/>
-        <v>8.3125519534497092E-4</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="7"/>
-        <v>7.8926598263614849E-4</v>
+        <f>'Tenaga Listrik'!T4</f>
+        <v>52845359322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45A3900-6AAF-4816-BECA-657F1DE06748}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <f>Kendaraan!G16</f>
+        <v>0.24475309753584185</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6.33</v>
+      </c>
+      <c r="D3">
+        <f>PDRB!B15</f>
+        <v>24118312.199999999</v>
+      </c>
+      <c r="E3">
+        <f>Kendaraan!H16</f>
+        <v>217359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <f>Kendaraan!G17</f>
+        <v>0.29281742809876449</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5.09</v>
+      </c>
+      <c r="D4">
+        <f>PDRB!B16</f>
+        <v>24966855.23</v>
+      </c>
+      <c r="E4">
+        <f>Kendaraan!H17</f>
+        <v>242210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <f>Kendaraan!G18</f>
+        <v>0.31008489930617855</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5.05</v>
+      </c>
+      <c r="D5">
+        <f>PDRB!B17</f>
+        <v>25845503.77</v>
+      </c>
+      <c r="E5">
+        <f>Kendaraan!H18</f>
+        <v>252871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <f>Kendaraan!G19</f>
+        <v>0.33874452280335698</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.66</v>
+      </c>
+      <c r="D6">
+        <f>PDRB!B18</f>
+        <v>26923505.52</v>
+      </c>
+      <c r="E6">
+        <f>Kendaraan!H19</f>
+        <v>262510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <f>Kendaraan!G20</f>
+        <v>0.35548660295437989</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="D7">
+        <f>PDRB!B19</f>
+        <v>28042448.359999999</v>
+      </c>
+      <c r="E7">
+        <f>Kendaraan!H20</f>
+        <v>269760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <f>Kendaraan!G21</f>
+        <v>0.33966755144032923</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5.66</v>
+      </c>
+      <c r="D8">
+        <f>PDRB!B20</f>
+        <v>29161391.199999999</v>
+      </c>
+      <c r="E8">
+        <f>Kendaraan!H21</f>
+        <v>258300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74417665-4A29-4148-9826-9EA2B94C56CC}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="C17" s="18">
+        <f>B17*$C$23</f>
+        <v>22142857.142857011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" ref="C18:C22" si="0">B18*$C$23</f>
+        <v>24285714.285714138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
+        <v>25714285.71428556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>27857142.857142691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>29999999.999999821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>32142857.142856948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="17">
+        <v>7142857.1428570999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC392282-B2EF-4640-AC63-A4B49DFC3F25}">
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,12 +5392,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FD1409-3EFA-4B58-A3B0-295475135E2A}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,10 +5410,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="53" t="s">
         <v>41</v>
       </c>
@@ -4926,12 +5729,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE8203C-F06E-4D49-BB87-A4727B3FCA02}">
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,7 +5936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7615EE5-24BA-44E0-8856-54AFCFADF6B4}">
   <dimension ref="A2:C23"/>
   <sheetViews>
@@ -5142,6 +5945,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -5336,7 +6142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0E5AFA-6774-49D4-9F86-9C5D12637256}">
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -5356,9 +6162,10 @@
     <col min="7" max="7" width="25" style="39" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" style="39" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="39"/>
   </cols>
@@ -6477,7 +7284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ECA20E-4F80-4309-A9F0-05C900CD525C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6491,11 +7298,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365703D1-3E01-4C92-9EF8-322CFCFB3DEB}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -7056,7 +7863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D20A539-ECC7-4EF4-8565-B3E0F3F6B1AB}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
@@ -7966,6 +8773,1714 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E7AC3-49A4-468D-B448-34A3E71420FF}">
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>2000</v>
+      </c>
+      <c r="C1">
+        <v>2001</v>
+      </c>
+      <c r="D1">
+        <v>2002</v>
+      </c>
+      <c r="E1">
+        <v>2003</v>
+      </c>
+      <c r="F1">
+        <v>2004</v>
+      </c>
+      <c r="G1">
+        <v>2005</v>
+      </c>
+      <c r="H1">
+        <v>2006</v>
+      </c>
+      <c r="I1">
+        <v>2007</v>
+      </c>
+      <c r="J1">
+        <v>2008</v>
+      </c>
+      <c r="K1">
+        <v>2009</v>
+      </c>
+      <c r="L1">
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <v>2011</v>
+      </c>
+      <c r="N1">
+        <v>2012</v>
+      </c>
+      <c r="O1">
+        <v>2013</v>
+      </c>
+      <c r="P1">
+        <v>2014</v>
+      </c>
+      <c r="Q1">
+        <v>2015</v>
+      </c>
+      <c r="R1">
+        <v>2016</v>
+      </c>
+      <c r="S1">
+        <v>2017</v>
+      </c>
+      <c r="T1">
+        <v>2018</v>
+      </c>
+      <c r="U1">
+        <v>2019</v>
+      </c>
+      <c r="V1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8438286</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7951680</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8709487</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8716527.1180000007</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9070313.5830000006</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9706816.966</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9706816.966</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10907518.685000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>11536602.516000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>12628890.290999999</v>
+      </c>
+      <c r="L2" s="4">
+        <v>12985322.311000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>14398233.092</v>
+      </c>
+      <c r="N2" s="4">
+        <v>16102578.913000001</v>
+      </c>
+      <c r="O2" s="4">
+        <v>17998810.967999998</v>
+      </c>
+      <c r="P2" s="4">
+        <v>19411289.638</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>20657458.344999999</v>
+      </c>
+      <c r="R2" s="4">
+        <v>22178498</v>
+      </c>
+      <c r="S2" s="4">
+        <v>23467004</v>
+      </c>
+      <c r="T2" s="4">
+        <v>24854595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="4">
+        <v>22070117000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19299914000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>1000*20025350</f>
+        <v>20025350000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>19966202280</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21771355006</v>
+      </c>
+      <c r="G3" s="4">
+        <v>23368341194</v>
+      </c>
+      <c r="H3" s="4">
+        <v>24721025422</v>
+      </c>
+      <c r="I3" s="4">
+        <v>26552641810</v>
+      </c>
+      <c r="J3" s="4">
+        <v>27943963690</v>
+      </c>
+      <c r="K3" s="4">
+        <v>30443143601</v>
+      </c>
+      <c r="L3" s="4">
+        <v>31555882213</v>
+      </c>
+      <c r="M3" s="4">
+        <v>34053591476</v>
+      </c>
+      <c r="N3" s="4">
+        <v>37013071021</v>
+      </c>
+      <c r="O3" s="4">
+        <v>39931828559</v>
+      </c>
+      <c r="P3" s="4">
+        <v>42885919543</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>43558913965</v>
+      </c>
+      <c r="R3" s="4">
+        <v>46143241013</v>
+      </c>
+      <c r="S3" s="4">
+        <v>47425445657</v>
+      </c>
+      <c r="T3" s="4">
+        <v>49311712856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <f>1000*22951800.53</f>
+        <v>22951800530</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>24156196900</v>
+      </c>
+      <c r="G4" s="4">
+        <v>28405990641</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27271643895</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <v>34690926900</v>
+      </c>
+      <c r="M4" s="4">
+        <v>37328871763</v>
+      </c>
+      <c r="N4" s="4">
+        <v>40477158604</v>
+      </c>
+      <c r="O4" s="4">
+        <v>43817826564</v>
+      </c>
+      <c r="P4" s="4">
+        <v>46462450822</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>47105730839</v>
+      </c>
+      <c r="R4" s="4">
+        <v>47105730839</v>
+      </c>
+      <c r="S4" s="4">
+        <v>50655175450</v>
+      </c>
+      <c r="T4" s="4">
+        <v>52845359322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:C5" si="0">B4/B2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>D4/D2</f>
+        <v>2635.2643422052297</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:T5" si="1">E4/E2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>2663.2151886429438</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>2926.3960307995367</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>2809.5351947527388</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>2671.549159054216</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>2592.6008784884034</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>2513.7065821998121</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>2434.4845135550067</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
+        <v>2393.5787723781118</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="1"/>
+        <v>2280.3255876055841</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="1"/>
+        <v>2123.9369248088847</v>
+      </c>
+      <c r="S5" s="4">
+        <f>S4/S2</f>
+        <v>2158.5701971159165</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="1"/>
+        <v>2126.1806648629758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B5:T5)</f>
+        <v>1701.5444229720713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
+        <f>S10-S3</f>
+        <v>531302598</v>
+      </c>
+      <c r="T8" s="4">
+        <v>124770633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>2138406582</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2616222304</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2550618473</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>2463841649</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2401842059</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2530584275</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3148707698</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2855017848</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2858390527</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2858390527</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2698427195</v>
+      </c>
+      <c r="T9" s="4">
+        <v>2969406723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="57"/>
+      <c r="F10" s="13">
+        <f>F4-F9</f>
+        <v>22017790318</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" ref="G10:T10" si="2">G4-G9</f>
+        <v>25789768337</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="2"/>
+        <v>24721025422</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="2"/>
+        <v>32227085251</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="2"/>
+        <v>34927029704</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="2"/>
+        <v>37946574329</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="2"/>
+        <v>40669118866</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="2"/>
+        <v>43607432974</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="2"/>
+        <v>44247340312</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="2"/>
+        <v>44247340312</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="2"/>
+        <v>47956748255</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="2"/>
+        <v>49875952599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="e">
+        <f t="shared" ref="B11:K11" si="3">B9/B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>8.8524141066261969E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>9.2101076039356855E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>9.3526392571722891E-2</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:P11" si="4">L9/L4</f>
+        <v>7.1022652582972634E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>6.4342744518217171E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>6.2518822028923851E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>7.1859057030156895E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>6.144785299720236E-2</v>
+      </c>
+      <c r="Q11">
+        <f>Q9/Q4</f>
+        <v>6.0680313755655982E-2</v>
+      </c>
+      <c r="R11">
+        <f>R9/R4</f>
+        <v>6.0680313755655982E-2</v>
+      </c>
+      <c r="S11">
+        <f>S9/S4</f>
+        <v>5.3270513250191498E-2</v>
+      </c>
+      <c r="T11">
+        <f>T9/T4</f>
+        <v>5.6190491674144208E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="57"/>
+      <c r="L12">
+        <f t="shared" ref="L12:R12" si="5">(M11-L11)/L11</f>
+        <v>-9.4053204461092485E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>-2.8346979957886598E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0.14939876821274489</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>-0.14488367177689646</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-1.2490904142433142E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>-0.12211209940841514</v>
+      </c>
+      <c r="S12">
+        <f>(T11-S11)/S11</f>
+        <v>5.481415976299446E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="B13:S13" si="6">(C3-B3)/B3</f>
+        <v>-0.12551827432541476</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="6"/>
+        <v>3.7587525001406739E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>-2.9536422584374306E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>9.0410419602340114E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>7.3352631821027414E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>5.7885333698709948E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>7.4091440655612462E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>5.2398623457347047E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>8.9435412195813663E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>3.6551370206178331E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>7.9151938967848751E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>8.6906532225411726E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>7.8857480816547018E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>7.397835487636828E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>1.569266624504146E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>5.9329464689512952E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>2.7787485574295976E-2</v>
+      </c>
+      <c r="T13">
+        <f>(T3-S3)/S3</f>
+        <v>3.9773315208089917E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="57">
+        <f>(T3/B3)^(1/18)-1</f>
+        <v>4.5675588845098813E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="57"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="57"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="57"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="57"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="57"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="57"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="57"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="57"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="57"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="57"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B0A35-D970-4535-B6B0-E5AD36F4652D}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="31">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="31">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="31">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="31">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="31">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="31">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="31">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="31">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="31">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="31">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="31">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="31">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="31">
+        <v>2014</v>
+      </c>
+      <c r="Q1" s="31">
+        <v>2015</v>
+      </c>
+      <c r="R1" s="31">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="31">
+        <v>2017</v>
+      </c>
+      <c r="T1" s="31">
+        <v>2018</v>
+      </c>
+      <c r="U1" s="31">
+        <v>2019</v>
+      </c>
+      <c r="V1" s="31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="31">
+        <v>539660831802368.88</v>
+      </c>
+      <c r="C2" s="31">
+        <v>558900841077390.44</v>
+      </c>
+      <c r="D2" s="31">
+        <v>583607396033510</v>
+      </c>
+      <c r="E2" s="31">
+        <v>611044825246918.13</v>
+      </c>
+      <c r="F2" s="31">
+        <v>641304755450308.25</v>
+      </c>
+      <c r="G2" s="31">
+        <v>677305457235871.88</v>
+      </c>
+      <c r="H2" s="31">
+        <v>714027667526391.63</v>
+      </c>
+      <c r="I2" s="31">
+        <v>758762756039639.63</v>
+      </c>
+      <c r="J2" s="31">
+        <v>803790956937286.13</v>
+      </c>
+      <c r="K2" s="31">
+        <v>840367173780809.75</v>
+      </c>
+      <c r="L2" s="31">
+        <v>892001573423794.25</v>
+      </c>
+      <c r="M2" s="31">
+        <v>964611393502064.5</v>
+      </c>
+      <c r="N2" s="31">
+        <v>1026685972275960.1</v>
+      </c>
+      <c r="O2" s="31">
+        <v>1091477006278855.5</v>
+      </c>
+      <c r="P2" s="31">
+        <v>1147278039134041</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>1207000000000000</v>
+      </c>
+      <c r="R2" s="34">
+        <f>1268*1000000000000</f>
+        <v>1268000000000000</v>
+      </c>
+      <c r="S2" s="34">
+        <f>1333*1000000000000</f>
+        <v>1333000000000000</v>
+      </c>
+      <c r="T2" s="34">
+        <f>1400*1000000000000</f>
+        <v>1400000000000000</v>
+      </c>
+      <c r="U2" s="34">
+        <f>1472*1000000000000</f>
+        <v>1472000000000000</v>
+      </c>
+      <c r="V2" s="34">
+        <f>1547*1000000000000</f>
+        <v>1547000000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31">
+        <f>0.051</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R3" s="31">
+        <f t="shared" ref="R3:V3" si="0">0.051</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="T3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="U3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V3" s="31">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="31">
+        <f>B2/B6</f>
+        <v>12390921.082435016</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="35">
+        <f>25.8*1000000</f>
+        <v>25800000</v>
+      </c>
+      <c r="R4" s="35">
+        <f>26.9*1000000</f>
+        <v>26900000</v>
+      </c>
+      <c r="S4" s="35">
+        <f>27.8*1000000</f>
+        <v>27800000</v>
+      </c>
+      <c r="T4" s="35">
+        <f>28.8*1000000</f>
+        <v>28800000</v>
+      </c>
+      <c r="U4" s="35">
+        <f>29.9*1000000</f>
+        <v>29900000</v>
+      </c>
+      <c r="V4" s="35">
+        <f>31.1*1000000</f>
+        <v>31100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31">
+        <f>3.5/100</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R5" s="31">
+        <f>3.7/100</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="S5" s="31">
+        <f t="shared" ref="S5:T5" si="1">3.7/100</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="U5" s="31">
+        <f>3.8/100</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V5" s="31">
+        <f>3.8/100</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9">
+        <f>Penduduk!P31</f>
+        <v>43552923</v>
+      </c>
+      <c r="C6" s="31">
+        <v>43520231.496352419</v>
+      </c>
+      <c r="D6" s="31">
+        <v>43487564.531457625</v>
+      </c>
+      <c r="E6" s="31">
+        <v>43454922.086896457</v>
+      </c>
+      <c r="F6" s="31">
+        <v>43422304.144263558</v>
+      </c>
+      <c r="G6" s="31">
+        <v>43389710.685167402</v>
+      </c>
+      <c r="H6" s="31">
+        <v>43357141.691230267</v>
+      </c>
+      <c r="I6" s="31">
+        <v>43324597.144088216</v>
+      </c>
+      <c r="J6" s="31">
+        <v>43292077.025391109</v>
+      </c>
+      <c r="K6" s="31">
+        <v>43259581.316802576</v>
+      </c>
+      <c r="L6" s="31">
+        <v>43227110</v>
+      </c>
+      <c r="M6" s="31">
+        <v>43892807.494000003</v>
+      </c>
+      <c r="N6" s="31">
+        <v>44568756.729407609</v>
+      </c>
+      <c r="O6" s="31">
+        <v>45255115.583040491</v>
+      </c>
+      <c r="P6" s="31">
+        <v>45952044.363019317</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>46659705.846209817</v>
+      </c>
+      <c r="R6" s="31">
+        <v>47378265.316241451</v>
+      </c>
+      <c r="S6" s="31">
+        <v>48107890.602111571</v>
+      </c>
+      <c r="T6" s="31">
+        <v>48776590.281480923</v>
+      </c>
+      <c r="U6" s="31">
+        <v>49454584.88639351</v>
+      </c>
+      <c r="V6" s="31">
+        <v>50142003.616314381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31">
+        <f>'Energi-Household'!C17</f>
+        <v>22142857.142857011</v>
+      </c>
+      <c r="R7" s="31">
+        <f>'Energi-Household'!C18</f>
+        <v>24285714.285714138</v>
+      </c>
+      <c r="S7" s="31">
+        <f>'Energi-Household'!C19</f>
+        <v>25714285.71428556</v>
+      </c>
+      <c r="T7" s="31">
+        <f>'Energi-Household'!C20</f>
+        <v>27857142.857142691</v>
+      </c>
+      <c r="U7" s="31">
+        <f>'Energi-Household'!C21</f>
+        <v>29999999.999999821</v>
+      </c>
+      <c r="V7" s="31">
+        <f>'Energi-Household'!C22</f>
+        <v>32142857.142856948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31">
+        <v>71928571.428571001</v>
+      </c>
+      <c r="R8" s="31">
+        <v>74857142.857142404</v>
+      </c>
+      <c r="S8" s="32">
+        <v>77857142.857142389</v>
+      </c>
+      <c r="T8" s="32">
+        <v>80785714.285713807</v>
+      </c>
+      <c r="U8" s="31">
+        <v>83714285.71428521</v>
+      </c>
+      <c r="V8" s="31">
+        <v>86714285.71428521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31">
+        <v>5214285.7142856829</v>
+      </c>
+      <c r="R9" s="31">
+        <v>5428571.4285713956</v>
+      </c>
+      <c r="S9" s="32">
+        <v>5714285.7142856801</v>
+      </c>
+      <c r="T9" s="32">
+        <v>5928571.4285713928</v>
+      </c>
+      <c r="U9" s="31">
+        <v>4999999.9999999693</v>
+      </c>
+      <c r="V9" s="31">
+        <v>6499999.9999999609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31">
+        <v>42857142.857142597</v>
+      </c>
+      <c r="R10" s="31">
+        <v>47857142.857142568</v>
+      </c>
+      <c r="S10" s="32">
+        <v>52857142.857142545</v>
+      </c>
+      <c r="T10" s="32">
+        <v>57142857.142856799</v>
+      </c>
+      <c r="U10" s="31">
+        <v>62142857.142856762</v>
+      </c>
+      <c r="V10" s="31">
+        <v>66428571.42857103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11">
+        <v>142857.142857142</v>
+      </c>
+      <c r="R11">
+        <v>142857.142857142</v>
+      </c>
+      <c r="S11" s="24">
+        <v>142857.142857142</v>
+      </c>
+      <c r="T11" s="24">
+        <v>142857.142857142</v>
+      </c>
+      <c r="U11">
+        <v>142857.142857142</v>
+      </c>
+      <c r="V11">
+        <v>142857.142857142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12">
+        <f>SUM(Q7:Q11)</f>
+        <v>142285714.28571343</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:U12" si="2">SUM(R7:R11)</f>
+        <v>152571428.57142764</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>162285714.28571332</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>171857142.85714182</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>180999999.9999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="33">
+        <v>11097301</v>
+      </c>
+      <c r="P13" s="33">
+        <v>13478289</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>14483932</v>
+      </c>
+      <c r="R13" s="33">
+        <v>15822611</v>
+      </c>
+      <c r="S13" s="33">
+        <v>17076805</v>
+      </c>
+      <c r="T13" s="33">
+        <v>16507843</v>
+      </c>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="33">
+        <v>217359</v>
+      </c>
+      <c r="P14" s="33">
+        <v>242210</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>252871</v>
+      </c>
+      <c r="R14" s="33">
+        <v>262510</v>
+      </c>
+      <c r="S14" s="33">
+        <v>269760</v>
+      </c>
+      <c r="T14" s="33">
+        <v>258300</v>
+      </c>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32">
+        <f>SUM(O13:O14)</f>
+        <v>11314660</v>
+      </c>
+      <c r="P15" s="32">
+        <f t="shared" ref="P15:T15" si="3">SUM(P13:P14)</f>
+        <v>13720499</v>
+      </c>
+      <c r="Q15" s="32">
+        <f t="shared" si="3"/>
+        <v>14736803</v>
+      </c>
+      <c r="R15" s="32">
+        <f t="shared" si="3"/>
+        <v>16085121</v>
+      </c>
+      <c r="S15" s="32">
+        <f t="shared" si="3"/>
+        <v>17346565</v>
+      </c>
+      <c r="T15" s="32">
+        <f t="shared" si="3"/>
+        <v>16766143</v>
+      </c>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32">
+        <f>O13/O$15</f>
+        <v>0.98078961276786047</v>
+      </c>
+      <c r="P16" s="32">
+        <f t="shared" ref="P16:T16" si="4">P13/P$15</f>
+        <v>0.98234685196216265</v>
+      </c>
+      <c r="Q16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98284085089554363</v>
+      </c>
+      <c r="R16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98367994869295672</v>
+      </c>
+      <c r="S16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98444879432902133</v>
+      </c>
+      <c r="T16" s="32">
+        <f t="shared" si="4"/>
+        <v>0.98459395222860735</v>
+      </c>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32">
+        <f>O14/O$15</f>
+        <v>1.9210387232139543E-2</v>
+      </c>
+      <c r="P17" s="32">
+        <f t="shared" ref="P17:T17" si="5">P14/P$15</f>
+        <v>1.76531480378374E-2</v>
+      </c>
+      <c r="Q17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.7159149104456373E-2</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.6320051307043323E-2</v>
+      </c>
+      <c r="S17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.5551205670978663E-2</v>
+      </c>
+      <c r="T17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.5406047771392621E-2</v>
+      </c>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18">
+        <f>Q7/Q$12</f>
+        <v>0.15562248995983938</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:U18" si="6">R7/R$12</f>
+        <v>0.15917602996254682</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>0.1584507042253521</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>0.16209476309226933</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>0.16574585635359118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:U22" si="7">Q8/Q$12</f>
+        <v>0.50552208835341372</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>0.49063670411985022</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>0.47975352112676056</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>0.47007481296758108</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>0.46250986582478298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>3.6646586345381524E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>3.5580524344569292E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>3.5211267605633804E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="7"/>
+        <v>3.4497090606816293E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="7"/>
+        <v>2.7624309392265192E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>0.3012048192771084</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>0.31367041198501872</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>0.32570422535211269</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>0.33250207813798838</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>0.34333070244672453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>1.004016064257028E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>9.3632958801498128E-4</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>8.8028169014084498E-4</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
+        <v>8.3125519534497092E-4</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>7.8926598263614849E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8DEC12-6999-409A-8D85-86F04515CD52}">
   <dimension ref="A1:I53"/>
   <sheetViews>
@@ -8616,11 +11131,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726E26DA-E475-4901-97D5-99886A82E7A7}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
@@ -8643,49 +11158,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="47" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="51"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="50" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="G2" s="47" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="11">
         <v>2000</v>
       </c>
@@ -8800,7 +11315,7 @@
         <f t="shared" ref="B4:B12" si="2">B3*(1+$B$24)</f>
         <v>43520231.496352419</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="47" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="1">
@@ -8853,7 +11368,7 @@
         <f t="shared" si="2"/>
         <v>43487564.531457625</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="47"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -8904,7 +11419,7 @@
         <f t="shared" si="2"/>
         <v>43454922.086896457</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="47"/>
       <c r="G6" s="1">
         <v>4</v>
       </c>
@@ -8955,7 +11470,7 @@
         <f t="shared" si="2"/>
         <v>43422304.144263558</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="47"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -9006,7 +11521,7 @@
         <f t="shared" si="2"/>
         <v>43389710.685167402</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="47"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -9057,7 +11572,7 @@
         <f t="shared" si="2"/>
         <v>43357141.691230267</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="47"/>
       <c r="G9" s="1">
         <v>7</v>
       </c>
@@ -9108,7 +11623,7 @@
         <f t="shared" si="2"/>
         <v>43324597.144088216</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="47"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -9159,7 +11674,7 @@
         <f t="shared" si="2"/>
         <v>43292077.025391109</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="47"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -9210,7 +11725,7 @@
         <f t="shared" si="2"/>
         <v>43259581.316802576</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="47"/>
       <c r="G12" s="1">
         <v>10</v>
       </c>
@@ -9261,7 +11776,7 @@
         <f>Q31</f>
         <v>43227110</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="47"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -9312,7 +11827,7 @@
         <f t="shared" ref="B14:B20" si="5">B13*(1+$M$31/100)</f>
         <v>43892807.494000003</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="47" t="s">
         <v>111</v>
       </c>
       <c r="G14" s="1">
@@ -9365,7 +11880,7 @@
         <f t="shared" si="5"/>
         <v>44568756.729407609</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="47"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -9416,7 +11931,7 @@
         <f t="shared" si="5"/>
         <v>45255115.583040491</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="47"/>
       <c r="G16" s="1">
         <v>14</v>
       </c>
@@ -9467,7 +11982,7 @@
         <f t="shared" si="5"/>
         <v>45952044.363019317</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="47"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -9518,7 +12033,7 @@
         <f t="shared" si="5"/>
         <v>46659705.846209817</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="47"/>
       <c r="G18" s="1">
         <v>16</v>
       </c>
@@ -9569,7 +12084,7 @@
         <f t="shared" si="5"/>
         <v>47378265.316241451</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="47"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -9620,7 +12135,7 @@
         <f t="shared" si="5"/>
         <v>48107890.602111571</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="47"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -9671,11 +12186,11 @@
         <f>B20*(1+$N$31/100)</f>
         <v>48776590.281480923</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="G21" s="48" t="s">
+      <c r="C21" s="47"/>
+      <c r="G21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="7"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -9703,7 +12218,7 @@
         <f>B21*(1+$N$31/100)</f>
         <v>49454584.88639351</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="47"/>
       <c r="G22" s="1">
         <v>19</v>
       </c>
@@ -9754,7 +12269,7 @@
         <f>B22*(1+$N$31/100)</f>
         <v>50142003.616314381</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="47"/>
       <c r="G23" s="1">
         <v>20</v>
       </c>
@@ -10100,10 +12615,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="20">
         <v>43552.923000000003</v>
       </c>
@@ -10186,24 +12701,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2356E9-85E2-4B78-BD34-478B8D187C35}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -10218,7 +12733,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -10232,7 +12747,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="14" t="s">
         <v>45</v>
       </c>
@@ -10470,7 +12985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48D24F-507B-40B3-8A47-8941A3147ABC}">
   <dimension ref="A2:H24"/>
   <sheetViews>
@@ -10513,7 +13028,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="16">
@@ -10542,7 +13057,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="16">
         <v>2001</v>
       </c>
@@ -10569,7 +13084,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="16">
         <v>2002</v>
       </c>
@@ -10596,7 +13111,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="16">
         <v>2003</v>
       </c>
@@ -10623,7 +13138,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="16">
         <v>2004</v>
       </c>
@@ -10650,7 +13165,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="16">
         <v>2005</v>
       </c>
@@ -10677,7 +13192,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="16">
         <v>2006</v>
       </c>
@@ -10704,7 +13219,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="16">
         <v>2007</v>
       </c>
@@ -10731,7 +13246,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="16">
         <v>2008</v>
       </c>
@@ -10758,7 +13273,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="16">
         <v>2009</v>
       </c>
@@ -10785,7 +13300,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="16">
         <v>2010</v>
       </c>
@@ -10812,7 +13327,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="16">
         <v>2011</v>
       </c>
@@ -10839,7 +13354,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="16">
         <v>2012</v>
       </c>
@@ -11068,7 +13583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D76D3DD-0964-4553-86F6-F427E7A428CE}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -11366,7 +13881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81648377-F952-4481-8F8C-68E4E70349B7}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -11662,378 +14177,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45A3900-6AAF-4816-BECA-657F1DE06748}">
-  <dimension ref="A2:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2013</v>
-      </c>
-      <c r="B3">
-        <f>Kendaraan!G16</f>
-        <v>0.24475309753584185</v>
-      </c>
-      <c r="C3" s="12">
-        <v>6.33</v>
-      </c>
-      <c r="D3">
-        <f>PDRB!B15</f>
-        <v>24118312.199999999</v>
-      </c>
-      <c r="E3">
-        <f>Kendaraan!H16</f>
-        <v>217359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-      <c r="B4">
-        <f>Kendaraan!G17</f>
-        <v>0.29281742809876449</v>
-      </c>
-      <c r="C4" s="12">
-        <v>5.09</v>
-      </c>
-      <c r="D4">
-        <f>PDRB!B16</f>
-        <v>24966855.23</v>
-      </c>
-      <c r="E4">
-        <f>Kendaraan!H17</f>
-        <v>242210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5">
-        <f>Kendaraan!G18</f>
-        <v>0.31008489930617855</v>
-      </c>
-      <c r="C5" s="12">
-        <v>5.05</v>
-      </c>
-      <c r="D5">
-        <f>PDRB!B17</f>
-        <v>25845503.77</v>
-      </c>
-      <c r="E5">
-        <f>Kendaraan!H18</f>
-        <v>252871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2016</v>
-      </c>
-      <c r="B6">
-        <f>Kendaraan!G19</f>
-        <v>0.33874452280335698</v>
-      </c>
-      <c r="C6" s="12">
-        <v>5.66</v>
-      </c>
-      <c r="D6">
-        <f>PDRB!B18</f>
-        <v>26923505.52</v>
-      </c>
-      <c r="E6">
-        <f>Kendaraan!H19</f>
-        <v>262510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7">
-        <f>Kendaraan!G20</f>
-        <v>0.35548660295437989</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5.33</v>
-      </c>
-      <c r="D7">
-        <f>PDRB!B19</f>
-        <v>28042448.359999999</v>
-      </c>
-      <c r="E7">
-        <f>Kendaraan!H20</f>
-        <v>269760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8">
-        <f>Kendaraan!G21</f>
-        <v>0.33966755144032923</v>
-      </c>
-      <c r="C8" s="12">
-        <v>5.66</v>
-      </c>
-      <c r="D8">
-        <f>PDRB!B20</f>
-        <v>29161391.199999999</v>
-      </c>
-      <c r="E8">
-        <f>Kendaraan!H21</f>
-        <v>258300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74417665-4A29-4148-9826-9EA2B94C56CC}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="C17" s="18">
-        <f>B17*$C$23</f>
-        <v>22142857.142857011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" ref="C18:C22" si="0">B18*$C$23</f>
-        <v>24285714.285714138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" si="0"/>
-        <v>25714285.71428556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" si="0"/>
-        <v>27857142.857142691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="C21" s="18">
-        <f t="shared" si="0"/>
-        <v>29999999.999999821</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C22" s="18">
-        <f t="shared" si="0"/>
-        <v>32142857.142856948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="17">
-        <v>7142857.1428570999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\System Dynamics\system_dynamics_reference\Jabar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02FFE4-502A-415E-B551-15447F2942A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD179DA-A431-4406-A91E-E0872EF64A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="815" activeTab="8" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView minimized="1" xWindow="12570" yWindow="3600" windowWidth="13275" windowHeight="11505" tabRatio="815" activeTab="8" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data jabar" sheetId="20" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="pertamina" sheetId="32" r:id="rId3"/>
     <sheet name="energi demand" sheetId="28" r:id="rId4"/>
     <sheet name="PLN" sheetId="33" r:id="rId5"/>
-    <sheet name="Household" sheetId="34" r:id="rId6"/>
+    <sheet name="data emisi jabar Household" sheetId="34" r:id="rId6"/>
     <sheet name="Listrik,Industri" sheetId="27" r:id="rId7"/>
     <sheet name="Fuel, Industri" sheetId="23" r:id="rId8"/>
-    <sheet name="Listrik,Household" sheetId="26" r:id="rId9"/>
+    <sheet name="JDA Listrik,Household" sheetId="26" r:id="rId9"/>
     <sheet name="Listrik,Jabar" sheetId="29" r:id="rId10"/>
     <sheet name="Statistik Industri Besar Sedang" sheetId="21" r:id="rId11"/>
     <sheet name="Penduduk" sheetId="1" r:id="rId12"/>
@@ -51,12 +51,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -280,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="428">
   <si>
     <t>Kabupaten/Regency</t>
   </si>
@@ -1646,6 +1640,9 @@
   <si>
     <t>prov electricity demand[jabar,transportation]</t>
   </si>
+  <si>
+    <t>Jabar Dalam Angka</t>
+  </si>
 </sst>
 </file>
 
@@ -1661,7 +1658,7 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +1733,14 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1996,7 +2001,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2223,15 +2228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2247,6 +2243,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2261,6 +2266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7291,7 +7299,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7852,75 +7860,75 @@
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31">
-        <f>'Listrik,Household'!C30</f>
+        <f>'JDA Listrik,Household'!C31</f>
         <v>6616848206.932126</v>
       </c>
       <c r="D7" s="31">
-        <f>'Listrik,Household'!D30</f>
+        <f>'JDA Listrik,Household'!D31</f>
         <v>7016536000</v>
       </c>
       <c r="E7" s="31">
-        <f>'Listrik,Household'!E30</f>
+        <f>'JDA Listrik,Household'!E31</f>
         <v>7660942361</v>
       </c>
       <c r="F7" s="31">
-        <f>'Listrik,Household'!F30</f>
+        <f>'JDA Listrik,Household'!F31</f>
         <v>7494798000</v>
       </c>
       <c r="G7" s="31">
-        <f>'Listrik,Household'!G30</f>
+        <f>'JDA Listrik,Household'!G31</f>
         <v>8053599900</v>
       </c>
       <c r="H7" s="31">
-        <f>'Listrik,Household'!H30</f>
+        <f>'JDA Listrik,Household'!H31</f>
         <v>8631525480</v>
       </c>
       <c r="I7" s="31">
-        <f>'Listrik,Household'!I30</f>
+        <f>'JDA Listrik,Household'!I31</f>
         <v>9345913000</v>
       </c>
       <c r="J7" s="31">
-        <f>'Listrik,Household'!J30</f>
+        <f>'JDA Listrik,Household'!J31</f>
         <v>9877163690</v>
       </c>
       <c r="K7" s="31">
-        <f>'Listrik,Household'!K30</f>
+        <f>'JDA Listrik,Household'!K31</f>
         <v>10723598179</v>
       </c>
-      <c r="L7" s="31">
-        <f>'Listrik,Household'!L30</f>
+      <c r="L7" s="35">
+        <f>'JDA Listrik,Household'!L31</f>
         <v>11748726666</v>
       </c>
       <c r="M7" s="31">
-        <f>'Listrik,Household'!M30</f>
+        <f>'JDA Listrik,Household'!M31</f>
         <v>12552127051</v>
       </c>
       <c r="N7" s="31">
-        <f>'Listrik,Household'!N30</f>
+        <f>'JDA Listrik,Household'!N31</f>
         <v>13627774593</v>
       </c>
       <c r="O7" s="31">
-        <f>'Listrik,Household'!O30</f>
+        <f>'JDA Listrik,Household'!O31</f>
         <v>14486337716</v>
       </c>
       <c r="P7" s="31">
-        <f>'Listrik,Household'!P30</f>
+        <f>'JDA Listrik,Household'!P31</f>
         <v>15897744962</v>
       </c>
       <c r="Q7" s="31">
-        <f>'Listrik,Household'!Q30</f>
+        <f>'JDA Listrik,Household'!Q31</f>
         <v>18425554891</v>
       </c>
       <c r="R7" s="31">
-        <f>'Listrik,Household'!R30</f>
+        <f>'JDA Listrik,Household'!R31</f>
         <v>17464021000</v>
       </c>
       <c r="S7" s="31">
-        <f>'Listrik,Household'!S30</f>
+        <f>'JDA Listrik,Household'!S31</f>
         <v>17555203000</v>
       </c>
       <c r="T7" s="31">
-        <f>'Listrik,Household'!T30</f>
+        <f>'JDA Listrik,Household'!T31</f>
         <v>17933627000</v>
       </c>
       <c r="U7" s="31"/>
@@ -8052,79 +8060,79 @@
         <v>330</v>
       </c>
       <c r="B11" s="54">
-        <f>'Listrik,Household'!B30</f>
+        <f>'JDA Listrik,Household'!B31</f>
         <v>6239928106.0598679</v>
       </c>
       <c r="C11" s="54">
-        <f>'Listrik,Household'!C30</f>
+        <f>'JDA Listrik,Household'!C31</f>
         <v>6616848206.932126</v>
       </c>
       <c r="D11" s="54">
-        <f>'Listrik,Household'!D30</f>
+        <f>'JDA Listrik,Household'!D31</f>
         <v>7016536000</v>
       </c>
       <c r="E11" s="54">
-        <f>'Listrik,Household'!E30</f>
+        <f>'JDA Listrik,Household'!E31</f>
         <v>7660942361</v>
       </c>
       <c r="F11" s="54">
-        <f>'Listrik,Household'!F30</f>
+        <f>'JDA Listrik,Household'!F31</f>
         <v>7494798000</v>
       </c>
       <c r="G11" s="54">
-        <f>'Listrik,Household'!G30</f>
+        <f>'JDA Listrik,Household'!G31</f>
         <v>8053599900</v>
       </c>
       <c r="H11" s="54">
-        <f>'Listrik,Household'!H30</f>
+        <f>'JDA Listrik,Household'!H31</f>
         <v>8631525480</v>
       </c>
       <c r="I11" s="54">
-        <f>'Listrik,Household'!I30</f>
+        <f>'JDA Listrik,Household'!I31</f>
         <v>9345913000</v>
       </c>
       <c r="J11" s="54">
-        <f>'Listrik,Household'!J30</f>
+        <f>'JDA Listrik,Household'!J31</f>
         <v>9877163690</v>
       </c>
       <c r="K11" s="54">
-        <f>'Listrik,Household'!K30</f>
+        <f>'JDA Listrik,Household'!K31</f>
         <v>10723598179</v>
       </c>
       <c r="L11" s="54">
-        <f>'Listrik,Household'!L30</f>
+        <f>'JDA Listrik,Household'!L31</f>
         <v>11748726666</v>
       </c>
       <c r="M11" s="54">
-        <f>'Listrik,Household'!M30</f>
+        <f>'JDA Listrik,Household'!M31</f>
         <v>12552127051</v>
       </c>
       <c r="N11" s="54">
-        <f>'Listrik,Household'!N30</f>
+        <f>'JDA Listrik,Household'!N31</f>
         <v>13627774593</v>
       </c>
       <c r="O11" s="54">
-        <f>'Listrik,Household'!O30</f>
+        <f>'JDA Listrik,Household'!O31</f>
         <v>14486337716</v>
       </c>
       <c r="P11" s="54">
-        <f>'Listrik,Household'!P30</f>
+        <f>'JDA Listrik,Household'!P31</f>
         <v>15897744962</v>
       </c>
       <c r="Q11" s="54">
-        <f>'Listrik,Household'!Q30</f>
+        <f>'JDA Listrik,Household'!Q31</f>
         <v>18425554891</v>
       </c>
       <c r="R11" s="54">
-        <f>'Listrik,Household'!R30</f>
+        <f>'JDA Listrik,Household'!R31</f>
         <v>17464021000</v>
       </c>
       <c r="S11" s="54">
-        <f>'Listrik,Household'!S30</f>
+        <f>'JDA Listrik,Household'!S31</f>
         <v>17555203000</v>
       </c>
       <c r="T11" s="54">
-        <f>'Listrik,Household'!T30</f>
+        <f>'JDA Listrik,Household'!T31</f>
         <v>17933627000</v>
       </c>
       <c r="U11" s="54"/>
@@ -8706,87 +8714,87 @@
         <v>406</v>
       </c>
       <c r="L27">
-        <f>Household!L38</f>
+        <f>'data emisi jabar Household'!L38</f>
         <v>968540000</v>
       </c>
       <c r="M27">
-        <f>Household!M38</f>
+        <f>'data emisi jabar Household'!M38</f>
         <v>1108304000</v>
       </c>
       <c r="N27">
-        <f>Household!N38</f>
+        <f>'data emisi jabar Household'!N38</f>
         <v>1248068000</v>
       </c>
       <c r="O27">
-        <f>Household!O38</f>
+        <f>'data emisi jabar Household'!O38</f>
         <v>1387832000</v>
       </c>
       <c r="P27">
-        <f>Household!P38</f>
+        <f>'data emisi jabar Household'!P38</f>
         <v>1527596000</v>
       </c>
       <c r="Q27">
-        <f>Household!Q38</f>
+        <f>'data emisi jabar Household'!Q38</f>
         <v>1667360000</v>
       </c>
       <c r="R27">
-        <f>Household!R38</f>
+        <f>'data emisi jabar Household'!R38</f>
         <v>1701688000</v>
       </c>
       <c r="S27">
-        <f>Household!S38</f>
+        <f>'data emisi jabar Household'!S38</f>
         <v>1736016000</v>
       </c>
       <c r="T27">
-        <f>Household!T38</f>
+        <f>'data emisi jabar Household'!T38</f>
         <v>1770344000</v>
       </c>
       <c r="U27">
-        <f>Household!U38</f>
+        <f>'data emisi jabar Household'!U38</f>
         <v>1804672000</v>
       </c>
       <c r="V27">
-        <f>Household!V38</f>
+        <f>'data emisi jabar Household'!V38</f>
         <v>1839000000</v>
       </c>
       <c r="W27">
-        <f>Household!W38</f>
+        <f>'data emisi jabar Household'!W38</f>
         <v>1839000000</v>
       </c>
       <c r="X27">
-        <f>Household!X38</f>
+        <f>'data emisi jabar Household'!X38</f>
         <v>1839000000</v>
       </c>
       <c r="Y27">
-        <f>Household!Y38</f>
+        <f>'data emisi jabar Household'!Y38</f>
         <v>1839000000</v>
       </c>
       <c r="Z27">
-        <f>Household!Z38</f>
+        <f>'data emisi jabar Household'!Z38</f>
         <v>1839000000</v>
       </c>
       <c r="AA27">
-        <f>Household!AA38</f>
+        <f>'data emisi jabar Household'!AA38</f>
         <v>1839000000</v>
       </c>
       <c r="AB27">
-        <f>Household!AB38</f>
+        <f>'data emisi jabar Household'!AB38</f>
         <v>1839000000</v>
       </c>
       <c r="AC27">
-        <f>Household!AC38</f>
+        <f>'data emisi jabar Household'!AC38</f>
         <v>1839000000</v>
       </c>
       <c r="AD27">
-        <f>Household!AD38</f>
+        <f>'data emisi jabar Household'!AD38</f>
         <v>1839000000</v>
       </c>
       <c r="AE27">
-        <f>Household!AE38</f>
+        <f>'data emisi jabar Household'!AE38</f>
         <v>1839000000</v>
       </c>
       <c r="AF27">
-        <f>Household!AF38</f>
+        <f>'data emisi jabar Household'!AF38</f>
         <v>1839000000</v>
       </c>
     </row>
@@ -8795,87 +8803,87 @@
         <v>407</v>
       </c>
       <c r="L28">
-        <f>Household!L39</f>
+        <f>'data emisi jabar Household'!L39</f>
         <v>3500000</v>
       </c>
       <c r="M28">
-        <f>Household!M39</f>
+        <f>'data emisi jabar Household'!M39</f>
         <v>3100000</v>
       </c>
       <c r="N28">
-        <f>Household!N39</f>
+        <f>'data emisi jabar Household'!N39</f>
         <v>2700000</v>
       </c>
       <c r="O28">
-        <f>Household!O39</f>
+        <f>'data emisi jabar Household'!O39</f>
         <v>2300000</v>
       </c>
       <c r="P28">
-        <f>Household!P39</f>
+        <f>'data emisi jabar Household'!P39</f>
         <v>1900000</v>
       </c>
       <c r="Q28">
-        <f>Household!Q39</f>
+        <f>'data emisi jabar Household'!Q39</f>
         <v>1500000</v>
       </c>
       <c r="R28">
-        <f>Household!R39</f>
+        <f>'data emisi jabar Household'!R39</f>
         <v>1550000</v>
       </c>
       <c r="S28">
-        <f>Household!S39</f>
+        <f>'data emisi jabar Household'!S39</f>
         <v>1600000</v>
       </c>
       <c r="T28">
-        <f>Household!T39</f>
+        <f>'data emisi jabar Household'!T39</f>
         <v>1650000</v>
       </c>
       <c r="U28">
-        <f>Household!U39</f>
+        <f>'data emisi jabar Household'!U39</f>
         <v>1700000</v>
       </c>
       <c r="V28">
-        <f>Household!V39</f>
+        <f>'data emisi jabar Household'!V39</f>
         <v>1750000</v>
       </c>
       <c r="W28">
-        <f>Household!W39</f>
+        <f>'data emisi jabar Household'!W39</f>
         <v>1750000</v>
       </c>
       <c r="X28">
-        <f>Household!X39</f>
+        <f>'data emisi jabar Household'!X39</f>
         <v>1750000</v>
       </c>
       <c r="Y28">
-        <f>Household!Y39</f>
+        <f>'data emisi jabar Household'!Y39</f>
         <v>1750000</v>
       </c>
       <c r="Z28">
-        <f>Household!Z39</f>
+        <f>'data emisi jabar Household'!Z39</f>
         <v>1750000</v>
       </c>
       <c r="AA28">
-        <f>Household!AA39</f>
+        <f>'data emisi jabar Household'!AA39</f>
         <v>1750000</v>
       </c>
       <c r="AB28">
-        <f>Household!AB39</f>
+        <f>'data emisi jabar Household'!AB39</f>
         <v>1750000</v>
       </c>
       <c r="AC28">
-        <f>Household!AC39</f>
+        <f>'data emisi jabar Household'!AC39</f>
         <v>1750000</v>
       </c>
       <c r="AD28">
-        <f>Household!AD39</f>
+        <f>'data emisi jabar Household'!AD39</f>
         <v>1750000</v>
       </c>
       <c r="AE28">
-        <f>Household!AE39</f>
+        <f>'data emisi jabar Household'!AE39</f>
         <v>1750000</v>
       </c>
       <c r="AF28">
-        <f>Household!AF39</f>
+        <f>'data emisi jabar Household'!AF39</f>
         <v>1750000</v>
       </c>
     </row>
@@ -8884,87 +8892,87 @@
         <v>410</v>
       </c>
       <c r="L29">
-        <f>Household!L40</f>
+        <f>'data emisi jabar Household'!L40</f>
         <v>3057000000</v>
       </c>
       <c r="M29">
-        <f>Household!M40</f>
+        <f>'data emisi jabar Household'!M40</f>
         <v>3498000000</v>
       </c>
       <c r="N29">
-        <f>Household!N40</f>
+        <f>'data emisi jabar Household'!N40</f>
         <v>3939000000</v>
       </c>
       <c r="O29">
-        <f>Household!O40</f>
+        <f>'data emisi jabar Household'!O40</f>
         <v>4380000000</v>
       </c>
       <c r="P29">
-        <f>Household!P40</f>
+        <f>'data emisi jabar Household'!P40</f>
         <v>4821000000</v>
       </c>
       <c r="Q29">
-        <f>Household!Q40</f>
+        <f>'data emisi jabar Household'!Q40</f>
         <v>5262000000</v>
       </c>
       <c r="R29">
-        <f>Household!R40</f>
+        <f>'data emisi jabar Household'!R40</f>
         <v>5371000000</v>
       </c>
       <c r="S29">
-        <f>Household!S40</f>
+        <f>'data emisi jabar Household'!S40</f>
         <v>5479000000</v>
       </c>
       <c r="T29">
-        <f>Household!T40</f>
+        <f>'data emisi jabar Household'!T40</f>
         <v>5587000000</v>
       </c>
       <c r="U29">
-        <f>Household!U40</f>
+        <f>'data emisi jabar Household'!U40</f>
         <v>5696000000</v>
       </c>
       <c r="V29">
-        <f>Household!V40</f>
+        <f>'data emisi jabar Household'!V40</f>
         <v>5804000000</v>
       </c>
       <c r="W29">
-        <f>Household!W40</f>
+        <f>'data emisi jabar Household'!W40</f>
         <v>6036000000</v>
       </c>
       <c r="X29">
-        <f>Household!X40</f>
+        <f>'data emisi jabar Household'!X40</f>
         <v>6160000000</v>
       </c>
       <c r="Y29">
-        <f>Household!Y40</f>
+        <f>'data emisi jabar Household'!Y40</f>
         <v>6284000000</v>
       </c>
       <c r="Z29">
-        <f>Household!Z40</f>
+        <f>'data emisi jabar Household'!Z40</f>
         <v>6408000000</v>
       </c>
       <c r="AA29">
-        <f>Household!AA40</f>
+        <f>'data emisi jabar Household'!AA40</f>
         <v>6423000000</v>
       </c>
       <c r="AB29">
-        <f>Household!AB40</f>
+        <f>'data emisi jabar Household'!AB40</f>
         <v>6555000000</v>
       </c>
       <c r="AC29">
-        <f>Household!AC40</f>
+        <f>'data emisi jabar Household'!AC40</f>
         <v>6686000000</v>
       </c>
       <c r="AD29">
-        <f>Household!AD40</f>
+        <f>'data emisi jabar Household'!AD40</f>
         <v>6818000000</v>
       </c>
       <c r="AE29">
-        <f>Household!AE40</f>
+        <f>'data emisi jabar Household'!AE40</f>
         <v>6949000000</v>
       </c>
       <c r="AF29">
-        <f>Household!AF40</f>
+        <f>'data emisi jabar Household'!AF40</f>
         <v>7081000000</v>
       </c>
     </row>
@@ -8973,87 +8981,87 @@
         <v>411</v>
       </c>
       <c r="L30">
-        <f>Household!L41</f>
+        <f>'data emisi jabar Household'!L41</f>
         <v>1548000000</v>
       </c>
       <c r="M30">
-        <f>Household!M41</f>
+        <f>'data emisi jabar Household'!M41</f>
         <v>1364000000</v>
       </c>
       <c r="N30">
-        <f>Household!N41</f>
+        <f>'data emisi jabar Household'!N41</f>
         <v>1188000000</v>
       </c>
       <c r="O30">
-        <f>Household!O41</f>
+        <f>'data emisi jabar Household'!O41</f>
         <v>1012000000</v>
       </c>
       <c r="P30">
-        <f>Household!P41</f>
+        <f>'data emisi jabar Household'!P41</f>
         <v>836000000</v>
       </c>
       <c r="Q30">
-        <f>Household!Q41</f>
+        <f>'data emisi jabar Household'!Q41</f>
         <v>660000000</v>
       </c>
       <c r="R30">
-        <f>Household!R41</f>
+        <f>'data emisi jabar Household'!R41</f>
         <v>682000000</v>
       </c>
       <c r="S30">
-        <f>Household!S41</f>
+        <f>'data emisi jabar Household'!S41</f>
         <v>704000000</v>
       </c>
       <c r="T30">
-        <f>Household!T41</f>
+        <f>'data emisi jabar Household'!T41</f>
         <v>726000000</v>
       </c>
       <c r="U30">
-        <f>Household!U41</f>
+        <f>'data emisi jabar Household'!U41</f>
         <v>748000000</v>
       </c>
       <c r="V30">
-        <f>Household!V41</f>
+        <f>'data emisi jabar Household'!V41</f>
         <v>770000000</v>
       </c>
       <c r="W30">
-        <f>Household!W41</f>
+        <f>'data emisi jabar Household'!W41</f>
         <v>792000000</v>
       </c>
       <c r="X30">
-        <f>Household!X41</f>
+        <f>'data emisi jabar Household'!X41</f>
         <v>814000000</v>
       </c>
       <c r="Y30">
-        <f>Household!Y41</f>
+        <f>'data emisi jabar Household'!Y41</f>
         <v>836000000</v>
       </c>
       <c r="Z30">
-        <f>Household!Z41</f>
+        <f>'data emisi jabar Household'!Z41</f>
         <v>858000000</v>
       </c>
       <c r="AA30">
-        <f>Household!AA41</f>
+        <f>'data emisi jabar Household'!AA41</f>
         <v>880000000</v>
       </c>
       <c r="AB30">
-        <f>Household!AB41</f>
+        <f>'data emisi jabar Household'!AB41</f>
         <v>1637000000</v>
       </c>
       <c r="AC30">
-        <f>Household!AC41</f>
+        <f>'data emisi jabar Household'!AC41</f>
         <v>2393000000</v>
       </c>
       <c r="AD30">
-        <f>Household!AD41</f>
+        <f>'data emisi jabar Household'!AD41</f>
         <v>3150000000</v>
       </c>
       <c r="AE30">
-        <f>Household!AE41</f>
+        <f>'data emisi jabar Household'!AE41</f>
         <v>3907000000</v>
       </c>
       <c r="AF30">
-        <f>Household!AF41</f>
+        <f>'data emisi jabar Household'!AF41</f>
         <v>4664000000</v>
       </c>
     </row>
@@ -9062,87 +9070,87 @@
         <v>414</v>
       </c>
       <c r="L31">
-        <f>Household!L42</f>
+        <f>'data emisi jabar Household'!L42</f>
         <v>1511000</v>
       </c>
       <c r="M31">
-        <f>Household!M42</f>
+        <f>'data emisi jabar Household'!M42</f>
         <v>1547000</v>
       </c>
       <c r="N31">
-        <f>Household!N42</f>
+        <f>'data emisi jabar Household'!N42</f>
         <v>1582000</v>
       </c>
       <c r="O31">
-        <f>Household!O42</f>
+        <f>'data emisi jabar Household'!O42</f>
         <v>1618000</v>
       </c>
       <c r="P31">
-        <f>Household!P42</f>
+        <f>'data emisi jabar Household'!P42</f>
         <v>1653000</v>
       </c>
       <c r="Q31">
-        <f>Household!Q42</f>
+        <f>'data emisi jabar Household'!Q42</f>
         <v>1689000</v>
       </c>
       <c r="R31">
-        <f>Household!R42</f>
+        <f>'data emisi jabar Household'!R42</f>
         <v>1724000</v>
       </c>
       <c r="S31">
-        <f>Household!S42</f>
+        <f>'data emisi jabar Household'!S42</f>
         <v>1760000</v>
       </c>
       <c r="T31">
-        <f>Household!T42</f>
+        <f>'data emisi jabar Household'!T42</f>
         <v>1795000</v>
       </c>
       <c r="U31">
-        <f>Household!U42</f>
+        <f>'data emisi jabar Household'!U42</f>
         <v>1831000</v>
       </c>
       <c r="V31">
-        <f>Household!V42</f>
+        <f>'data emisi jabar Household'!V42</f>
         <v>1867000</v>
       </c>
       <c r="W31">
-        <f>Household!W42</f>
+        <f>'data emisi jabar Household'!W42</f>
         <v>1902000</v>
       </c>
       <c r="X31">
-        <f>Household!X42</f>
+        <f>'data emisi jabar Household'!X42</f>
         <v>1938000</v>
       </c>
       <c r="Y31">
-        <f>Household!Y42</f>
+        <f>'data emisi jabar Household'!Y42</f>
         <v>1973000</v>
       </c>
       <c r="Z31">
-        <f>Household!Z42</f>
+        <f>'data emisi jabar Household'!Z42</f>
         <v>2009000</v>
       </c>
       <c r="AA31">
-        <f>Household!AA42</f>
+        <f>'data emisi jabar Household'!AA42</f>
         <v>2044000</v>
       </c>
       <c r="AB31">
-        <f>Household!AB42</f>
+        <f>'data emisi jabar Household'!AB42</f>
         <v>2080000</v>
       </c>
       <c r="AC31">
-        <f>Household!AC42</f>
+        <f>'data emisi jabar Household'!AC42</f>
         <v>2115000</v>
       </c>
       <c r="AD31">
-        <f>Household!AD42</f>
+        <f>'data emisi jabar Household'!AD42</f>
         <v>2151000</v>
       </c>
       <c r="AE31">
-        <f>Household!AE42</f>
+        <f>'data emisi jabar Household'!AE42</f>
         <v>2187000</v>
       </c>
       <c r="AF31">
-        <f>Household!AF42</f>
+        <f>'data emisi jabar Household'!AF42</f>
         <v>2222000</v>
       </c>
     </row>
@@ -10766,45 +10774,45 @@
       <c r="A1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="105" t="s">
         <v>397</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="108" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="107" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="107" t="s">
         <v>336</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="107"/>
+      <c r="O1" s="104"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="106" t="s">
+      <c r="R1" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
       <c r="Z1" s="98" t="s">
         <v>42</v>
       </c>
@@ -10813,15 +10821,15 @@
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
-      <c r="B2" s="109"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="95"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="H2" s="104" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="H2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="104"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="11">
         <v>2000</v>
       </c>
@@ -11976,10 +11984,10 @@
         <f t="shared" si="3"/>
         <v>12900861.450007658</v>
       </c>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="105"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="7"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -12440,10 +12448,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H31" s="104" t="s">
+      <c r="H31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="104"/>
+      <c r="I31" s="109"/>
       <c r="J31" s="20">
         <v>43552.923000000003</v>
       </c>
@@ -12772,6 +12780,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="K1:M1"/>
@@ -12779,12 +12793,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19292,21 +19300,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="B27:Q27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19535,7 +19543,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19645,88 +19653,88 @@
       <c r="A2" t="s">
         <v>330</v>
       </c>
-      <c r="L2">
-        <f>Household!L44</f>
+      <c r="L2" s="45">
+        <f>'data emisi jabar Household'!L44</f>
         <v>2084200000</v>
       </c>
       <c r="M2">
-        <f>Household!M44</f>
+        <f>'data emisi jabar Household'!M44</f>
         <v>2133240000</v>
       </c>
       <c r="N2">
-        <f>Household!N44</f>
+        <f>'data emisi jabar Household'!N44</f>
         <v>2182280000</v>
       </c>
       <c r="O2">
-        <f>Household!O44</f>
+        <f>'data emisi jabar Household'!O44</f>
         <v>2231320000</v>
       </c>
       <c r="P2">
-        <f>Household!P44</f>
+        <f>'data emisi jabar Household'!P44</f>
         <v>2280360000</v>
       </c>
       <c r="Q2">
-        <f>Household!Q44</f>
+        <f>'data emisi jabar Household'!Q44</f>
         <v>2329400000</v>
       </c>
       <c r="R2">
-        <f>Household!R44</f>
+        <f>'data emisi jabar Household'!R44</f>
         <v>2378440000</v>
       </c>
       <c r="S2">
-        <f>Household!S44</f>
+        <f>'data emisi jabar Household'!S44</f>
         <v>2427480000</v>
       </c>
       <c r="T2">
-        <f>Household!T44</f>
+        <f>'data emisi jabar Household'!T44</f>
         <v>2476520000</v>
       </c>
       <c r="U2">
-        <f>Household!U44</f>
+        <f>'data emisi jabar Household'!U44</f>
         <v>2525560000</v>
       </c>
       <c r="V2">
-        <f>Household!V44</f>
+        <f>'data emisi jabar Household'!V44</f>
         <v>2574600000</v>
       </c>
       <c r="W2">
-        <f>Household!W44</f>
+        <f>'data emisi jabar Household'!W44</f>
         <v>2623640000</v>
       </c>
       <c r="X2">
-        <f>Household!X44</f>
+        <f>'data emisi jabar Household'!X44</f>
         <v>2672680000</v>
       </c>
       <c r="Y2">
-        <f>Household!Y44</f>
+        <f>'data emisi jabar Household'!Y44</f>
         <v>2721720000</v>
       </c>
       <c r="Z2">
-        <f>Household!Z44</f>
+        <f>'data emisi jabar Household'!Z44</f>
         <v>2770760000</v>
       </c>
       <c r="AA2">
-        <f>Household!AA44</f>
+        <f>'data emisi jabar Household'!AA44</f>
         <v>2819800000</v>
       </c>
       <c r="AB2">
-        <f>Household!AB44</f>
+        <f>'data emisi jabar Household'!AB44</f>
         <v>2868840000</v>
       </c>
       <c r="AC2">
-        <f>Household!AC44</f>
+        <f>'data emisi jabar Household'!AC44</f>
         <v>2917880000</v>
       </c>
       <c r="AD2">
-        <f>Household!AD44</f>
+        <f>'data emisi jabar Household'!AD44</f>
         <v>2966920000</v>
       </c>
       <c r="AE2">
-        <f>Household!AE44</f>
+        <f>'data emisi jabar Household'!AE44</f>
         <v>3015960000</v>
       </c>
       <c r="AF2">
-        <f>Household!AF44</f>
+        <f>'data emisi jabar Household'!AF44</f>
         <v>3065000000</v>
       </c>
     </row>
@@ -23512,30 +23520,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110" t="s">
+      <c r="I1" s="107"/>
+      <c r="J1" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110" t="s">
+      <c r="K1" s="107"/>
+      <c r="L1" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110" t="s">
+      <c r="M1" s="107"/>
+      <c r="N1" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110" t="s">
+      <c r="O1" s="107"/>
+      <c r="P1" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110" t="s">
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="S1" s="110"/>
+      <c r="S1" s="107"/>
       <c r="T1" s="103" t="s">
         <v>164</v>
       </c>
@@ -30984,10 +30992,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1397E-7B25-4D57-922A-43A7984D7482}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30999,467 +31010,462 @@
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="117" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="53">
-        <f>B3/(1+$B$24)</f>
-        <v>5349236.2897534845</v>
-      </c>
-      <c r="C2" s="53">
-        <f>B2*F2</f>
-        <v>3588765.4257785468</v>
-      </c>
-      <c r="D2" s="53">
-        <f>D3/(1+$B$26)</f>
-        <v>6239928.1060598679</v>
-      </c>
-      <c r="E2" s="53">
-        <f>D2*1000</f>
-        <v>6239928106.0598679</v>
-      </c>
-      <c r="F2" s="16">
-        <f>F3/(1+$B$27)</f>
-        <v>0.67089304554612084</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="53">
-        <f>B4/(1+$B$24)</f>
-        <v>5620742.8338585971</v>
+        <f>B4/(1+$B$25)</f>
+        <v>5349236.2897534845</v>
       </c>
       <c r="C3" s="53">
         <f>B3*F3</f>
-        <v>3829840.1364271501</v>
+        <v>3588765.4257785468</v>
       </c>
       <c r="D3" s="53">
-        <f>D4/(1+$B$26)</f>
-        <v>6616848.2069321256</v>
+        <f>D4/(1+$B$27)</f>
+        <v>6239928.1060598679</v>
       </c>
       <c r="E3" s="53">
-        <f t="shared" ref="E3:E20" si="0">D3*1000</f>
-        <v>6616848206.932126</v>
+        <f>D3*1000</f>
+        <v>6239928106.0598679</v>
       </c>
       <c r="F3" s="16">
-        <f>F4/(1+$B$27)</f>
-        <v>0.68137615429702802</v>
-      </c>
-      <c r="G3" s="102"/>
+        <f>F4/(1+$B$28)</f>
+        <v>0.67089304554612084</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="53">
+        <f>B5/(1+$B$25)</f>
+        <v>5620742.8338585971</v>
+      </c>
+      <c r="C4" s="53">
+        <f>B4*F4</f>
+        <v>3829840.1364271501</v>
+      </c>
+      <c r="D4" s="53">
+        <f>D5/(1+$B$27)</f>
+        <v>6616848.2069321256</v>
+      </c>
+      <c r="E4" s="53">
+        <f t="shared" ref="E4:E21" si="0">D4*1000</f>
+        <v>6616848206.932126</v>
+      </c>
+      <c r="F4" s="16">
+        <f>F5/(1+$B$28)</f>
+        <v>0.68137615429702802</v>
+      </c>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>2002</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B5" s="52">
         <v>5906030</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C5" s="52">
         <v>4087109</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D5" s="52">
         <v>7016536</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E5" s="53">
         <f t="shared" si="0"/>
         <v>7016536000</v>
       </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F20" si="1">C4/B4</f>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F21" si="1">C5/B5</f>
         <v>0.69202306794919766</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>2003</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B6" s="52">
         <v>6138618</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C6" s="52">
         <v>4335150</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D6" s="52">
         <v>7660942.3609999996</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E6" s="53">
         <f t="shared" si="0"/>
         <v>7660942361</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>0.70620944323298829</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>2004</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B7" s="52">
         <v>5821881</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C7" s="52">
         <v>4237805</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D7" s="52">
         <v>7494798</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E7" s="53">
         <f t="shared" si="0"/>
         <v>7494798000</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>0.72790993151526118</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>2005</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B8" s="52">
         <v>6060583</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C8" s="14">
         <v>4556800.45</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D8" s="52">
         <v>8053599.9000000004</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E8" s="53">
         <f t="shared" si="0"/>
         <v>8053599900</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>0.75187493513412818</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>2006</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B9" s="52">
         <v>6171699</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="14">
         <v>4681082.8499999996</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>8631525.4800000004</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E9" s="53">
         <f t="shared" si="0"/>
         <v>8631525480</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>0.75847555916126175</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>2007</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B10" s="52">
         <v>6660238</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C10" s="52">
         <v>5117953</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D10" s="52">
         <v>9345913</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E10" s="53">
         <f t="shared" si="0"/>
         <v>9345913000</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>0.76843395085881316</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>2008</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B11" s="52">
         <v>6999908</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>5413224.9500000002</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>9877163.6899999995</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E11" s="53">
         <f t="shared" si="0"/>
         <v>9877163690</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>0.77332801373960913</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>2009</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B12" s="52">
         <v>7227571</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C12" s="52">
         <v>5639606.5999999996</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>10723598.179</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E12" s="53">
         <f t="shared" si="0"/>
         <v>10723598179</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>0.78029072284450751</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>2010</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B13" s="52">
         <v>7740064</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="14">
         <v>6192060.9500000002</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>11748726.665999999</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E13" s="53">
         <f t="shared" si="0"/>
         <v>11748726666</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <f t="shared" si="1"/>
         <v>0.80000125967950653</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>2011</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B14" s="52">
         <v>8204882</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C14" s="52">
         <v>6772206.9000000004</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>12552127.051000001</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E14" s="53">
         <f t="shared" si="0"/>
         <v>12552127051</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>0.82538748272065343</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>2012</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B15" s="52">
         <v>8935976</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C15" s="52">
         <v>7423448.5</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>13627774.593</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E15" s="53">
         <f t="shared" si="0"/>
         <v>13627774593</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>0.83073729159523257</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>2013</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B16" s="52">
         <v>9698693</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C16" s="14">
         <v>8189723.0499999998</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>14486337.716</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E16" s="53">
         <f t="shared" si="0"/>
         <v>14486337716</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>0.84441512376976979</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>2014</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B17" s="52">
         <v>10354331</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C17" s="52">
         <v>8749862.5500000007</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D17" s="52">
         <v>15897744.961999999</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E17" s="53">
         <f t="shared" si="0"/>
         <v>15897744962</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
         <v>0.84504373580485315</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>2015</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B18" s="52">
         <v>12378723</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C18" s="52">
         <v>10226279.050000001</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D18" s="52">
         <v>18425554.890999999</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E18" s="53">
         <f t="shared" si="0"/>
         <v>18425554891</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>0.82611744765594974</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>2016</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B19" s="52">
         <v>11747972</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C19" s="52">
         <v>11747972</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D19" s="52">
         <v>17464021</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E19" s="53">
         <f t="shared" si="0"/>
         <v>17464021000</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>2017</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B20" s="52">
         <v>12388399</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C20" s="52">
         <v>10858705</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D20" s="52">
         <v>17555203</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E20" s="53">
         <f t="shared" si="0"/>
         <v>17555203000</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>0.87652205906509795</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>2018</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B21" s="52">
         <v>13041471</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C21" s="52">
         <v>11566059</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D21" s="52">
         <v>17933627</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E21" s="53">
         <f t="shared" si="0"/>
         <v>17933627000</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <f t="shared" si="1"/>
         <v>0.88686767006574641</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -31468,200 +31474,211 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f>AVERAGE(F2:F20)</f>
+      <c r="A23" s="14">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>AVERAGE(F3:F21)</f>
         <v>0.79188983655977496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24">
-        <f>(B20/B4)^(1/16)-1</f>
-        <v>5.075613216510666E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B25">
-        <f>(C20/C4)^(1/16)-1</f>
-        <v>6.7174830908962146E-2</v>
+        <f>(B21/B5)^(1/16)-1</f>
+        <v>5.075613216510666E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B26">
-        <f>(D20/D4)^(1/16)-1</f>
-        <v>6.0404558268261743E-2</v>
+        <f>(C21/C5)^(1/16)-1</f>
+        <v>6.7174830908962146E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27">
+        <f>(D21/D5)^(1/16)-1</f>
+        <v>6.0404558268261743E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>276</v>
       </c>
-      <c r="B27">
-        <f>(F20/F4)^(1/16)-1</f>
+      <c r="B28">
+        <f>(F21/F5)^(1/16)-1</f>
         <v>1.5625603545157851E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="C29">
-        <v>2001</v>
-      </c>
-      <c r="D29">
-        <v>2002</v>
-      </c>
-      <c r="E29">
-        <v>2003</v>
-      </c>
-      <c r="F29">
-        <v>2004</v>
-      </c>
-      <c r="G29">
-        <v>2005</v>
-      </c>
-      <c r="H29">
-        <v>2006</v>
-      </c>
-      <c r="I29">
-        <v>2007</v>
-      </c>
-      <c r="J29">
-        <v>2008</v>
-      </c>
-      <c r="K29">
-        <v>2009</v>
-      </c>
-      <c r="L29">
-        <v>2010</v>
-      </c>
-      <c r="M29">
-        <v>2011</v>
-      </c>
-      <c r="N29">
-        <v>2012</v>
-      </c>
-      <c r="O29">
-        <v>2013</v>
-      </c>
-      <c r="P29">
-        <v>2014</v>
-      </c>
-      <c r="Q29">
-        <v>2015</v>
-      </c>
-      <c r="R29">
-        <v>2016</v>
-      </c>
-      <c r="S29">
-        <v>2017</v>
-      </c>
-      <c r="T29">
-        <v>2018</v>
-      </c>
-      <c r="U29">
-        <v>2019</v>
-      </c>
-      <c r="V29">
-        <v>2020</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2000</v>
+      </c>
+      <c r="C30">
+        <v>2001</v>
+      </c>
+      <c r="D30">
+        <v>2002</v>
+      </c>
+      <c r="E30">
+        <v>2003</v>
+      </c>
+      <c r="F30">
+        <v>2004</v>
+      </c>
+      <c r="G30">
+        <v>2005</v>
+      </c>
+      <c r="H30">
+        <v>2006</v>
+      </c>
+      <c r="I30">
+        <v>2007</v>
+      </c>
+      <c r="J30">
+        <v>2008</v>
+      </c>
+      <c r="K30">
+        <v>2009</v>
+      </c>
+      <c r="L30">
+        <v>2010</v>
+      </c>
+      <c r="M30">
+        <v>2011</v>
+      </c>
+      <c r="N30">
+        <v>2012</v>
+      </c>
+      <c r="O30">
+        <v>2013</v>
+      </c>
+      <c r="P30">
+        <v>2014</v>
+      </c>
+      <c r="Q30">
+        <v>2015</v>
+      </c>
+      <c r="R30">
+        <v>2016</v>
+      </c>
+      <c r="S30">
+        <v>2017</v>
+      </c>
+      <c r="T30">
+        <v>2018</v>
+      </c>
+      <c r="U30">
+        <v>2019</v>
+      </c>
+      <c r="V30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>327</v>
       </c>
-      <c r="B30">
-        <f>VLOOKUP(B29,$A$2:$F$22,5)</f>
+      <c r="B31">
+        <f>VLOOKUP(B30,$A$3:$F$23,5)</f>
         <v>6239928106.0598679</v>
       </c>
-      <c r="C30">
-        <f t="shared" ref="C30:T30" si="2">VLOOKUP(C29,$A$2:$F$22,5)</f>
+      <c r="C31">
+        <f t="shared" ref="C31:T31" si="2">VLOOKUP(C30,$A$3:$F$23,5)</f>
         <v>6616848206.932126</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f t="shared" si="2"/>
         <v>7016536000</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <f t="shared" si="2"/>
         <v>7660942361</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <f t="shared" si="2"/>
         <v>7494798000</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>8053599900</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>8631525480</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>9345913000</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <f t="shared" si="2"/>
         <v>9877163690</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <f t="shared" si="2"/>
         <v>10723598179</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <f t="shared" si="2"/>
         <v>11748726666</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <f t="shared" si="2"/>
         <v>12552127051</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <f t="shared" si="2"/>
         <v>13627774593</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <f t="shared" si="2"/>
         <v>14486337716</v>
       </c>
-      <c r="P30">
+      <c r="P31">
         <f t="shared" si="2"/>
         <v>15897744962</v>
       </c>
-      <c r="Q30">
+      <c r="Q31">
         <f t="shared" si="2"/>
         <v>18425554891</v>
       </c>
-      <c r="R30">
+      <c r="R31">
         <f t="shared" si="2"/>
         <v>17464021000</v>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f t="shared" si="2"/>
         <v>17555203000</v>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>17933627000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6529733-3B90-475A-AA9D-E7FBD0E486DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F611BE-71C6-4328-AF9C-04EC6AFD8F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="815" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView xWindow="3705" yWindow="2895" windowWidth="21600" windowHeight="11505" tabRatio="815" firstSheet="10" activeTab="10" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data jabar 2008-2018" sheetId="36" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="DEJ, Transport" sheetId="35" r:id="rId8"/>
     <sheet name="data emisi jabar Household" sheetId="34" r:id="rId9"/>
     <sheet name="JDA Listrik" sheetId="39" r:id="rId10"/>
-    <sheet name="Komersial" sheetId="42" r:id="rId11"/>
+    <sheet name="DEJ, Komersial Olahan" sheetId="42" r:id="rId11"/>
     <sheet name="DEJ, Komersial" sheetId="41" r:id="rId12"/>
     <sheet name="DEJ, Household v2" sheetId="43" r:id="rId13"/>
     <sheet name="PDRB Komersial" sheetId="40" r:id="rId14"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="544">
   <si>
     <t>Kabupaten/Regency</t>
   </si>
@@ -1776,9 +1776,6 @@
     <t>Intensitas Energi Industri</t>
   </si>
   <si>
-    <t>MiliarRp/Tahun</t>
-  </si>
-  <si>
     <t>BOE/Tahun</t>
   </si>
   <si>
@@ -2065,13 +2062,28 @@
   </si>
   <si>
     <t>Ton/MWh</t>
+  </si>
+  <si>
+    <t>BOE/Rp</t>
+  </si>
+  <si>
+    <t>Rp/Tahun</t>
+  </si>
+  <si>
+    <t>Intensitas Energi</t>
+  </si>
+  <si>
+    <t>JutaRp/Tahun</t>
+  </si>
+  <si>
+    <t>SUMBER : STATISTIK INDUSTRI BESAR DAN SEDANG JABAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
@@ -2079,8 +2091,9 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2263,6 +2276,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2594,7 +2615,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3003,6 +3024,10 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3129,14 +3154,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3153,6 +3178,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3161,15 +3195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3183,9 +3208,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10990,7 +11018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B6D7FB-AB11-465B-A2CF-97E1CD5EE8C4}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -11153,7 +11181,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4">
         <f>'JDA Listrik'!B6</f>
@@ -11202,7 +11230,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5">
         <f>'JDA Listrik'!B5</f>
@@ -11251,7 +11279,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6">
         <f>'JDA Listrik'!B10</f>
@@ -11398,7 +11426,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(D$1,'Fuel, Industri'!$A$26:$G$33,7)</f>
@@ -11439,7 +11467,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(D$1,'Fuel, Industri'!$A$26:$F$33,2)</f>
@@ -11480,7 +11508,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(D$1,'Fuel, Industri'!$A$26:$F$33,3)</f>
@@ -11521,7 +11549,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(D$1,'Fuel, Industri'!$A$26:$F$33,4)</f>
@@ -11562,7 +11590,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(D$1,'Fuel, Industri'!$A$26:$F$33,6)</f>
@@ -11603,7 +11631,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14">
         <f>'data jabar'!J3</f>
@@ -11652,7 +11680,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B15">
         <f>'data jabar'!J4</f>
@@ -11701,7 +11729,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B16">
         <f>'data jabar'!J2</f>
@@ -11750,83 +11778,83 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D17">
-        <f>Komersial!B29</f>
+        <f>'DEJ, Komersial Olahan'!B29</f>
         <v>18449776.471245904</v>
       </c>
       <c r="E17">
-        <f>Komersial!C29</f>
+        <f>'DEJ, Komersial Olahan'!C29</f>
         <v>20191203.625964306</v>
       </c>
       <c r="F17">
-        <f>Komersial!D29</f>
+        <f>'DEJ, Komersial Olahan'!D29</f>
         <v>21982735.66296538</v>
       </c>
       <c r="G17">
-        <f>Komersial!E29</f>
+        <f>'DEJ, Komersial Olahan'!E29</f>
         <v>23855490.769149292</v>
       </c>
       <c r="H17">
-        <f>Komersial!F29</f>
+        <f>'DEJ, Komersial Olahan'!F29</f>
         <v>25882006.44694335</v>
       </c>
       <c r="I17">
-        <f>Komersial!G29</f>
+        <f>'DEJ, Komersial Olahan'!G29</f>
         <v>27994533.152682401</v>
       </c>
       <c r="J17">
-        <f>Komersial!H29</f>
+        <f>'DEJ, Komersial Olahan'!H29</f>
         <v>30493894.469256975</v>
       </c>
       <c r="K17">
-        <f>Komersial!I29</f>
+        <f>'DEJ, Komersial Olahan'!I29</f>
         <v>33190635.220458865</v>
       </c>
       <c r="L17">
-        <f>Komersial!J29</f>
+        <f>'DEJ, Komersial Olahan'!J29</f>
         <v>35956844.787308536</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D18">
-        <f>Komersial!B30</f>
+        <f>'DEJ, Komersial Olahan'!B30</f>
         <v>8224194.9903534604</v>
       </c>
       <c r="E18">
-        <f>Komersial!C30</f>
+        <f>'DEJ, Komersial Olahan'!C30</f>
         <v>8998852.7293091863</v>
       </c>
       <c r="F18">
-        <f>Komersial!D30</f>
+        <f>'DEJ, Komersial Olahan'!D30</f>
         <v>9795778.3305733912</v>
       </c>
       <c r="G18">
-        <f>Komersial!E30</f>
+        <f>'DEJ, Komersial Olahan'!E30</f>
         <v>10628801.494359177</v>
       </c>
       <c r="H18">
-        <f>Komersial!F30</f>
+        <f>'DEJ, Komersial Olahan'!F30</f>
         <v>11530159.700182799</v>
       </c>
       <c r="I18">
-        <f>Komersial!G30</f>
+        <f>'DEJ, Komersial Olahan'!G30</f>
         <v>12469743.357100878</v>
       </c>
       <c r="J18">
-        <f>Komersial!H30</f>
+        <f>'DEJ, Komersial Olahan'!H30</f>
         <v>13585851.194059532</v>
       </c>
       <c r="K18">
-        <f>Komersial!I30</f>
+        <f>'DEJ, Komersial Olahan'!I30</f>
         <v>14789679.386252433</v>
       </c>
       <c r="L18">
-        <f>Komersial!J30</f>
+        <f>'DEJ, Komersial Olahan'!J30</f>
         <v>16024381.256839598</v>
       </c>
     </row>
@@ -11856,23 +11884,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="192" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
+      <c r="D1" s="194" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2" s="14">
         <v>2008</v>
@@ -11916,7 +11944,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3" s="14">
         <v>426695577</v>
@@ -11954,7 +11982,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B4" s="14">
         <v>9877163690</v>
@@ -11992,7 +12020,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5" s="14">
         <v>2388117134</v>
@@ -12068,7 +12096,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" s="14">
         <v>407274781</v>
@@ -12106,7 +12134,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="14">
         <v>77871698</v>
@@ -12144,7 +12172,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9" s="91">
         <f>SUM(B3:B8)</f>
@@ -12193,7 +12221,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B10">
         <f>B4+B5+B6</f>
@@ -12241,20 +12269,20 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="183" t="s">
-        <v>466</v>
-      </c>
-      <c r="E11" s="183"/>
+      <c r="D11" s="185" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="185"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12440,8 +12468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3B8531-64D9-451B-A0AD-237B6A054BA4}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12465,37 +12493,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="195" t="s">
-        <v>506</v>
-      </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
+      <c r="B1" s="197" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="199"/>
+      <c r="C2" s="201"/>
       <c r="D2" s="160" t="s">
         <v>203</v>
       </c>
@@ -12509,74 +12537,74 @@
         <v>223</v>
       </c>
       <c r="H2" s="161" t="s">
+        <v>497</v>
+      </c>
+      <c r="I2" s="161" t="s">
         <v>498</v>
       </c>
-      <c r="I2" s="161" t="s">
+      <c r="J2" s="161" t="s">
         <v>499</v>
-      </c>
-      <c r="J2" s="161" t="s">
-        <v>500</v>
       </c>
       <c r="K2" s="159" t="s">
         <v>269</v>
       </c>
       <c r="L2" s="159" t="s">
+        <v>501</v>
+      </c>
+      <c r="M2" s="159" t="s">
         <v>502</v>
       </c>
-      <c r="M2" s="159" t="s">
+      <c r="N2" s="159" t="s">
         <v>503</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="O2" s="162" t="s">
         <v>504</v>
       </c>
-      <c r="O2" s="162" t="s">
-        <v>505</v>
-      </c>
       <c r="P2" s="162" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q2" s="162" t="s">
         <v>519</v>
       </c>
-      <c r="Q2" s="162" t="s">
+      <c r="R2" s="162" t="s">
         <v>520</v>
       </c>
-      <c r="R2" s="162" t="s">
+      <c r="S2" s="162" t="s">
         <v>521</v>
       </c>
-      <c r="S2" s="162" t="s">
+      <c r="T2" s="162" t="s">
         <v>522</v>
       </c>
-      <c r="T2" s="162" t="s">
-        <v>523</v>
-      </c>
       <c r="U2" s="162" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="202" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
       <c r="I3" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="P3" s="183" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
+        <v>500</v>
+      </c>
+      <c r="P3" s="185" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="153">
@@ -13348,10 +13376,10 @@
         <v>1699.41</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="172" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R13" s="173">
         <f>AVERAGE(P17:Q17)</f>
@@ -13360,34 +13388,34 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="152"/>
-      <c r="C14" s="197" t="s">
-        <v>506</v>
-      </c>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="202" t="s">
+      <c r="C14" s="199" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="203" t="s">
-        <v>524</v>
-      </c>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="205"/>
+      <c r="I14" s="205" t="s">
+        <v>523</v>
+      </c>
+      <c r="J14" s="206"/>
+      <c r="K14" s="206"/>
+      <c r="L14" s="206"/>
+      <c r="M14" s="207"/>
       <c r="N14" s="168" t="s">
-        <v>514</v>
-      </c>
-      <c r="O14" s="203" t="s">
-        <v>509</v>
-      </c>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="206"/>
-      <c r="R14" s="207"/>
-      <c r="S14" s="201" t="s">
-        <v>516</v>
+        <v>513</v>
+      </c>
+      <c r="O14" s="205" t="s">
+        <v>508</v>
+      </c>
+      <c r="P14" s="206"/>
+      <c r="Q14" s="208"/>
+      <c r="R14" s="209"/>
+      <c r="S14" s="203" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -13409,7 +13437,7 @@
       <c r="G15" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="202"/>
+      <c r="H15" s="204"/>
       <c r="I15" s="169" t="s">
         <v>203</v>
       </c>
@@ -13438,34 +13466,34 @@
       <c r="R15" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="S15" s="201"/>
+      <c r="S15" s="203"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="195" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="205" t="s">
         <v>507</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="203" t="s">
-        <v>508</v>
-      </c>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="203" t="s">
-        <v>510</v>
-      </c>
-      <c r="P16" s="204"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="205"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="206"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="205" t="s">
+        <v>509</v>
+      </c>
+      <c r="P16" s="206"/>
+      <c r="Q16" s="206"/>
+      <c r="R16" s="207"/>
       <c r="S16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -14096,7 +14124,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29">
         <f>VLOOKUP(B28,$A$4:$H$12,8)</f>
@@ -14137,7 +14165,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30">
         <v>8224194.9903534604</v>
@@ -14192,8 +14220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA7C01B-99F2-4E3A-A66F-2777632D91B3}">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="P7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14216,7 +14244,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="143" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -14251,48 +14279,48 @@
     </row>
     <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99"/>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="219" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217" t="s">
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217" t="s">
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="214" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="214" t="s">
         <v>478</v>
       </c>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="212" t="s">
-        <v>223</v>
-      </c>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="212" t="s">
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="212" t="s">
         <v>479</v>
       </c>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="210" t="s">
+      <c r="AA2" s="217" t="s">
         <v>480</v>
       </c>
-      <c r="AA2" s="215" t="s">
-        <v>481</v>
-      </c>
-      <c r="AC2" s="208" t="s">
-        <v>518</v>
+      <c r="AC2" s="210" t="s">
+        <v>517</v>
       </c>
       <c r="AD2" s="105"/>
       <c r="AE2" s="105"/>
@@ -14302,64 +14330,64 @@
         <v>32</v>
       </c>
       <c r="B3" s="116" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="106" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D3" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="E3" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="G3" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="H3" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="J3" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="K3" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="L3" s="119" t="s">
+        <v>488</v>
+      </c>
+      <c r="M3" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="N3" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>484</v>
-      </c>
-      <c r="J3" s="104" t="s">
-        <v>488</v>
-      </c>
-      <c r="K3" s="112" t="s">
-        <v>486</v>
-      </c>
-      <c r="L3" s="119" t="s">
+      <c r="O3" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="P3" s="121" t="s">
         <v>489</v>
       </c>
-      <c r="M3" s="106" t="s">
+      <c r="Q3" s="122" t="s">
+        <v>490</v>
+      </c>
+      <c r="R3" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="S3" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="N3" s="106" t="s">
-        <v>484</v>
-      </c>
-      <c r="O3" s="104" t="s">
-        <v>488</v>
-      </c>
-      <c r="P3" s="121" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q3" s="122" t="s">
+      <c r="T3" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="R3" s="106" t="s">
-        <v>483</v>
-      </c>
-      <c r="S3" s="106" t="s">
-        <v>484</v>
-      </c>
-      <c r="T3" s="104" t="s">
+      <c r="U3" s="107" t="s">
         <v>492</v>
-      </c>
-      <c r="U3" s="107" t="s">
-        <v>493</v>
       </c>
       <c r="V3" s="118" t="s">
         <v>384</v>
@@ -14368,14 +14396,14 @@
         <v>385</v>
       </c>
       <c r="X3" s="108" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y3" s="107" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="216"/>
-      <c r="AC3" s="209"/>
+        <v>493</v>
+      </c>
+      <c r="Z3" s="213"/>
+      <c r="AA3" s="218"/>
+      <c r="AC3" s="211"/>
       <c r="AD3" s="104"/>
       <c r="AE3" s="141"/>
     </row>
@@ -16354,10 +16382,10 @@
       <c r="AB25" s="102"/>
       <c r="AC25" s="102"/>
       <c r="AD25" s="102" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE25" s="102" t="s">
         <v>495</v>
-      </c>
-      <c r="AE25" s="102" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -16438,7 +16466,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -16482,7 +16510,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -16600,7 +16628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="220" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" s="220"/>
       <c r="C1" s="220"/>
@@ -16642,78 +16670,78 @@
       <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="194" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192" t="s">
-        <v>363</v>
-      </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192" t="s">
-        <v>161</v>
-      </c>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q3" s="192"/>
+      <c r="Q3" s="194"/>
     </row>
     <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="237" t="s">
+      <c r="B4" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="177" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="177" t="s">
+        <v>531</v>
+      </c>
+      <c r="F4" s="177" t="s">
         <v>532</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="G4" s="177" t="s">
+        <v>364</v>
+      </c>
+      <c r="H4" s="177" t="s">
+        <v>482</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J4" s="177" t="s">
         <v>533</v>
       </c>
-      <c r="G4" s="237" t="s">
-        <v>364</v>
-      </c>
-      <c r="H4" s="237" t="s">
-        <v>483</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J4" s="237" t="s">
+      <c r="K4" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="K4" s="237" t="s">
+      <c r="L4" s="177" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="N4" s="177" t="s">
+        <v>491</v>
+      </c>
+      <c r="O4" s="177" t="s">
         <v>535</v>
-      </c>
-      <c r="L4" s="237" t="s">
-        <v>384</v>
-      </c>
-      <c r="M4" s="237" t="s">
-        <v>385</v>
-      </c>
-      <c r="N4" s="237" t="s">
-        <v>492</v>
-      </c>
-      <c r="O4" s="237" t="s">
-        <v>536</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -17830,21 +17858,21 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="236">
+      <c r="B26" s="176">
         <v>0.53982300884955747</v>
       </c>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236">
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176">
         <v>0.31268436578171094</v>
       </c>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="236"/>
-      <c r="L26" s="236">
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176">
         <v>0.14749262536873156</v>
       </c>
       <c r="M26" s="42"/>
@@ -17860,31 +17888,31 @@
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="236">
+      <c r="F27" s="176">
         <v>0.50698912201517154</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
-      <c r="K27" s="236">
+      <c r="K27" s="176">
         <v>0.33390748755643235</v>
       </c>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="236">
+      <c r="O27" s="176">
         <v>0.15910339042839605</v>
       </c>
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="192" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29" s="192"/>
+      <c r="B29" s="194" t="s">
+        <v>528</v>
+      </c>
+      <c r="C29" s="194"/>
       <c r="D29" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -17944,27 +17972,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="183" t="s">
-        <v>463</v>
-      </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
+      <c r="B1" s="185" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
         <v>461</v>
       </c>
-      <c r="C2" t="s">
-        <v>462</v>
-      </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18338,7 +18366,7 @@
         <f>F4/(1+$B$28)</f>
         <v>0.67089304554612084</v>
       </c>
-      <c r="G3" s="218" t="s">
+      <c r="G3" s="221" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="13">
@@ -18374,7 +18402,7 @@
         <f>F5/(1+$B$28)</f>
         <v>0.68137615429702802</v>
       </c>
-      <c r="G4" s="218"/>
+      <c r="G4" s="221"/>
       <c r="H4" s="13">
         <f t="shared" ref="H4:H23" si="1">E4/B4</f>
         <v>1177.2195246281549</v>
@@ -19151,21 +19179,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="222" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="192" t="s">
+      <c r="C1" s="222"/>
+      <c r="D1" s="194" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192" t="s">
+      <c r="E1" s="194"/>
+      <c r="F1" s="194" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="192"/>
+      <c r="G1" s="194"/>
       <c r="H1" s="220" t="s">
         <v>286</v>
       </c>
@@ -19191,7 +19219,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
+      <c r="A2" s="222"/>
       <c r="B2" s="14" t="s">
         <v>138</v>
       </c>
@@ -20307,18 +20335,18 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="219" t="s">
+      <c r="B25" s="222" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="219"/>
-      <c r="D25" s="192" t="s">
+      <c r="C25" s="222"/>
+      <c r="D25" s="194" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192" t="s">
+      <c r="E25" s="194"/>
+      <c r="F25" s="194" t="s">
         <v>291</v>
       </c>
-      <c r="G25" s="192"/>
+      <c r="G25" s="194"/>
       <c r="H25" s="220" t="s">
         <v>286</v>
       </c>
@@ -20341,7 +20369,7 @@
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="219" t="s">
+      <c r="A26" s="222" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -20394,25 +20422,25 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="219"/>
-      <c r="B27" s="192" t="s">
+      <c r="A27" s="222"/>
+      <c r="B27" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="192"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="192"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -21738,7 +21766,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="222" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="220" t="s">
@@ -21750,7 +21778,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="219"/>
+      <c r="A53" s="222"/>
       <c r="B53" s="14" t="s">
         <v>138</v>
       </c>
@@ -22217,21 +22245,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="B27:Q27"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22248,7 +22276,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="222" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="220" t="s">
@@ -22259,7 +22287,7 @@
       <c r="E1" s="220"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
+      <c r="A2" s="222"/>
       <c r="B2" s="14" t="s">
         <v>219</v>
       </c>
@@ -22889,10 +22917,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253273F5-BFA1-449D-98EB-6A624EE2B89A}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22907,12 +22935,13 @@
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="222" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -22927,17 +22956,22 @@
       <c r="E1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="221" t="s">
+      <c r="F1" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="222"/>
+      <c r="G1" s="224"/>
       <c r="H1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
+      <c r="I1" s="239" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="222"/>
       <c r="B2" s="14" t="s">
         <v>206</v>
       </c>
@@ -22959,9 +22993,12 @@
       <c r="H2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="239"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2010</v>
       </c>
@@ -22986,9 +23023,12 @@
       <c r="H3" s="14">
         <v>19177472</v>
       </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="239"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2011</v>
       </c>
@@ -23013,9 +23053,12 @@
       <c r="H4" s="14">
         <v>19177472</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="239"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -23040,9 +23083,12 @@
       <c r="H5" s="14">
         <v>27824163</v>
       </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="239"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="240"/>
+      <c r="L5" s="240"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2013</v>
       </c>
@@ -23067,9 +23113,12 @@
       <c r="H6" s="32">
         <v>28637553</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="239"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2014</v>
       </c>
@@ -23094,9 +23143,12 @@
       <c r="H7" s="32">
         <v>100075015</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2015</v>
       </c>
@@ -23121,9 +23173,12 @@
       <c r="H8" s="14">
         <v>47643540</v>
       </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="239"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="240"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2016</v>
       </c>
@@ -23134,9 +23189,12 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="239"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2017</v>
       </c>
@@ -23159,14 +23217,17 @@
       <c r="H10" s="14">
         <v>26026616</v>
       </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="239"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="219" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="222" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -23175,14 +23236,14 @@
       <c r="C12" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="194" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="192"/>
+      <c r="E12" s="194"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="219"/>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="222"/>
       <c r="B13" s="14" t="s">
         <v>216</v>
       </c>
@@ -23197,7 +23258,7 @@
       </c>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2010</v>
       </c>
@@ -23220,7 +23281,7 @@
       <c r="F14" s="24"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2011</v>
       </c>
@@ -23243,7 +23304,7 @@
       <c r="F15" s="24"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2012</v>
       </c>
@@ -23266,7 +23327,7 @@
       <c r="F16" s="24"/>
       <c r="K16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2013</v>
       </c>
@@ -23289,7 +23350,7 @@
       <c r="F17" s="24"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2014</v>
       </c>
@@ -23312,7 +23373,7 @@
       <c r="F18" s="24"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -23335,7 +23396,7 @@
       <c r="F19" s="24"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2016</v>
       </c>
@@ -23358,7 +23419,7 @@
       <c r="F20" s="24"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2017</v>
       </c>
@@ -23381,14 +23442,17 @@
       <c r="F21" s="24"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="219" t="s">
+      <c r="N23" s="4">
+        <v>527878336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="222" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -23427,29 +23491,41 @@
       <c r="M24" s="47" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="219"/>
-      <c r="B25" s="223" t="s">
+      <c r="N24" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="222"/>
+      <c r="B25" s="225" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="224"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="225"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="227"/>
       <c r="F25" s="14" t="s">
         <v>227</v>
       </c>
       <c r="G25" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="L25" t="s">
+        <v>542</v>
+      </c>
+      <c r="M25" t="s">
         <v>444</v>
       </c>
-      <c r="L25" t="s">
-        <v>443</v>
-      </c>
-      <c r="M25" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>540</v>
+      </c>
+      <c r="O25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>2010</v>
       </c>
@@ -23493,16 +23569,24 @@
         <f>F26/$G26</f>
         <v>0.4624608114500201</v>
       </c>
-      <c r="L26">
-        <f>'Industri Jabar'!D4</f>
-        <v>502823.19766031468</v>
-      </c>
-      <c r="M26" s="13">
+      <c r="L26" s="13">
+        <f>'Industri Jabar'!B4</f>
+        <v>502823197.66031468</v>
+      </c>
+      <c r="M26" s="238">
         <f>G26/L26</f>
-        <v>39.760544287921242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.9760544287921237E-2</v>
+      </c>
+      <c r="N26" s="13">
+        <f>'Industri Jabar'!C4</f>
+        <v>502823197660314.69</v>
+      </c>
+      <c r="O26">
+        <f>G26/N26</f>
+        <v>3.9760544287921237E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2011</v>
       </c>
@@ -23546,16 +23630,24 @@
         <f t="shared" ref="K27:K33" si="9">F27/$G27</f>
         <v>0.48283019998963522</v>
       </c>
-      <c r="L27">
-        <f>'Industri Jabar'!D5</f>
-        <v>532881.00027030893</v>
-      </c>
-      <c r="M27" s="13">
+      <c r="L27" s="13">
+        <f>'Industri Jabar'!B5</f>
+        <v>532881000.27030885</v>
+      </c>
+      <c r="M27" s="238">
         <f t="shared" ref="M27:M33" si="10">G27/L27</f>
-        <v>38.995488534197634</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.8995488534197639E-2</v>
+      </c>
+      <c r="N27" s="13">
+        <f>'Industri Jabar'!C5</f>
+        <v>532881000270308.88</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O33" si="11">G27/N27</f>
+        <v>3.8995488534197636E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>2012</v>
       </c>
@@ -23599,16 +23691,24 @@
         <f t="shared" si="9"/>
         <v>0.50287303040641707</v>
       </c>
-      <c r="L28">
-        <f>'Industri Jabar'!D6</f>
-        <v>560452.13522425317</v>
-      </c>
-      <c r="M28" s="13">
+      <c r="L28" s="13">
+        <f>'Industri Jabar'!B6</f>
+        <v>560452135.22425318</v>
+      </c>
+      <c r="M28" s="238">
         <f t="shared" si="10"/>
-        <v>38.697618773505098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.8697618773505096E-2</v>
+      </c>
+      <c r="N28" s="13">
+        <f>'Industri Jabar'!C6</f>
+        <v>560452135224253.19</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>3.8697618773505098E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>2013</v>
       </c>
@@ -23652,16 +23752,24 @@
         <f t="shared" si="9"/>
         <v>0.52098504273980983</v>
       </c>
-      <c r="L29">
-        <f>'Industri Jabar'!D7</f>
-        <v>599276.37811809999</v>
-      </c>
-      <c r="M29" s="13">
+      <c r="L29" s="13">
+        <f>'Industri Jabar'!B7</f>
+        <v>599276378.11810005</v>
+      </c>
+      <c r="M29" s="238">
         <f t="shared" si="10"/>
-        <v>37.468115542947622</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.7468115542947621E-2</v>
+      </c>
+      <c r="N29" s="13">
+        <f>'Industri Jabar'!C7</f>
+        <v>599276378118100</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>3.7468115542947625E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2014</v>
       </c>
@@ -23705,16 +23813,24 @@
         <f t="shared" si="9"/>
         <v>0.39709808604184349</v>
       </c>
-      <c r="L30">
-        <f>'Industri Jabar'!D8</f>
-        <v>629598.08588116325</v>
-      </c>
-      <c r="M30" s="13">
+      <c r="L30" s="13">
+        <f>'Industri Jabar'!B8</f>
+        <v>629598085.88116324</v>
+      </c>
+      <c r="M30" s="238">
         <f t="shared" si="10"/>
-        <v>49.215786703444685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.9215786703444689E-2</v>
+      </c>
+      <c r="N30" s="13">
+        <f>'Industri Jabar'!C8</f>
+        <v>629598085881163.25</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>4.921578670344469E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>2015</v>
       </c>
@@ -23758,16 +23874,24 @@
         <f t="shared" si="9"/>
         <v>0.44496205498063301</v>
       </c>
-      <c r="L31">
-        <f>'Industri Jabar'!D9</f>
-        <v>657314.38310285518</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="L31" s="13">
+        <f>'Industri Jabar'!B9</f>
+        <v>657314383.10285509</v>
+      </c>
+      <c r="M31" s="238">
         <f t="shared" si="10"/>
-        <v>52.890153323614051</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.2890153323614054E-2</v>
+      </c>
+      <c r="N31" s="13">
+        <f>'Industri Jabar'!C9</f>
+        <v>657314383102855.13</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>5.2890153323614051E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>2016</v>
       </c>
@@ -23776,11 +23900,11 @@
         <v>8414048.7624999993</v>
       </c>
       <c r="C32" s="55">
-        <f t="shared" ref="C32:D32" si="11">(C33+C31)/2</f>
+        <f t="shared" ref="C32:D32" si="12">(C33+C31)/2</f>
         <v>7083979.6024118112</v>
       </c>
       <c r="D32" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1959415.4690026671</v>
       </c>
       <c r="E32" s="6">
@@ -23811,16 +23935,24 @@
         <f t="shared" si="9"/>
         <v>0.42788234608323794</v>
       </c>
-      <c r="L32">
-        <f>'Industri Jabar'!D10</f>
-        <v>687265.70153099229</v>
-      </c>
-      <c r="M32" s="13">
+      <c r="L32" s="13">
+        <f>'Industri Jabar'!B10</f>
+        <v>687265701.53099227</v>
+      </c>
+      <c r="M32" s="238">
         <f t="shared" si="10"/>
-        <v>44.398738808278004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.4398738808278007E-2</v>
+      </c>
+      <c r="N32" s="13">
+        <f>'Industri Jabar'!C10</f>
+        <v>687265701530992.25</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>4.4398738808278009E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>2017</v>
       </c>
@@ -23864,21 +23996,29 @@
         <f t="shared" si="9"/>
         <v>0.46377828802502497</v>
       </c>
-      <c r="L33">
-        <f>'Industri Jabar'!D11</f>
-        <v>722813.26398229809</v>
-      </c>
-      <c r="M33" s="13">
+      <c r="L33" s="13">
+        <f>'Industri Jabar'!B11</f>
+        <v>722813263.98229814</v>
+      </c>
+      <c r="M33" s="238">
         <f t="shared" si="10"/>
-        <v>40.29725465883908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.0297254658839078E-2</v>
+      </c>
+      <c r="N33" s="13">
+        <f>'Industri Jabar'!C11</f>
+        <v>722813263982298.13</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>4.0297254658839083E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -23886,111 +24026,111 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2000</v>
       </c>
       <c r="B37" s="57">
-        <f t="shared" ref="B37:B53" si="12">B38/(1+$K$22)</f>
+        <f t="shared" ref="B37:B53" si="13">B38/(1+$K$22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2001</v>
       </c>
       <c r="B38" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2002</v>
       </c>
       <c r="B39" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2003</v>
       </c>
       <c r="B40" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2004</v>
       </c>
       <c r="B41" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2005</v>
       </c>
       <c r="B42" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2006</v>
       </c>
       <c r="B43" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2007</v>
       </c>
       <c r="B44" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2008</v>
       </c>
       <c r="B45" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2009</v>
       </c>
       <c r="B46" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2010</v>
       </c>
       <c r="B47" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2011</v>
       </c>
       <c r="B48" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -23999,7 +24139,7 @@
         <v>2012</v>
       </c>
       <c r="B49" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24008,7 +24148,7 @@
         <v>2013</v>
       </c>
       <c r="B50" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24017,7 +24157,7 @@
         <v>2014</v>
       </c>
       <c r="B51" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24026,7 +24166,7 @@
         <v>2015</v>
       </c>
       <c r="B52" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24035,7 +24175,7 @@
         <v>2016</v>
       </c>
       <c r="B53" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -24076,7 +24216,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I1:L10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A24:A25"/>
@@ -24118,6 +24259,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -24639,7 +24781,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(D1,'DEJ, Transport'!$J$13:$L$33,3)</f>
@@ -24688,7 +24830,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(D1,'DEJ, Komersial'!$AB$4:$AC$24,2)</f>
@@ -24742,19 +24884,20 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368395BC-73D9-4B23-8FFF-5B0448AD13E5}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>439</v>
       </c>
@@ -24765,7 +24908,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -24781,7 +24924,7 @@
         <v>477301.84082941886</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -24797,11 +24940,11 @@
         <v>481353.92765849066</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="6">
         <v>502823197.66031468</v>
       </c>
       <c r="C4" s="14">
@@ -24812,8 +24955,11 @@
         <f t="shared" si="1"/>
         <v>502823.19766031468</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>527878336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -24829,7 +24975,7 @@
         <v>532881.00027030893</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -24845,7 +24991,7 @@
         <v>560452.13522425317</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -24861,7 +25007,7 @@
         <v>599276.37811809999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -24877,7 +25023,7 @@
         <v>629598.08588116325</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -24893,7 +25039,7 @@
         <v>657314.38310285518</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -24909,7 +25055,7 @@
         <v>687265.70153099229</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -24925,7 +25071,7 @@
         <v>722813.26398229809</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -24941,7 +25087,7 @@
         <v>767816.54700139107</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -26229,7 +26375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4AEC6-F865-4EBF-920F-1FA53F02E7A6}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -27654,65 +27800,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="231" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="219" t="s">
+      <c r="C1" s="222" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="201" t="s">
+      <c r="D1" s="203" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="228" t="s">
+      <c r="E1" s="233" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="228" t="s">
+      <c r="F1" s="233" t="s">
         <v>308</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="193" t="s">
+      <c r="K1" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193" t="s">
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="193"/>
+      <c r="O1" s="195"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="231" t="s">
+      <c r="R1" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="192" t="s">
+      <c r="S1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="H2" s="229" t="s">
+      <c r="A2" s="222"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="H2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="229"/>
+      <c r="I2" s="228"/>
       <c r="J2" s="11">
         <v>2000</v>
       </c>
@@ -28867,10 +29013,10 @@
         <f t="shared" si="3"/>
         <v>12900861.450007658</v>
       </c>
-      <c r="H21" s="230" t="s">
+      <c r="H21" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="230"/>
+      <c r="I21" s="229"/>
       <c r="J21" s="7"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -29331,10 +29477,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H31" s="229" t="s">
+      <c r="H31" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="229"/>
+      <c r="I31" s="228"/>
       <c r="J31" s="20">
         <v>43552.923000000003</v>
       </c>
@@ -29663,12 +29809,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="K1:M1"/>
@@ -29676,6 +29816,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30014,7 +30160,7 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J13" s="232" t="s">
+      <c r="J13" s="234" t="s">
         <v>95</v>
       </c>
     </row>
@@ -30040,7 +30186,7 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J14" s="233"/>
+      <c r="J14" s="235"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -30064,7 +30210,7 @@
         <f>6.33/100</f>
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="J15" s="233"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -30088,7 +30234,7 @@
         <f>5.09/100</f>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="J16" s="233"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -30115,7 +30261,7 @@
         <f>5.05/100</f>
         <v>5.0499999999999996E-2</v>
       </c>
-      <c r="J17" s="233"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -30143,7 +30289,7 @@
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="J18" s="233"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -30172,7 +30318,7 @@
         <f>5.33/100</f>
         <v>5.33E-2</v>
       </c>
-      <c r="J19" s="233"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -30200,7 +30346,7 @@
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="J20" s="233"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -30228,7 +30374,7 @@
         <f>5.07/100</f>
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="J21" s="234"/>
+      <c r="J21" s="236"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -30431,7 +30577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="222" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -30445,7 +30591,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
+      <c r="A2" s="222"/>
       <c r="B2" s="14" t="s">
         <v>43</v>
       </c>
@@ -30730,7 +30876,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="222" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="16">
@@ -30765,7 +30911,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="A4" s="222"/>
       <c r="B4" s="16">
         <v>2001</v>
       </c>
@@ -30807,7 +30953,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="222"/>
       <c r="B5" s="16">
         <v>2002</v>
       </c>
@@ -30849,7 +30995,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="222"/>
       <c r="B6" s="16">
         <v>2003</v>
       </c>
@@ -30891,7 +31037,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="222"/>
       <c r="B7" s="16">
         <v>2004</v>
       </c>
@@ -30933,7 +31079,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="222"/>
       <c r="B8" s="16">
         <v>2005</v>
       </c>
@@ -30963,7 +31109,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="219"/>
+      <c r="A9" s="222"/>
       <c r="B9" s="16">
         <v>2006</v>
       </c>
@@ -30996,7 +31142,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
+      <c r="A10" s="222"/>
       <c r="B10" s="16">
         <v>2007</v>
       </c>
@@ -31032,7 +31178,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
+      <c r="A11" s="222"/>
       <c r="B11" s="16">
         <v>2008</v>
       </c>
@@ -31068,7 +31214,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="219"/>
+      <c r="A12" s="222"/>
       <c r="B12" s="16">
         <v>2009</v>
       </c>
@@ -31098,7 +31244,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="219"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="16">
         <v>2010</v>
       </c>
@@ -31128,7 +31274,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="219"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="16">
         <v>2011</v>
       </c>
@@ -31158,7 +31304,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="219"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="16">
         <v>2012</v>
       </c>
@@ -34036,14 +34182,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="221" t="s">
+      <c r="C1" s="194"/>
+      <c r="D1" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="222"/>
+      <c r="E1" s="224"/>
       <c r="F1" t="s">
         <v>92</v>
       </c>
@@ -35815,10 +35961,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="235"/>
+      <c r="B26" s="237"/>
       <c r="C26" s="36">
         <v>6874</v>
       </c>
@@ -36685,30 +36831,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="228" t="s">
+      <c r="H1" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228" t="s">
+      <c r="I1" s="233"/>
+      <c r="J1" s="233" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228" t="s">
+      <c r="K1" s="233"/>
+      <c r="L1" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228" t="s">
+      <c r="M1" s="233"/>
+      <c r="N1" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228" t="s">
+      <c r="O1" s="233"/>
+      <c r="P1" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228" t="s">
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="228"/>
+      <c r="S1" s="233"/>
       <c r="T1" s="220" t="s">
         <v>143</v>
       </c>
@@ -38537,7 +38683,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -38640,10 +38786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="192"/>
+      <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -38669,10 +38815,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="192"/>
+      <c r="B5" s="194"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -38698,10 +38844,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="192"/>
+      <c r="B9" s="194"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
@@ -38727,10 +38873,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="194" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="192"/>
+      <c r="B13" s="194"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -38756,10 +38902,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="185" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="183"/>
+      <c r="B17" s="185"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -38792,10 +38938,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="194" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="192"/>
+      <c r="B21" s="194"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -38821,10 +38967,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="194" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="192"/>
+      <c r="B25" s="194"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -38873,10 +39019,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="194" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="192"/>
+      <c r="B33" s="194"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -39707,7 +39853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD248CD-8E8A-4827-AA15-553FDF254D9A}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -40127,17 +40273,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81"/>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="176" t="s">
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="179" t="s">
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="181" t="s">
         <v>403</v>
       </c>
     </row>
@@ -40163,9 +40309,9 @@
       <c r="G2" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="H2" s="180"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="174" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J2" s="89" t="s">
         <v>166</v>
@@ -40177,7 +40323,7 @@
         <v>411</v>
       </c>
       <c r="M2" s="175" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41216,7 +41362,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="183" t="s">
         <v>409</v>
       </c>
       <c r="B34" s="85">
@@ -41232,7 +41378,7 @@
       <c r="H34" s="87"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
       <c r="D35" s="85">
@@ -41284,14 +41430,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
       <c r="E1" s="80"/>
       <c r="F1">
         <v>122.6</v>
@@ -41299,34 +41445,34 @@
       <c r="G1" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="188" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="188"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="190"/>
       <c r="N1" s="80"/>
-      <c r="T1" s="189" t="s">
+      <c r="T1" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="184" t="s">
+      <c r="U1" s="192"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="186" t="s">
         <v>383</v>
       </c>
-      <c r="AB1" s="183" t="s">
+      <c r="AB1" s="185" t="s">
         <v>398</v>
       </c>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AH1" s="183" t="s">
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AH1" s="185" t="s">
         <v>399</v>
       </c>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="185"/>
     </row>
     <row r="2" spans="1:36" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185"/>
+      <c r="A2" s="187"/>
       <c r="B2" s="68" t="s">
         <v>356</v>
       </c>
@@ -41378,7 +41524,7 @@
       <c r="V2" s="68" t="s">
         <v>386</v>
       </c>
-      <c r="W2" s="185"/>
+      <c r="W2" s="187"/>
       <c r="X2" s="77" t="s">
         <v>387</v>
       </c>

--- a/Jabar/Jabar.xlsx
+++ b/Jabar/Jabar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F611BE-71C6-4328-AF9C-04EC6AFD8F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F886A8-6776-4618-9405-1BA04F68A1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2895" windowWidth="21600" windowHeight="11505" tabRatio="815" firstSheet="10" activeTab="10" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
+    <workbookView minimized="1" xWindow="2130" yWindow="1995" windowWidth="21600" windowHeight="11505" tabRatio="815" activeTab="5" xr2:uid="{02F994C9-703D-4073-B38E-810FA24E22F7}"/>
   </bookViews>
   <sheets>
     <sheet name="data jabar 2008-2018" sheetId="36" r:id="rId1"/>
@@ -2091,7 +2091,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -3028,6 +3028,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3163,6 +3164,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3178,6 +3185,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3186,15 +3202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3207,13 +3214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10408,15 +10408,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:colOff>1819275</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227652</xdr:colOff>
+      <xdr:colOff>151452</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>180057</xdr:rowOff>
+      <xdr:rowOff>161007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10439,7 +10439,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1895475" y="4076700"/>
+          <a:off x="1819275" y="4057650"/>
           <a:ext cx="7580952" cy="7342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11884,19 +11884,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="194" t="s">
+      <c r="D1" s="195" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -12269,10 +12269,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="185" t="s">
+      <c r="D11" s="186" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="185"/>
+      <c r="E11" s="186"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -12468,7 +12468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3B8531-64D9-451B-A0AD-237B6A054BA4}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -12493,37 +12493,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="202" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="201"/>
+      <c r="C2" s="202"/>
       <c r="D2" s="160" t="s">
         <v>203</v>
       </c>
@@ -12580,31 +12580,31 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
+      <c r="A3" s="203"/>
       <c r="B3" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="202" t="s">
+      <c r="C3" s="203" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
       <c r="I3" s="3" t="s">
         <v>463</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="P3" s="185" t="s">
+      <c r="P3" s="186" t="s">
         <v>507</v>
       </c>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="153">
@@ -13388,33 +13388,33 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="152"/>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="200" t="s">
         <v>505</v>
       </c>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="204" t="s">
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="205" t="s">
+      <c r="I14" s="206" t="s">
         <v>523</v>
       </c>
-      <c r="J14" s="206"/>
-      <c r="K14" s="206"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="208"/>
       <c r="N14" s="168" t="s">
         <v>513</v>
       </c>
-      <c r="O14" s="205" t="s">
+      <c r="O14" s="206" t="s">
         <v>508</v>
       </c>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="208"/>
-      <c r="R14" s="209"/>
-      <c r="S14" s="203" t="s">
+      <c r="P14" s="207"/>
+      <c r="Q14" s="209"/>
+      <c r="R14" s="210"/>
+      <c r="S14" s="204" t="s">
         <v>515</v>
       </c>
     </row>
@@ -13437,7 +13437,7 @@
       <c r="G15" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="204"/>
+      <c r="H15" s="205"/>
       <c r="I15" s="169" t="s">
         <v>203</v>
       </c>
@@ -13466,32 +13466,32 @@
       <c r="R15" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="S15" s="203"/>
+      <c r="S15" s="204"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="196" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="205" t="s">
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="206" t="s">
         <v>507</v>
       </c>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="205" t="s">
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="208"/>
+      <c r="O16" s="206" t="s">
         <v>509</v>
       </c>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206"/>
-      <c r="R16" s="207"/>
+      <c r="P16" s="207"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="208"/>
       <c r="S16" t="s">
         <v>516</v>
       </c>
@@ -14279,47 +14279,47 @@
     </row>
     <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99"/>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="220" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219" t="s">
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219" t="s">
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220" t="s">
         <v>477</v>
       </c>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="214" t="s">
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="214" t="s">
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="215" t="s">
         <v>478</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="212" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="213" t="s">
         <v>479</v>
       </c>
-      <c r="AA2" s="217" t="s">
+      <c r="AA2" s="218" t="s">
         <v>480</v>
       </c>
-      <c r="AC2" s="210" t="s">
+      <c r="AC2" s="211" t="s">
         <v>517</v>
       </c>
       <c r="AD2" s="105"/>
@@ -14401,9 +14401,9 @@
       <c r="Y3" s="107" t="s">
         <v>493</v>
       </c>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="218"/>
-      <c r="AC3" s="211"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="219"/>
+      <c r="AC3" s="212"/>
       <c r="AD3" s="104"/>
       <c r="AE3" s="141"/>
     </row>
@@ -16627,73 +16627,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="221" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="195" t="s">
         <v>529</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194" t="s">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194" t="s">
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194" t="s">
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195" t="s">
         <v>530</v>
       </c>
-      <c r="Q3" s="194"/>
+      <c r="Q3" s="195"/>
     </row>
     <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -17907,10 +17907,10 @@
       <c r="Q27" s="42"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="195" t="s">
         <v>528</v>
       </c>
-      <c r="C29" s="194"/>
+      <c r="C29" s="195"/>
       <c r="D29" s="14" t="s">
         <v>538</v>
       </c>
@@ -17972,11 +17972,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -18366,7 +18366,7 @@
         <f>F4/(1+$B$28)</f>
         <v>0.67089304554612084</v>
       </c>
-      <c r="G3" s="221" t="s">
+      <c r="G3" s="222" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="13">
@@ -18402,7 +18402,7 @@
         <f>F5/(1+$B$28)</f>
         <v>0.68137615429702802</v>
       </c>
-      <c r="G4" s="221"/>
+      <c r="G4" s="222"/>
       <c r="H4" s="13">
         <f t="shared" ref="H4:H23" si="1">E4/B4</f>
         <v>1177.2195246281549</v>
@@ -19179,25 +19179,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="223" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="194" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194" t="s">
+      <c r="E1" s="195"/>
+      <c r="F1" s="195" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="220" t="s">
+      <c r="G1" s="195"/>
+      <c r="H1" s="221" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="220"/>
+      <c r="I1" s="221"/>
       <c r="J1" s="14" t="s">
         <v>287</v>
       </c>
@@ -19206,10 +19206,10 @@
         <v>288</v>
       </c>
       <c r="M1" s="62"/>
-      <c r="N1" s="220" t="s">
+      <c r="N1" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="220"/>
+      <c r="O1" s="221"/>
       <c r="P1" s="14" t="s">
         <v>144</v>
       </c>
@@ -19219,7 +19219,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
+      <c r="A2" s="223"/>
       <c r="B2" s="14" t="s">
         <v>138</v>
       </c>
@@ -20335,22 +20335,22 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="223" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="222"/>
-      <c r="D25" s="194" t="s">
+      <c r="C25" s="223"/>
+      <c r="D25" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194" t="s">
+      <c r="E25" s="195"/>
+      <c r="F25" s="195" t="s">
         <v>291</v>
       </c>
-      <c r="G25" s="194"/>
-      <c r="H25" s="220" t="s">
+      <c r="G25" s="195"/>
+      <c r="H25" s="221" t="s">
         <v>286</v>
       </c>
-      <c r="I25" s="220"/>
+      <c r="I25" s="221"/>
       <c r="J25" s="14" t="s">
         <v>287</v>
       </c>
@@ -20359,17 +20359,17 @@
         <v>288</v>
       </c>
       <c r="M25" s="62"/>
-      <c r="N25" s="220" t="s">
+      <c r="N25" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="O25" s="220"/>
+      <c r="O25" s="221"/>
       <c r="P25" s="14" t="s">
         <v>144</v>
       </c>
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="222" t="s">
+      <c r="A26" s="223" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -20422,25 +20422,25 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
-      <c r="B27" s="194" t="s">
+      <c r="A27" s="223"/>
+      <c r="B27" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="194"/>
-      <c r="M27" s="194"/>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -21766,19 +21766,19 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="222" t="s">
+      <c r="A52" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="220" t="s">
+      <c r="B52" s="221" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="220"/>
+      <c r="C52" s="221"/>
       <c r="E52" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="222"/>
+      <c r="A53" s="223"/>
       <c r="B53" s="14" t="s">
         <v>138</v>
       </c>
@@ -22245,21 +22245,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="B27:Q27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22276,18 +22276,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="221" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
+      <c r="A2" s="223"/>
       <c r="B2" s="14" t="s">
         <v>219</v>
       </c>
@@ -22941,7 +22941,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -22956,22 +22956,22 @@
       <c r="E1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="223" t="s">
+      <c r="F1" s="226" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="224"/>
+      <c r="G1" s="227"/>
       <c r="H1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="239" t="s">
+      <c r="I1" s="224" t="s">
         <v>543</v>
       </c>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
+      <c r="A2" s="223"/>
       <c r="B2" s="14" t="s">
         <v>206</v>
       </c>
@@ -22993,10 +22993,10 @@
       <c r="H2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="239"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -23023,10 +23023,10 @@
       <c r="H3" s="14">
         <v>19177472</v>
       </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -23053,10 +23053,10 @@
       <c r="H4" s="14">
         <v>19177472</v>
       </c>
-      <c r="I4" s="239"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
@@ -23083,10 +23083,10 @@
       <c r="H5" s="14">
         <v>27824163</v>
       </c>
-      <c r="I5" s="239"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -23113,10 +23113,10 @@
       <c r="H6" s="32">
         <v>28637553</v>
       </c>
-      <c r="I6" s="239"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -23143,10 +23143,10 @@
       <c r="H7" s="32">
         <v>100075015</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="225"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -23173,10 +23173,10 @@
       <c r="H8" s="14">
         <v>47643540</v>
       </c>
-      <c r="I8" s="239"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -23189,10 +23189,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="225"/>
+      <c r="L9" s="225"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -23217,17 +23217,17 @@
       <c r="H10" s="14">
         <v>26026616</v>
       </c>
-      <c r="I10" s="239"/>
-      <c r="J10" s="240"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="223" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -23236,14 +23236,14 @@
       <c r="C12" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="195" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="194"/>
+      <c r="E12" s="195"/>
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
+      <c r="A13" s="223"/>
       <c r="B13" s="14" t="s">
         <v>216</v>
       </c>
@@ -23452,7 +23452,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="222" t="s">
+      <c r="A24" s="223" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -23499,13 +23499,13 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
-      <c r="B25" s="225" t="s">
+      <c r="A25" s="223"/>
+      <c r="B25" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="226"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="227"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="230"/>
       <c r="F25" s="14" t="s">
         <v>227</v>
       </c>
@@ -23573,7 +23573,7 @@
         <f>'Industri Jabar'!B4</f>
         <v>502823197.66031468</v>
       </c>
-      <c r="M26" s="238">
+      <c r="M26" s="178">
         <f>G26/L26</f>
         <v>3.9760544287921237E-2</v>
       </c>
@@ -23634,7 +23634,7 @@
         <f>'Industri Jabar'!B5</f>
         <v>532881000.27030885</v>
       </c>
-      <c r="M27" s="238">
+      <c r="M27" s="178">
         <f t="shared" ref="M27:M33" si="10">G27/L27</f>
         <v>3.8995488534197639E-2</v>
       </c>
@@ -23695,7 +23695,7 @@
         <f>'Industri Jabar'!B6</f>
         <v>560452135.22425318</v>
       </c>
-      <c r="M28" s="238">
+      <c r="M28" s="178">
         <f t="shared" si="10"/>
         <v>3.8697618773505096E-2</v>
       </c>
@@ -23756,7 +23756,7 @@
         <f>'Industri Jabar'!B7</f>
         <v>599276378.11810005</v>
       </c>
-      <c r="M29" s="238">
+      <c r="M29" s="178">
         <f t="shared" si="10"/>
         <v>3.7468115542947621E-2</v>
       </c>
@@ -23817,7 +23817,7 @@
         <f>'Industri Jabar'!B8</f>
         <v>629598085.88116324</v>
       </c>
-      <c r="M30" s="238">
+      <c r="M30" s="178">
         <f t="shared" si="10"/>
         <v>4.9215786703444689E-2</v>
       </c>
@@ -23878,7 +23878,7 @@
         <f>'Industri Jabar'!B9</f>
         <v>657314383.10285509</v>
       </c>
-      <c r="M31" s="238">
+      <c r="M31" s="178">
         <f t="shared" si="10"/>
         <v>5.2890153323614054E-2</v>
       </c>
@@ -23939,7 +23939,7 @@
         <f>'Industri Jabar'!B10</f>
         <v>687265701.53099227</v>
       </c>
-      <c r="M32" s="238">
+      <c r="M32" s="178">
         <f t="shared" si="10"/>
         <v>4.4398738808278007E-2</v>
       </c>
@@ -24000,7 +24000,7 @@
         <f>'Industri Jabar'!B11</f>
         <v>722813263.98229814</v>
       </c>
-      <c r="M33" s="238">
+      <c r="M33" s="178">
         <f t="shared" si="10"/>
         <v>4.0297254658839078E-2</v>
       </c>
@@ -27800,16 +27800,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="231" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="203" t="s">
+      <c r="D1" s="204" t="s">
         <v>371</v>
       </c>
       <c r="E1" s="233" t="s">
@@ -27821,44 +27821,44 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="195" t="s">
+      <c r="K1" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195" t="s">
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="195"/>
+      <c r="O1" s="196"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="230" t="s">
+      <c r="R1" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="194" t="s">
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
+      <c r="A2" s="223"/>
       <c r="B2" s="232"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="204"/>
       <c r="E2" s="233"/>
       <c r="F2" s="233"/>
-      <c r="H2" s="228" t="s">
+      <c r="H2" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="228"/>
+      <c r="I2" s="234"/>
       <c r="J2" s="11">
         <v>2000</v>
       </c>
@@ -29013,10 +29013,10 @@
         <f t="shared" si="3"/>
         <v>12900861.450007658</v>
       </c>
-      <c r="H21" s="229" t="s">
+      <c r="H21" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="229"/>
+      <c r="I21" s="235"/>
       <c r="J21" s="7"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -29477,10 +29477,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H31" s="228" t="s">
+      <c r="H31" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="228"/>
+      <c r="I31" s="234"/>
       <c r="J31" s="20">
         <v>43552.923000000003</v>
       </c>
@@ -29809,6 +29809,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="K1:M1"/>
@@ -29816,12 +29822,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29894,7 +29894,7 @@
       <c r="I2" s="63">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="J2" s="220" t="s">
+      <c r="J2" s="221" t="s">
         <v>89</v>
       </c>
     </row>
@@ -29920,7 +29920,7 @@
       <c r="I3" s="63">
         <v>3.6429999999999997E-2</v>
       </c>
-      <c r="J3" s="220"/>
+      <c r="J3" s="221"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -29944,7 +29944,7 @@
       <c r="I4" s="63">
         <v>4.4990000000000002E-2</v>
       </c>
-      <c r="J4" s="220"/>
+      <c r="J4" s="221"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -29968,7 +29968,7 @@
       <c r="I5" s="63">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="J5" s="220"/>
+      <c r="J5" s="221"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -29992,7 +29992,7 @@
       <c r="I6" s="63">
         <v>5.0310000000000001E-2</v>
       </c>
-      <c r="J6" s="220"/>
+      <c r="J6" s="221"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -30016,7 +30016,7 @@
       <c r="I7" s="63">
         <v>5.6930000000000001E-2</v>
       </c>
-      <c r="J7" s="220"/>
+      <c r="J7" s="221"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -30040,7 +30040,7 @@
       <c r="I8" s="63">
         <v>5.5010000000000003E-2</v>
       </c>
-      <c r="J8" s="220"/>
+      <c r="J8" s="221"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -30064,7 +30064,7 @@
       <c r="I9" s="63">
         <v>6.3450000000000006E-2</v>
       </c>
-      <c r="J9" s="220"/>
+      <c r="J9" s="221"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -30088,7 +30088,7 @@
       <c r="I10" s="63">
         <v>6.0139999999999999E-2</v>
       </c>
-      <c r="J10" s="220"/>
+      <c r="J10" s="221"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -30112,7 +30112,7 @@
       <c r="I11" s="63">
         <v>4.6289999999999998E-2</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="221"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -30136,7 +30136,7 @@
       <c r="I12" s="63">
         <v>6.2239999999999997E-2</v>
       </c>
-      <c r="J12" s="220"/>
+      <c r="J12" s="221"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -30160,7 +30160,7 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J13" s="234" t="s">
+      <c r="J13" s="237" t="s">
         <v>95</v>
       </c>
     </row>
@@ -30186,7 +30186,7 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J14" s="235"/>
+      <c r="J14" s="238"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -30210,7 +30210,7 @@
         <f>6.33/100</f>
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="J15" s="235"/>
+      <c r="J15" s="238"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -30234,7 +30234,7 @@
         <f>5.09/100</f>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="J16" s="235"/>
+      <c r="J16" s="238"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -30261,7 +30261,7 @@
         <f>5.05/100</f>
         <v>5.0499999999999996E-2</v>
       </c>
-      <c r="J17" s="235"/>
+      <c r="J17" s="238"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -30289,7 +30289,7 @@
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="J18" s="235"/>
+      <c r="J18" s="238"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -30318,7 +30318,7 @@
         <f>5.33/100</f>
         <v>5.33E-2</v>
       </c>
-      <c r="J19" s="235"/>
+      <c r="J19" s="238"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -30346,7 +30346,7 @@
         <f>5.66/100</f>
         <v>5.6600000000000004E-2</v>
       </c>
-      <c r="J20" s="235"/>
+      <c r="J20" s="238"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -30374,7 +30374,7 @@
         <f>5.07/100</f>
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="J21" s="236"/>
+      <c r="J21" s="239"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -30577,7 +30577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -30591,7 +30591,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
+      <c r="A2" s="223"/>
       <c r="B2" s="14" t="s">
         <v>43</v>
       </c>
@@ -30876,7 +30876,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="223" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="16">
@@ -30911,7 +30911,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="222"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="16">
         <v>2001</v>
       </c>
@@ -30953,7 +30953,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="222"/>
+      <c r="A5" s="223"/>
       <c r="B5" s="16">
         <v>2002</v>
       </c>
@@ -30995,7 +30995,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="222"/>
+      <c r="A6" s="223"/>
       <c r="B6" s="16">
         <v>2003</v>
       </c>
@@ -31037,7 +31037,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="222"/>
+      <c r="A7" s="223"/>
       <c r="B7" s="16">
         <v>2004</v>
       </c>
@@ -31079,7 +31079,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
+      <c r="A8" s="223"/>
       <c r="B8" s="16">
         <v>2005</v>
       </c>
@@ -31109,7 +31109,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="222"/>
+      <c r="A9" s="223"/>
       <c r="B9" s="16">
         <v>2006</v>
       </c>
@@ -31142,7 +31142,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="222"/>
+      <c r="A10" s="223"/>
       <c r="B10" s="16">
         <v>2007</v>
       </c>
@@ -31178,7 +31178,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="222"/>
+      <c r="A11" s="223"/>
       <c r="B11" s="16">
         <v>2008</v>
       </c>
@@ -31214,7 +31214,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="222"/>
+      <c r="A12" s="223"/>
       <c r="B12" s="16">
         <v>2009</v>
       </c>
@@ -31244,7 +31244,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
+      <c r="A13" s="223"/>
       <c r="B13" s="16">
         <v>2010</v>
       </c>
@@ -31274,7 +31274,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="16">
         <v>2011</v>
       </c>
@@ -31304,7 +31304,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="16">
         <v>2012</v>
       </c>
@@ -34182,14 +34182,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="223" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="224"/>
+      <c r="E1" s="227"/>
       <c r="F1" t="s">
         <v>92</v>
       </c>
@@ -35961,10 +35961,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="237"/>
+      <c r="B26" s="240"/>
       <c r="C26" s="36">
         <v>6874</v>
       </c>
@@ -36855,14 +36855,14 @@
         <v>142</v>
       </c>
       <c r="S1" s="233"/>
-      <c r="T1" s="220" t="s">
+      <c r="T1" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220" t="s">
+      <c r="U1" s="221"/>
+      <c r="V1" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="220"/>
+      <c r="W1" s="221"/>
       <c r="X1" s="2" t="s">
         <v>154</v>
       </c>
@@ -38786,10 +38786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="195"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -38815,10 +38815,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="194"/>
+      <c r="B5" s="195"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -38844,10 +38844,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="194"/>
+      <c r="B9" s="195"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
@@ -38873,10 +38873,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="195" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="194"/>
+      <c r="B13" s="195"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -38902,10 +38902,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="186" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="185"/>
+      <c r="B17" s="186"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -38938,10 +38938,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="194" t="s">
+      <c r="A21" s="195" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="194"/>
+      <c r="B21" s="195"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -38967,10 +38967,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="194" t="s">
+      <c r="A25" s="195" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="194"/>
+      <c r="B25" s="195"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -39019,10 +39019,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="195" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="194"/>
+      <c r="B33" s="195"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -39853,7 +39853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD248CD-8E8A-4827-AA15-553FDF254D9A}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -40273,17 +40273,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81"/>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="178" t="s">
+      <c r="C1" s="180"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="179" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="181" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="182" t="s">
         <v>403</v>
       </c>
     </row>
@@ -40309,7 +40309,7 @@
       <c r="G2" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="H2" s="182"/>
+      <c r="H2" s="183"/>
       <c r="I2" s="174" t="s">
         <v>526</v>
       </c>
@@ -41362,7 +41362,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="183" t="s">
+      <c r="A34" s="184" t="s">
         <v>409</v>
       </c>
       <c r="B34" s="85">
@@ -41378,7 +41378,7 @@
       <c r="H34" s="87"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
       <c r="D35" s="85">
@@ -41430,14 +41430,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="189" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
       <c r="E1" s="80"/>
       <c r="F1">
         <v>122.6</v>
@@ -41445,34 +41445,34 @@
       <c r="G1" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="188" t="s">
+      <c r="K1" s="189" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="189"/>
-      <c r="M1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="191"/>
       <c r="N1" s="80"/>
-      <c r="T1" s="191" t="s">
+      <c r="T1" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="192"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="186" t="s">
+      <c r="U1" s="193"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="187" t="s">
         <v>383</v>
       </c>
-      <c r="AB1" s="185" t="s">
+      <c r="AB1" s="186" t="s">
         <v>398</v>
       </c>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AH1" s="185" t="s">
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AH1" s="186" t="s">
         <v>399</v>
       </c>
-      <c r="AI1" s="185"/>
-      <c r="AJ1" s="185"/>
+      <c r="AI1" s="186"/>
+      <c r="AJ1" s="186"/>
     </row>
     <row r="2" spans="1:36" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="187"/>
+      <c r="A2" s="188"/>
       <c r="B2" s="68" t="s">
         <v>356</v>
       </c>
@@ -41524,7 +41524,7 @@
       <c r="V2" s="68" t="s">
         <v>386</v>
       </c>
-      <c r="W2" s="187"/>
+      <c r="W2" s="188"/>
       <c r="X2" s="77" t="s">
         <v>387</v>
       </c>
